--- a/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.04757553502902827</v>
+        <v>0.05632748640837364</v>
       </c>
       <c r="F2">
         <v>0.542091917893391</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01694029983635328</v>
+        <v>0.01693885543591605</v>
       </c>
       <c r="F3">
         <v>0.5248439123623589</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.04785253611640357</v>
+        <v>0.00412256032204522</v>
       </c>
       <c r="F6">
         <v>0.5078679508512783</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>136</v>
       </c>
       <c r="E2">
-        <v>0.04757553502902827</v>
+        <v>0.05632748640837364</v>
       </c>
       <c r="F2">
         <v>0.7018658779246477</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>129</v>
       </c>
       <c r="E3">
-        <v>0.01694029983635328</v>
+        <v>0.01693885543591605</v>
       </c>
       <c r="F3">
         <v>0.71421012421592</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>141</v>
       </c>
       <c r="E6">
-        <v>0.04785253611640357</v>
+        <v>0.00412256032204522</v>
       </c>
       <c r="F6">
         <v>0.7119790736762444</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>155</v>
       </c>
       <c r="E2">
-        <v>0.04757553502902827</v>
+        <v>0.05632748640837364</v>
       </c>
       <c r="F2">
         <v>0.8129762539726263</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.01694029983635328</v>
+        <v>0.01693885543591605</v>
       </c>
       <c r="F3">
         <v>0.8115944630638782</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>154</v>
       </c>
       <c r="E6">
-        <v>0.04785253611640357</v>
+        <v>0.00412256032204522</v>
       </c>
       <c r="F6">
         <v>0.8060676182442424</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.04757553502902827</v>
+        <v>0.05632748640837364</v>
       </c>
       <c r="F2">
         <v>0.9048132289532163</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3">
-        <v>0.01694029983635328</v>
+        <v>0.01693885543591605</v>
       </c>
       <c r="F3">
         <v>0.9060530370041394</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.04785253611640357</v>
+        <v>0.00412256032204522</v>
       </c>
       <c r="F6">
         <v>0.9044380807665715</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>1</v>

--- a/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0002501105308408135</v>
+        <v>0.0001841479861132176</v>
       </c>
       <c r="C2">
-        <v>0.0001759673576271451</v>
+        <v>0.0001090534989951203</v>
       </c>
       <c r="D2">
-        <v>0.0002224864796434741</v>
+        <v>0.0001561694971050638</v>
       </c>
       <c r="E2">
-        <v>6.829537296020082E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>7.321771317355518E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.441935505843473E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.973512345604641E-05</v>
+        <v>1.158653128817198E-05</v>
       </c>
       <c r="I2">
-        <v>8.781061880607139E-05</v>
+        <v>1.976564145097941E-05</v>
       </c>
       <c r="J2">
-        <v>0.0002732165818423242</v>
+        <v>0.0002075505055101508</v>
       </c>
       <c r="K2">
-        <v>0.000395203287129727</v>
+        <v>0.0003311023939946761</v>
       </c>
       <c r="L2">
-        <v>0.0002678403116092947</v>
+        <v>0.0002021052535974201</v>
       </c>
       <c r="M2">
-        <v>0.0003797615564604192</v>
+        <v>0.0003154625340511892</v>
       </c>
       <c r="N2">
-        <v>0.0003734183161854773</v>
+        <v>0.0003090379051276215</v>
       </c>
       <c r="O2">
-        <v>0.0004763139506453949</v>
+        <v>0.000413253769671092</v>
       </c>
       <c r="P2">
-        <v>0.0004209523482457966</v>
+        <v>0.000357181835357557</v>
       </c>
       <c r="Q2">
-        <v>0.0006020972260973566</v>
+        <v>0.0005406509412337208</v>
       </c>
       <c r="R2">
-        <v>0.000639557727721048</v>
+        <v>0.0005785920898882427</v>
       </c>
       <c r="S2">
-        <v>0.0007650376331598604</v>
+        <v>0.0007056819989672603</v>
       </c>
       <c r="T2">
-        <v>0.0008165054353906853</v>
+        <v>0.0007578101726627847</v>
       </c>
       <c r="U2">
-        <v>0.0005193337225100479</v>
+        <v>0.000456825518277046</v>
       </c>
       <c r="V2">
-        <v>0.0004162708780428825</v>
+        <v>0.0003524402982934045</v>
       </c>
       <c r="W2">
-        <v>0.0001397664060580477</v>
+        <v>7.238806139057917E-05</v>
       </c>
       <c r="X2">
-        <v>3.703516160525539E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.842629779867112E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3.136090635930996E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>9.508934912156134E-05</v>
+        <v>2.713776347140433E-05</v>
       </c>
       <c r="AB2">
-        <v>0.000329496174281712</v>
+        <v>0.0002645522083813228</v>
       </c>
       <c r="AC2">
-        <v>0.0006809521295152507</v>
+        <v>0.0006205176136763593</v>
       </c>
       <c r="AD2">
-        <v>0.0008873684984621805</v>
+        <v>0.000829582463304242</v>
       </c>
       <c r="AE2">
-        <v>0.001151925449929161</v>
+        <v>0.001097533883817193</v>
       </c>
       <c r="AF2">
-        <v>0.001468432763647883</v>
+        <v>0.001418102229662586</v>
       </c>
       <c r="AG2">
-        <v>0.001378417459746251</v>
+        <v>0.001326931960219269</v>
       </c>
       <c r="AH2">
-        <v>0.001262051454702472</v>
+        <v>0.001209072889882993</v>
       </c>
       <c r="AI2">
-        <v>0.001186573851430964</v>
+        <v>0.001132626850943669</v>
       </c>
       <c r="AJ2">
-        <v>0.001144172649593123</v>
+        <v>0.00108968160909345</v>
       </c>
       <c r="AK2">
-        <v>0.000779836433801301</v>
+        <v>0.0007206706795964174</v>
       </c>
       <c r="AL2">
-        <v>0.000469412180346244</v>
+        <v>0.000406263444353776</v>
       </c>
       <c r="AM2">
-        <v>0.0001640357771099815</v>
+        <v>9.69688271283988E-05</v>
       </c>
       <c r="AN2">
-        <v>6.456588279854946E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.855936480443879E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>6.527963282948631E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001189634751563636</v>
+        <v>5.131821289470719E-05</v>
       </c>
       <c r="AR2">
-        <v>0.0002551552410594719</v>
+        <v>0.0001892574238417304</v>
       </c>
       <c r="AS2">
-        <v>0.0004182740181297069</v>
+        <v>0.000354469140207309</v>
       </c>
       <c r="AT2">
-        <v>0.0003997650473274523</v>
+        <v>0.000335722685082255</v>
       </c>
       <c r="AU2">
-        <v>0.0006420400778286431</v>
+        <v>0.000581106290455842</v>
       </c>
       <c r="AV2">
-        <v>0.001011914843860529</v>
+        <v>0.0009557268340498706</v>
       </c>
       <c r="AW2">
-        <v>0.001448098962766532</v>
+        <v>0.001397507530485818</v>
       </c>
       <c r="AX2">
-        <v>0.001208870352397386</v>
+        <v>0.001155209433156281</v>
       </c>
       <c r="AY2">
-        <v>0.001389008060205291</v>
+        <v>0.001337658446222942</v>
       </c>
       <c r="AZ2">
-        <v>0.00135510675873587</v>
+        <v>0.001303322164996542</v>
       </c>
       <c r="BA2">
-        <v>0.001181748251221803</v>
+        <v>0.0011277393345745</v>
       </c>
       <c r="BB2">
-        <v>0.0008230566356746411</v>
+        <v>0.0007644454298821358</v>
       </c>
       <c r="BC2">
-        <v>0.0005111720721562885</v>
+        <v>0.000448559147675581</v>
       </c>
       <c r="BD2">
-        <v>0.0002588232812184597</v>
+        <v>0.0001929725277754935</v>
       </c>
       <c r="BE2">
-        <v>7.456782323207448E-05</v>
+        <v>6.352930630345451E-06</v>
       </c>
       <c r="BF2">
-        <v>3.430258148681419E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.116271348383766E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0001611183469835282</v>
+        <v>9.401396413086376E-05</v>
       </c>
       <c r="BI2">
-        <v>0.0003831387566068009</v>
+        <v>0.0003188830662714225</v>
       </c>
       <c r="BJ2">
-        <v>0.0004104823677919848</v>
+        <v>0.0003465775170064973</v>
       </c>
       <c r="BK2">
-        <v>0.0006903672299233396</v>
+        <v>0.0006300535170598482</v>
       </c>
       <c r="BL2">
-        <v>0.0008981117089278351</v>
+        <v>0.0008404635174182218</v>
       </c>
       <c r="BM2">
-        <v>0.00116750955060464</v>
+        <v>0.001113317940483467</v>
       </c>
       <c r="BN2">
-        <v>0.001242387753850167</v>
+        <v>0.001189156888633732</v>
       </c>
       <c r="BO2">
-        <v>0.001638428071016174</v>
+        <v>0.001590278707495771</v>
       </c>
       <c r="BP2">
-        <v>0.001660997971994446</v>
+        <v>0.001613138197652542</v>
       </c>
       <c r="BQ2">
-        <v>0.001587233268797182</v>
+        <v>0.00153842703661208</v>
       </c>
       <c r="BR2">
-        <v>0.001090636147272632</v>
+        <v>0.001035458192295948</v>
       </c>
       <c r="BS2">
-        <v>0.001061684646017755</v>
+        <v>0.00100613522102564</v>
       </c>
       <c r="BT2">
-        <v>0.0005076972220056742</v>
+        <v>0.0004450397125264995</v>
       </c>
       <c r="BU2">
-        <v>0.0002343418701573352</v>
+        <v>0.0001681770013921751</v>
       </c>
       <c r="BV2">
-        <v>8.728762978340291E-05</v>
+        <v>1.923594207714084E-05</v>
       </c>
       <c r="BW2">
-        <v>1.584441168676161E-07</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>4.049406775517854E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0001355478958752002</v>
+        <v>6.811542447941708E-05</v>
       </c>
       <c r="BZ2">
-        <v>0.000324595714069306</v>
+        <v>0.0002595888714975243</v>
       </c>
       <c r="CA2">
-        <v>0.0008137057652693363</v>
+        <v>0.0007549745806217388</v>
       </c>
       <c r="CB2">
-        <v>0.001196401351856929</v>
+        <v>0.001142580445754264</v>
       </c>
       <c r="CC2">
-        <v>0.001081705446885539</v>
+        <v>0.001026412904158072</v>
       </c>
       <c r="CD2">
-        <v>0.001418399661479243</v>
+        <v>0.001367427164333865</v>
       </c>
       <c r="CE2">
-        <v>0.001829890479314938</v>
+        <v>0.001784197725665618</v>
       </c>
       <c r="CF2">
-        <v>0.001933388083800948</v>
+        <v>0.001889023283973335</v>
       </c>
       <c r="CG2">
-        <v>0.001681992472904434</v>
+        <v>0.001634402074147179</v>
       </c>
       <c r="CH2">
-        <v>0.001397548860575484</v>
+        <v>0.001346308831626995</v>
       </c>
       <c r="CI2">
-        <v>0.001193011951710018</v>
+        <v>0.001139147556998118</v>
       </c>
       <c r="CJ2">
-        <v>0.0007161195310395498</v>
+        <v>0.000656136239994562</v>
       </c>
       <c r="CK2">
-        <v>0.0004419992191580541</v>
+        <v>0.0003784987538018489</v>
       </c>
       <c r="CL2">
-        <v>0.0002715980917721723</v>
+        <v>0.0002059112489683039</v>
       </c>
       <c r="CM2">
-        <v>0.0006832655896155255</v>
+        <v>0.0006228607572480225</v>
       </c>
       <c r="CN2">
-        <v>0.06055587062473913</v>
+        <v>0.06126367733762275</v>
       </c>
       <c r="CO2">
-        <v>0.0003090564433957704</v>
+        <v>0.0002438502200365787</v>
       </c>
       <c r="CP2">
-        <v>0.07936721344009967</v>
+        <v>0.08031638414113712</v>
       </c>
       <c r="CQ2">
-        <v>0.008676633376080781</v>
+        <v>0.008718789596725732</v>
       </c>
       <c r="CR2">
-        <v>0.005281591228925769</v>
+        <v>0.005280186449134399</v>
       </c>
       <c r="CS2">
-        <v>1.126446048824779E-05</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.02850169123537988</v>
+        <v>0.02879821818741109</v>
       </c>
       <c r="CU2">
-        <v>0.004434854892224752</v>
+        <v>0.004422585834367382</v>
       </c>
       <c r="CV2">
-        <v>0.03038438931698371</v>
+        <v>0.03070507273258723</v>
       </c>
       <c r="CW2">
-        <v>0.004367630689310979</v>
+        <v>0.004354499093256577</v>
       </c>
       <c r="CX2">
-        <v>0.102088679424941</v>
+        <v>0.1033293840000156</v>
       </c>
       <c r="CY2">
-        <v>0.02710109717467241</v>
+        <v>0.02737965342830133</v>
       </c>
       <c r="CZ2">
-        <v>0.009319263903935017</v>
+        <v>0.009369665568227173</v>
       </c>
       <c r="DA2">
-        <v>0.02589860512255148</v>
+        <v>0.02616173247882459</v>
       </c>
       <c r="DB2">
-        <v>0.009489517411314501</v>
+        <v>0.009542103558976165</v>
       </c>
       <c r="DC2">
-        <v>0.08858020983942862</v>
+        <v>0.08964759036608114</v>
       </c>
       <c r="DD2">
-        <v>0.00672701829157649</v>
+        <v>0.006744159452064407</v>
       </c>
       <c r="DE2">
-        <v>0.02763101119764105</v>
+        <v>0.02791636665551699</v>
       </c>
       <c r="DF2">
-        <v>5.039524218433593E-05</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.02381554703226322</v>
+        <v>0.02405194715204062</v>
       </c>
       <c r="DH2">
-        <v>0.0003559414654279591</v>
+        <v>0.0002913368129408439</v>
       </c>
       <c r="DI2">
-        <v>0.0003253558941022553</v>
+        <v>0.0002603588052246286</v>
       </c>
       <c r="DJ2">
-        <v>0.011377352493141</v>
+        <v>0.01145416101603652</v>
       </c>
       <c r="DK2">
-        <v>0.008826468382575245</v>
+        <v>0.008870547101528133</v>
       </c>
       <c r="DL2">
-        <v>0.01180669251175035</v>
+        <v>0.01188900979710811</v>
       </c>
       <c r="DM2">
-        <v>0.007038861805093063</v>
+        <v>0.007060004157566105</v>
       </c>
       <c r="DN2">
-        <v>0.002692093716686353</v>
+        <v>0.002657463693327673</v>
       </c>
       <c r="DO2">
-        <v>0.005021197517639239</v>
+        <v>0.005016451686373598</v>
       </c>
       <c r="DP2">
-        <v>4.679296202819838E-06</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001115289048341189</v>
+        <v>0.001060427409035316</v>
       </c>
       <c r="DR2">
-        <v>0.0008214539056051723</v>
+        <v>0.0007628221355538952</v>
       </c>
       <c r="DS2">
-        <v>0.002339802101416594</v>
+        <v>0.0023006519058358</v>
       </c>
       <c r="DT2">
-        <v>0.0002641087114475519</v>
+        <v>0.0001983257741372097</v>
       </c>
       <c r="DU2">
-        <v>0.0001154249650029901</v>
+        <v>4.773430093609712E-05</v>
       </c>
       <c r="DV2">
-        <v>0.0004872841711208892</v>
+        <v>0.0004243647465078349</v>
       </c>
       <c r="DW2">
-        <v>0.0119252265168881</v>
+        <v>0.01200906468464605</v>
       </c>
       <c r="DX2">
-        <v>0.01896295982193225</v>
+        <v>0.01913709751773248</v>
       </c>
       <c r="DY2">
-        <v>0.000203276108810818</v>
+        <v>0.0001367126424480687</v>
       </c>
       <c r="DZ2">
-        <v>0.008341954361574425</v>
+        <v>0.008379816393203444</v>
       </c>
       <c r="EA2">
-        <v>0.00111201664819935</v>
+        <v>0.00105711302148424</v>
       </c>
       <c r="EB2">
-        <v>0.001649972471516556</v>
+        <v>0.00160197123152848</v>
       </c>
       <c r="EC2">
-        <v>0.00100154344341099</v>
+        <v>0.0009452223605603147</v>
       </c>
       <c r="ED2">
-        <v>0.0001464130663461412</v>
+        <v>7.912000343929887E-05</v>
       </c>
       <c r="EE2">
-        <v>0.0007942426344257245</v>
+        <v>0.0007352617228485568</v>
       </c>
       <c r="EF2">
-        <v>0.001996108086519489</v>
+        <v>0.001952548032538133</v>
       </c>
       <c r="EG2">
-        <v>0.002824269122415376</v>
+        <v>0.002791335011112297</v>
       </c>
       <c r="EH2">
-        <v>0.0004844021709959715</v>
+        <v>0.0004214457681059895</v>
       </c>
       <c r="EI2">
-        <v>0.0004023835574409493</v>
+        <v>0.0003383747926932947</v>
       </c>
       <c r="EJ2">
-        <v>0.001961212485006972</v>
+        <v>0.001917204693634789</v>
       </c>
       <c r="EK2">
-        <v>0.009840710426536644</v>
+        <v>0.009897802650537343</v>
       </c>
       <c r="EL2">
-        <v>0.00615857056693764</v>
+        <v>0.006168418106166166</v>
       </c>
       <c r="EM2">
-        <v>0.001133142649115038</v>
+        <v>0.001078510085230732</v>
       </c>
       <c r="EN2">
-        <v>0.000460250699949148</v>
+        <v>0.0003969844151209726</v>
       </c>
       <c r="EO2">
-        <v>0.001262051454702472</v>
+        <v>0.001209072889882993</v>
       </c>
       <c r="EP2">
-        <v>2.29268209937422E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0009656644918558491</v>
+        <v>0.0009088830544774232</v>
       </c>
       <c r="ER2">
-        <v>0.0006620718886969038</v>
+        <v>0.0006013951248555199</v>
       </c>
       <c r="ES2">
-        <v>0.0003567374854624618</v>
+        <v>0.0002921430465242711</v>
       </c>
       <c r="ET2">
-        <v>0.001796485677867038</v>
+        <v>0.001750364314937662</v>
       </c>
       <c r="EU2">
-        <v>0.01933254383795153</v>
+        <v>0.01951142358076775</v>
       </c>
       <c r="EV2">
-        <v>0.02733682118488965</v>
+        <v>0.02761840195876511</v>
       </c>
       <c r="EW2">
-        <v>0.009258492401300932</v>
+        <v>0.009308114320500681</v>
       </c>
       <c r="EX2">
-        <v>0.003389801246927852</v>
+        <v>0.003364123347493389</v>
       </c>
       <c r="EY2">
-        <v>0.008217036356159967</v>
+        <v>0.008253295593758012</v>
       </c>
       <c r="EZ2">
-        <v>0.0180897047840818</v>
+        <v>0.01825263794649599</v>
       </c>
       <c r="FA2">
-        <v>0.00126055385463756</v>
+        <v>0.001207556074458078</v>
       </c>
       <c r="FB2">
-        <v>0.00802934484802465</v>
+        <v>0.008063195859299311</v>
       </c>
       <c r="FC2">
-        <v>0.009918685429916398</v>
+        <v>0.009976778133147995</v>
       </c>
       <c r="FD2">
-        <v>0.00114085794944945</v>
+        <v>0.001086324378799003</v>
       </c>
       <c r="FE2">
-        <v>0.008387664363555682</v>
+        <v>0.008426112889646314</v>
       </c>
       <c r="FF2">
-        <v>0.0204961758883881</v>
+        <v>0.02068998592486776</v>
       </c>
       <c r="FG2">
-        <v>0.00749662082493421</v>
+        <v>0.007523636577500309</v>
       </c>
       <c r="FH2">
-        <v>0.0005225343226487748</v>
+        <v>0.0004600671845757783</v>
       </c>
       <c r="FI2">
-        <v>0.01025020844428596</v>
+        <v>0.01031255484262579</v>
       </c>
       <c r="FJ2">
-        <v>0.02433432905474936</v>
+        <v>0.02457738554665068</v>
       </c>
       <c r="FK2">
-        <v>0.009840710426536644</v>
+        <v>0.009897802650537343</v>
       </c>
       <c r="FL2">
-        <v>0.0004344722188318031</v>
+        <v>0.0003708751762755857</v>
       </c>
       <c r="FM2">
-        <v>0.009499072411728654</v>
+        <v>0.009551781157390334</v>
       </c>
       <c r="FN2">
-        <v>0.01185646851390784</v>
+        <v>0.01193942446363492</v>
       </c>
       <c r="FO2">
-        <v>0.002075316989952727</v>
+        <v>0.002032773247088423</v>
       </c>
       <c r="FP2">
-        <v>0.0001317689757114064</v>
+        <v>6.42880178651555E-05</v>
       </c>
       <c r="FQ2">
-        <v>0.0004516725495773359</v>
+        <v>0.0003882962004860696</v>
       </c>
       <c r="FR2">
-        <v>0.0004136075279274421</v>
+        <v>0.0003497427753487289</v>
       </c>
       <c r="FS2">
-        <v>0.004356210188815968</v>
+        <v>0.004342932058961546</v>
       </c>
       <c r="FT2">
-        <v>0.01385250360042417</v>
+        <v>0.01396107021461604</v>
       </c>
       <c r="FU2">
-        <v>0.005470224237101894</v>
+        <v>0.00547123976380314</v>
       </c>
       <c r="FV2">
-        <v>0.0001005852443597759</v>
+        <v>3.270417527008944E-05</v>
       </c>
       <c r="FW2">
-        <v>1.80077627805301E-05</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001358719058892442</v>
+        <v>0.001306980813740812</v>
       </c>
       <c r="FY2">
-        <v>2.986176829433118E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.002727827418235198</v>
+        <v>0.002693655885735038</v>
       </c>
       <c r="GA2">
-        <v>0.002952503627973585</v>
+        <v>0.002921214863947638</v>
       </c>
       <c r="GB2">
-        <v>0.0009188009798245928</v>
+        <v>0.0008614182475639363</v>
       </c>
       <c r="GC2">
-        <v>0.000141818156146979</v>
+        <v>7.446613701028296E-05</v>
       </c>
       <c r="GD2">
-        <v>1.285271555708927E-05</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>8.637385374379613E-05</v>
+        <v>1.831044158854794E-05</v>
       </c>
       <c r="GF2">
-        <v>2.673309715872178E-05</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0001140245199422891</v>
+        <v>4.631588708877843E-05</v>
       </c>
       <c r="GH2">
-        <v>0.001121071448591822</v>
+        <v>0.001066284001925958</v>
       </c>
       <c r="GI2">
-        <v>0.001035224844870879</v>
+        <v>0.0009793359202910287</v>
       </c>
       <c r="GJ2">
-        <v>0.0001699492073662938</v>
+        <v>0.000102958131240413</v>
       </c>
       <c r="GK2">
-        <v>0.0008457170366568356</v>
+        <v>0.0007873965812274443</v>
       </c>
       <c r="GL2">
-        <v>0.006037860261705561</v>
+        <v>0.006046158994930812</v>
       </c>
       <c r="GM2">
-        <v>0.002403010104156287</v>
+        <v>0.002364670915837135</v>
       </c>
       <c r="GN2">
-        <v>8.402078364180445E-06</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>2.741339918820885E-05</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.001463426563430893</v>
+        <v>0.001413031796048666</v>
       </c>
       <c r="GQ2">
-        <v>0.006778833793822385</v>
+        <v>0.006796639787033463</v>
       </c>
       <c r="GR2">
-        <v>0.006554651284105398</v>
+        <v>0.006569580843393033</v>
       </c>
       <c r="GS2">
-        <v>0.001871075181100052</v>
+        <v>0.001825910858832337</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001234673544646308</v>
+        <v>0.0001151656327831265</v>
       </c>
       <c r="C3">
-        <v>0.0001218857244074384</v>
+        <v>0.0001135814548824623</v>
       </c>
       <c r="D3">
-        <v>4.703545870082174E-05</v>
+        <v>3.861061309044777E-05</v>
       </c>
       <c r="E3">
-        <v>8.486943306891396E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.40316708689952E-05</v>
+        <v>1.556976852061371E-05</v>
       </c>
       <c r="G3">
-        <v>5.379141594511996E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.210254652244558E-07</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.460965842112456E-05</v>
+        <v>8.626144995711281E-05</v>
       </c>
       <c r="J3">
-        <v>0.0001903433468828945</v>
+        <v>0.0001821493555520678</v>
       </c>
       <c r="K3">
-        <v>0.0001329899448089717</v>
+        <v>0.0001247035630418381</v>
       </c>
       <c r="L3">
-        <v>0.0001923185669543193</v>
+        <v>0.0001841277575000266</v>
       </c>
       <c r="M3">
-        <v>0.0004130818549372115</v>
+        <v>0.0004052466724511498</v>
       </c>
       <c r="N3">
-        <v>0.0003930156342116087</v>
+        <v>0.0003851481271062422</v>
       </c>
       <c r="O3">
-        <v>0.0003586188129678053</v>
+        <v>0.0003506958961185115</v>
       </c>
       <c r="P3">
-        <v>0.0003999208144613028</v>
+        <v>0.0003920644308916462</v>
       </c>
       <c r="Q3">
-        <v>0.0004247726153599543</v>
+        <v>0.0004169562654874283</v>
       </c>
       <c r="R3">
-        <v>0.0002491811590104943</v>
+        <v>0.0002410819493480123</v>
       </c>
       <c r="S3">
-        <v>0.0001844789066708339</v>
+        <v>0.0001762754683295371</v>
       </c>
       <c r="T3">
-        <v>0.0001052089838044006</v>
+        <v>9.687784976424702E-05</v>
       </c>
       <c r="U3">
-        <v>6.785754245375693E-05</v>
+        <v>5.946623908034169E-05</v>
       </c>
       <c r="V3">
-        <v>5.768367408586563E-05</v>
+        <v>4.927598165611809E-05</v>
       </c>
       <c r="W3">
-        <v>6.761157244486255E-07</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>8.528171308382217E-05</v>
+        <v>7.691847825854157E-05</v>
       </c>
       <c r="Y3">
-        <v>9.535919844822825E-05</v>
+        <v>8.701219741616699E-05</v>
       </c>
       <c r="Z3">
-        <v>6.384690230873051E-05</v>
+        <v>5.544913820623085E-05</v>
       </c>
       <c r="AA3">
-        <v>0.0002084195775365385</v>
+        <v>0.0002002547051555297</v>
       </c>
       <c r="AB3">
-        <v>0.0006024480217847708</v>
+        <v>0.0005949178887315965</v>
       </c>
       <c r="AC3">
-        <v>0.000445524886110365</v>
+        <v>0.0004377419660132256</v>
       </c>
       <c r="AD3">
-        <v>0.0003235069616981462</v>
+        <v>0.0003155274832650396</v>
       </c>
       <c r="AE3">
-        <v>0.0003072064111087115</v>
+        <v>0.0002992006741638769</v>
       </c>
       <c r="AF3">
-        <v>0.0001855249467086592</v>
+        <v>0.0001773231934303577</v>
       </c>
       <c r="AG3">
-        <v>2.839034902660682E-05</v>
+        <v>1.993546806077877E-05</v>
       </c>
       <c r="AH3">
-        <v>9.95884436011595E-05</v>
+        <v>9.124825544838349E-05</v>
       </c>
       <c r="AI3">
-        <v>0.0002063631474621772</v>
+        <v>0.0001981949623836659</v>
       </c>
       <c r="AJ3">
-        <v>0.0001329358548070158</v>
+        <v>0.0001246493859064481</v>
       </c>
       <c r="AK3">
-        <v>5.61095680289453E-05</v>
+        <v>4.769933987611711E-05</v>
       </c>
       <c r="AL3">
-        <v>6.96794425196376E-05</v>
+        <v>6.129107403998467E-05</v>
       </c>
       <c r="AM3">
-        <v>3.863428539703182E-05</v>
+        <v>3.019590635988699E-05</v>
       </c>
       <c r="AN3">
-        <v>5.354191893609804E-05</v>
+        <v>4.512755456446865E-05</v>
       </c>
       <c r="AO3">
-        <v>1.82113256585291E-05</v>
+        <v>9.740047332193261E-06</v>
       </c>
       <c r="AP3">
-        <v>3.731474334931663E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.499256954213754E-05</v>
+        <v>6.516106130502392E-06</v>
       </c>
       <c r="AR3">
-        <v>5.768367408586563E-05</v>
+        <v>4.927598165611809E-05</v>
       </c>
       <c r="AS3">
-        <v>0.0001304147647158521</v>
+        <v>0.0001221242345982499</v>
       </c>
       <c r="AT3">
-        <v>0.0002803702801383058</v>
+        <v>0.0002723213129445324</v>
       </c>
       <c r="AU3">
-        <v>0.000274255559917195</v>
+        <v>0.0002661967425375792</v>
       </c>
       <c r="AV3">
-        <v>0.0004289873955123625</v>
+        <v>0.0004211778352174925</v>
       </c>
       <c r="AW3">
-        <v>0.0003613280830657736</v>
+        <v>0.0003534095305721653</v>
       </c>
       <c r="AX3">
-        <v>0.0003695171733618945</v>
+        <v>0.0003616118126511283</v>
       </c>
       <c r="AY3">
-        <v>0.0003414453123468044</v>
+        <v>0.0003334947307529981</v>
       </c>
       <c r="AZ3">
-        <v>0.0002662074796261731</v>
+        <v>0.0002581356976163412</v>
       </c>
       <c r="BA3">
-        <v>0.0001855888567109702</v>
+        <v>0.0001773872063851141</v>
       </c>
       <c r="BB3">
-        <v>0.0002491811590104943</v>
+        <v>0.0002410819493480123</v>
       </c>
       <c r="BC3">
-        <v>7.02305425395656E-05</v>
+        <v>6.184306182540607E-05</v>
       </c>
       <c r="BD3">
-        <v>5.75652070815818E-07</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>4.135940449557325E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1.642904359408104E-05</v>
+        <v>7.954894194511495E-06</v>
       </c>
       <c r="BG3">
-        <v>0.0001855249467086592</v>
+        <v>0.0001773231934303577</v>
       </c>
       <c r="BH3">
-        <v>0.0002252381581447054</v>
+        <v>0.0002171003787685448</v>
       </c>
       <c r="BI3">
-        <v>0.0001650085259667769</v>
+        <v>0.0001567737228432133</v>
       </c>
       <c r="BJ3">
-        <v>0.0002449390388570975</v>
+        <v>0.0002368329955750277</v>
       </c>
       <c r="BK3">
-        <v>0.0005106081584638032</v>
+        <v>0.000502930080829562</v>
       </c>
       <c r="BL3">
-        <v>0.0003573720929227234</v>
+        <v>0.0003494471677355672</v>
       </c>
       <c r="BM3">
-        <v>0.0003338621620725945</v>
+        <v>0.0003258993648030466</v>
       </c>
       <c r="BN3">
-        <v>0.0003297745819247859</v>
+        <v>0.0003218051999837166</v>
       </c>
       <c r="BO3">
-        <v>0.0002618222594676017</v>
+        <v>0.0002537434133187807</v>
       </c>
       <c r="BP3">
-        <v>0.0001126101440720296</v>
+        <v>0.0001042909325404209</v>
       </c>
       <c r="BQ3">
-        <v>0.0001973785871372917</v>
+        <v>0.0001891959288554756</v>
       </c>
       <c r="BR3">
-        <v>0.0001250591645221913</v>
+        <v>0.0001167600070830932</v>
       </c>
       <c r="BS3">
-        <v>2.370974585735426E-05</v>
+        <v>1.524732492086451E-05</v>
       </c>
       <c r="BT3">
-        <v>1.661806360091608E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>7.903055285777762E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>4.40390045924687E-05</v>
+        <v>3.560933200248353E-05</v>
       </c>
       <c r="BW3">
-        <v>5.447590396987132E-05</v>
+        <v>4.606304415214204E-05</v>
       </c>
       <c r="BX3">
-        <v>0.0001029199037216265</v>
+        <v>9.458508220871732E-05</v>
       </c>
       <c r="BY3">
-        <v>0.0002886280804369113</v>
+        <v>0.0002805924157107324</v>
       </c>
       <c r="BZ3">
-        <v>0.0002813959501753945</v>
+        <v>0.0002733486352306387</v>
       </c>
       <c r="CA3">
-        <v>0.000219830577949165</v>
+        <v>0.0002116840875170677</v>
       </c>
       <c r="CB3">
-        <v>0.0003762136136040406</v>
+        <v>0.000368319040170285</v>
       </c>
       <c r="CC3">
-        <v>0.0006757683244360634</v>
+        <v>0.000668356302855045</v>
       </c>
       <c r="CD3">
-        <v>0.000414326654982224</v>
+        <v>0.0004064934777411018</v>
       </c>
       <c r="CE3">
-        <v>0.00032469317174104</v>
+        <v>0.0003167156041704011</v>
       </c>
       <c r="CF3">
-        <v>0.0006146412222256821</v>
+        <v>0.0006071307311652749</v>
       </c>
       <c r="CG3">
-        <v>0.0004529747363797547</v>
+        <v>0.000445203817225749</v>
       </c>
       <c r="CH3">
-        <v>0.0001954430870673032</v>
+        <v>0.0001872573108937933</v>
       </c>
       <c r="CI3">
-        <v>0.0001052089838044006</v>
+        <v>9.687784976424702E-05</v>
       </c>
       <c r="CJ3">
-        <v>3.471092825516159E-05</v>
+        <v>2.626622909288002E-05</v>
       </c>
       <c r="CK3">
-        <v>3.51654862715986E-08</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.409234950958521E-06</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.002495271490230054</v>
+        <v>0.00249079050125165</v>
       </c>
       <c r="CN3">
-        <v>0.07043541254697379</v>
+        <v>0.0705403761427629</v>
       </c>
       <c r="CO3">
-        <v>0.01483786753654345</v>
+        <v>0.01485326920129863</v>
       </c>
       <c r="CP3">
-        <v>0.06853066247809722</v>
+        <v>0.06863255771728401</v>
       </c>
       <c r="CQ3">
-        <v>0.00218746407909961</v>
+        <v>0.00218248724401645</v>
       </c>
       <c r="CR3">
-        <v>0.002690524697290491</v>
+        <v>0.002686358241161723</v>
       </c>
       <c r="CS3">
-        <v>0.002946040206530038</v>
+        <v>0.002942285359626323</v>
       </c>
       <c r="CT3">
-        <v>0.02708696897947606</v>
+        <v>0.02712210268776757</v>
       </c>
       <c r="CU3">
-        <v>0.004877966576389298</v>
+        <v>0.004877323864315773</v>
       </c>
       <c r="CV3">
-        <v>0.07434722268842647</v>
+        <v>0.07445848780832139</v>
       </c>
       <c r="CW3">
-        <v>0.01779288864339825</v>
+        <v>0.01781305054345745</v>
       </c>
       <c r="CX3">
-        <v>0.0656104823725023</v>
+        <v>0.06570767350165735</v>
       </c>
       <c r="CY3">
-        <v>0.0008705036914777752</v>
+        <v>0.0008634053685593432</v>
       </c>
       <c r="CZ3">
-        <v>0.005901543213402255</v>
+        <v>0.00590254937809397</v>
       </c>
       <c r="DA3">
-        <v>0.01618728458533894</v>
+        <v>0.01620486002227484</v>
       </c>
       <c r="DB3">
-        <v>0.03439844524386208</v>
+        <v>0.03444535698898641</v>
       </c>
       <c r="DC3">
-        <v>0.0967070634969676</v>
+        <v>0.09685434802239648</v>
       </c>
       <c r="DD3">
-        <v>0.0003194834715526551</v>
+        <v>0.000311497511690434</v>
       </c>
       <c r="DE3">
-        <v>0.04903809577323791</v>
+        <v>0.04910859049079074</v>
       </c>
       <c r="DF3">
-        <v>2.169150378437379E-05</v>
+        <v>1.322583166732712E-05</v>
       </c>
       <c r="DG3">
-        <v>0.02537824291768781</v>
+        <v>0.02541062404390627</v>
       </c>
       <c r="DH3">
-        <v>0.002459966088953396</v>
+        <v>0.00245542822660201</v>
       </c>
       <c r="DI3">
-        <v>0.01329773748085171</v>
+        <v>0.01331065815437238</v>
       </c>
       <c r="DJ3">
-        <v>0.001697539261383725</v>
+        <v>0.001691773207770721</v>
       </c>
       <c r="DK3">
-        <v>0.003493043726309913</v>
+        <v>0.003490170045858865</v>
       </c>
       <c r="DL3">
-        <v>0.001677427360656471</v>
+        <v>0.001671628908838374</v>
       </c>
       <c r="DM3">
-        <v>0.001792314764810847</v>
+        <v>0.001786701384793413</v>
       </c>
       <c r="DN3">
-        <v>0.02103017376045982</v>
+        <v>0.02105555059413412</v>
       </c>
       <c r="DO3">
-        <v>0.01137770441142252</v>
+        <v>0.01138753210899767</v>
       </c>
       <c r="DP3">
-        <v>2.236383080868542E-06</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>2.806520101484933E-05</v>
+        <v>1.960979626899108E-05</v>
       </c>
       <c r="DR3">
-        <v>0.007040957754603959</v>
+        <v>0.007043799399019446</v>
       </c>
       <c r="DS3">
-        <v>0.002899972604864214</v>
+        <v>0.002896143547788764</v>
       </c>
       <c r="DT3">
-        <v>0.001651626859723514</v>
+        <v>0.001645786845950032</v>
       </c>
       <c r="DU3">
-        <v>0.001084998139233984</v>
+        <v>0.001078245344826451</v>
       </c>
       <c r="DV3">
-        <v>0.0001420797651376634</v>
+        <v>0.0001338080261368828</v>
       </c>
       <c r="DW3">
-        <v>0.007879322284919568</v>
+        <v>0.00788351444843138</v>
       </c>
       <c r="DX3">
-        <v>0.002290969082842394</v>
+        <v>0.002286158983682648</v>
       </c>
       <c r="DY3">
-        <v>0.01301408247059463</v>
+        <v>0.01302654620504611</v>
       </c>
       <c r="DZ3">
-        <v>0.0217484807864341</v>
+        <v>0.02177501473890401</v>
       </c>
       <c r="EA3">
-        <v>0.004892224176904859</v>
+        <v>0.004891604432360454</v>
       </c>
       <c r="EB3">
-        <v>0.007586518574331664</v>
+        <v>0.007590239061158306</v>
       </c>
       <c r="EC3">
-        <v>0.005995582216802744</v>
+        <v>0.00599673986866418</v>
       </c>
       <c r="ED3">
-        <v>0.007054263555085102</v>
+        <v>0.007057126633777675</v>
       </c>
       <c r="EE3">
-        <v>0.004386636158622587</v>
+        <v>0.004385201963741993</v>
       </c>
       <c r="EF3">
-        <v>0.001244496845001523</v>
+        <v>0.001238000986616674</v>
       </c>
       <c r="EG3">
-        <v>0.001120378040513336</v>
+        <v>0.001113682239490632</v>
       </c>
       <c r="EH3">
-        <v>4.871285676147714E-06</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.00100521493634899</v>
+        <v>0.000998333619401242</v>
       </c>
       <c r="EJ3">
-        <v>0.001935851970001212</v>
+        <v>0.001930469813669458</v>
       </c>
       <c r="EK3">
-        <v>0.009080844328367104</v>
+        <v>0.009086972020405775</v>
       </c>
       <c r="EL3">
-        <v>0.007040957754603959</v>
+        <v>0.007043799399019446</v>
       </c>
       <c r="EM3">
-        <v>0.001274905546101114</v>
+        <v>0.001268458673008515</v>
       </c>
       <c r="EN3">
-        <v>0.003035544809766562</v>
+        <v>0.003031934145579922</v>
       </c>
       <c r="EO3">
-        <v>0.003573351929213891</v>
+        <v>0.003570607617024132</v>
       </c>
       <c r="EP3">
-        <v>0.0008230191297607137</v>
+        <v>0.0008158443140935303</v>
       </c>
       <c r="EQ3">
-        <v>3.904492541188073E-05</v>
+        <v>3.060720787359673E-05</v>
       </c>
       <c r="ER3">
-        <v>0.00255908869253771</v>
+        <v>0.00255471050651348</v>
       </c>
       <c r="ES3">
-        <v>0.008301309300178793</v>
+        <v>0.008306181241402926</v>
       </c>
       <c r="ET3">
-        <v>1.875771767828687E-05</v>
+        <v>1.028731953334001E-05</v>
       </c>
       <c r="EU3">
-        <v>0.01165302042137806</v>
+        <v>0.01166329162474994</v>
       </c>
       <c r="EV3">
-        <v>0.01475845653367192</v>
+        <v>0.01477373027546285</v>
       </c>
       <c r="EW3">
-        <v>0.001607979458145205</v>
+        <v>0.001602069132893596</v>
       </c>
       <c r="EX3">
-        <v>0.0009235121333945825</v>
+        <v>0.000916499201628193</v>
       </c>
       <c r="EY3">
-        <v>0.01130984940896886</v>
+        <v>0.01131956779910878</v>
       </c>
       <c r="EZ3">
-        <v>0.01682615760844085</v>
+        <v>0.01684476220415748</v>
       </c>
       <c r="FA3">
-        <v>3.859842439573506E-06</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01041542437662607</v>
+        <v>0.01042370193996246</v>
       </c>
       <c r="FC3">
-        <v>0.002595335093848395</v>
+        <v>0.002591015297051491</v>
       </c>
       <c r="FD3">
-        <v>1.314032347515956E-06</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.007202781560455574</v>
+        <v>0.007205883886391021</v>
       </c>
       <c r="FF3">
-        <v>0.01407810150907</v>
+        <v>0.01409227926883906</v>
       </c>
       <c r="FG3">
-        <v>0.0001855888567109702</v>
+        <v>0.0001773872063851141</v>
       </c>
       <c r="FH3">
-        <v>0.002591978893727034</v>
+        <v>0.002587653690436664</v>
       </c>
       <c r="FI3">
-        <v>0.00423161315301689</v>
+        <v>0.00422992923200659</v>
       </c>
       <c r="FJ3">
-        <v>0.01444105852219468</v>
+        <v>0.01445582096840936</v>
       </c>
       <c r="FK3">
-        <v>0.001487797953799392</v>
+        <v>0.001481694028495807</v>
       </c>
       <c r="FL3">
-        <v>0.006556221537075695</v>
+        <v>0.006558282321262987</v>
       </c>
       <c r="FM3">
-        <v>0.01578433657076817</v>
+        <v>0.01580126289986514</v>
       </c>
       <c r="FN3">
-        <v>0.01049629437955037</v>
+        <v>0.01050470221615014</v>
       </c>
       <c r="FO3">
-        <v>0.0004775120972670359</v>
+        <v>0.0004697807052796187</v>
       </c>
       <c r="FP3">
-        <v>7.947276287376814E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0005548582200639038</v>
+        <v>0.0005472514247311478</v>
       </c>
       <c r="FR3">
-        <v>0.0001422670651444362</v>
+        <v>0.000133995627864717</v>
       </c>
       <c r="FS3">
-        <v>0.0018928045684446</v>
+        <v>0.001887353067173089</v>
       </c>
       <c r="FT3">
-        <v>0.008075680292019955</v>
+        <v>0.008080188768100724</v>
       </c>
       <c r="FU3">
-        <v>0.0005781631209066186</v>
+        <v>0.0005705938673739842</v>
       </c>
       <c r="FV3">
-        <v>0.003126125613042001</v>
+        <v>0.003122660865220093</v>
       </c>
       <c r="FW3">
-        <v>0.001101340639824935</v>
+        <v>0.001094614171506271</v>
       </c>
       <c r="FX3">
-        <v>0.0001141305881270095</v>
+        <v>0.0001058138258745114</v>
       </c>
       <c r="FY3">
-        <v>0.001463505352920962</v>
+        <v>0.001457362294734007</v>
       </c>
       <c r="FZ3">
-        <v>0.008958788323953509</v>
+        <v>0.008964719396313244</v>
       </c>
       <c r="GA3">
-        <v>0.00800658828952156</v>
+        <v>0.008010985465487159</v>
       </c>
       <c r="GB3">
-        <v>0.001935851970001212</v>
+        <v>0.001930469813669458</v>
       </c>
       <c r="GC3">
-        <v>0.0003170197114635645</v>
+        <v>0.0003090297827370502</v>
       </c>
       <c r="GD3">
-        <v>0.0002126314576888419</v>
+        <v>0.000204473370213887</v>
       </c>
       <c r="GE3">
-        <v>0.0004771689172546263</v>
+        <v>0.0004694369724394791</v>
       </c>
       <c r="GF3">
-        <v>0.000196519727106235</v>
+        <v>0.0001883356852891773</v>
       </c>
       <c r="GG3">
-        <v>6.614933239198735E-05</v>
+        <v>5.775527726772205E-05</v>
       </c>
       <c r="GH3">
-        <v>0.0005511308199291194</v>
+        <v>0.0005435180201378259</v>
       </c>
       <c r="GI3">
-        <v>6.437448232780803E-05</v>
+        <v>5.597756810249764E-05</v>
       </c>
       <c r="GJ3">
-        <v>5.61095680289453E-05</v>
+        <v>4.769933987611711E-05</v>
       </c>
       <c r="GK3">
-        <v>0.00498684978032656</v>
+        <v>0.004986382467904223</v>
       </c>
       <c r="GL3">
-        <v>0.0126604574578074</v>
+        <v>0.01267235153870671</v>
       </c>
       <c r="GM3">
-        <v>0.00350148822661527</v>
+        <v>0.003498628149386339</v>
       </c>
       <c r="GN3">
-        <v>0.0009871868356970861</v>
+        <v>0.0009802764773320068</v>
       </c>
       <c r="GO3">
-        <v>0.00201543147287884</v>
+        <v>0.002010177510947524</v>
       </c>
       <c r="GP3">
-        <v>7.549812673004364E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.00201106567272097</v>
+        <v>0.002005804677934291</v>
       </c>
       <c r="GR3">
-        <v>0.003118146812753484</v>
+        <v>0.003114669211904324</v>
       </c>
       <c r="GS3">
-        <v>1.488540353826238E-06</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.000277922932054583</v>
+        <v>1.896516259912428E-05</v>
       </c>
       <c r="C4">
-        <v>0.0002719007424434344</v>
+        <v>1.269430536755755E-05</v>
       </c>
       <c r="D4">
-        <v>0.0004481049010659742</v>
+        <v>0.0001961742675867357</v>
       </c>
       <c r="E4">
-        <v>0.0008347571760999298</v>
+        <v>0.000598792147719529</v>
       </c>
       <c r="F4">
-        <v>0.0004817293388948523</v>
+        <v>0.0002311871221681058</v>
       </c>
       <c r="G4">
-        <v>0.0002993352606719941</v>
+        <v>4.12616468391089E-05</v>
       </c>
       <c r="H4">
-        <v>0.0002597098232305991</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001317713514915555</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.59739946771678E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0003195948993638341</v>
+        <v>6.235784440227751E-05</v>
       </c>
       <c r="L4">
-        <v>0.0003777934256059693</v>
+        <v>0.0001229594980726288</v>
       </c>
       <c r="M4">
-        <v>8.449443854421439E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.000117909312386624</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0008502050851024619</v>
+        <v>0.0006148779301568304</v>
       </c>
       <c r="P4">
-        <v>0.001365800211810608</v>
+        <v>0.001151762956641681</v>
       </c>
       <c r="Q4">
-        <v>0.0004854458386548788</v>
+        <v>0.0002350570832455739</v>
       </c>
       <c r="R4">
-        <v>0.0003536890771623813</v>
+        <v>9.785983540676887E-05</v>
       </c>
       <c r="S4">
-        <v>0.0008291555064616281</v>
+        <v>0.0005929591745273264</v>
       </c>
       <c r="T4">
-        <v>0.0009948060357656133</v>
+        <v>0.0007654497280754431</v>
       </c>
       <c r="U4">
-        <v>0.0002437488842611931</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5.160576966782785E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>9.943941357922095E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0001479120204493564</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>4.739767293954365E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>3.648885164392361E-07</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.15621896077346E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.37845921099322E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0004293105122795233</v>
+        <v>0.0001766038228740339</v>
       </c>
       <c r="AD4">
-        <v>0.0009727519871896379</v>
+        <v>0.0007424850260438176</v>
       </c>
       <c r="AE4">
-        <v>0.0004035889739403569</v>
+        <v>0.0001498201934774136</v>
       </c>
       <c r="AF4">
-        <v>0.0002477984639997127</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0005097940070827235</v>
+        <v>0.000260410633684852</v>
       </c>
       <c r="AH4">
-        <v>0.0007067450543656416</v>
+        <v>0.000465494162910222</v>
       </c>
       <c r="AI4">
-        <v>0.0007170059937030952</v>
+        <v>0.0004761787958762481</v>
       </c>
       <c r="AJ4">
-        <v>0.0005647472635344049</v>
+        <v>0.0003176330142256796</v>
       </c>
       <c r="AK4">
-        <v>0.000584206262277942</v>
+        <v>0.0003378955118999569</v>
       </c>
       <c r="AL4">
-        <v>0.0004686884897368969</v>
+        <v>0.0002176077916374722</v>
       </c>
       <c r="AM4">
-        <v>0.0003339187284389479</v>
+        <v>7.727313152195197E-05</v>
       </c>
       <c r="AN4">
-        <v>2.410060444382976E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>5.347886654688244E-07</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>4.608234002447438E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>9.627853378331821E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.756381222021127E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>8.28598746497578E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.689488626340366E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>6.341831190509485E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0001515722402130169</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0004314868421389983</v>
+        <v>0.0001788700175173075</v>
       </c>
       <c r="AX4">
-        <v>0.0005851931222142208</v>
+        <v>0.0003389231211529935</v>
       </c>
       <c r="AY4">
-        <v>0.0005223698662707032</v>
+        <v>0.0002735057739285459</v>
       </c>
       <c r="AZ4">
-        <v>0.0006746900164354277</v>
+        <v>0.0004321155117231687</v>
       </c>
       <c r="BA4">
-        <v>0.0006724719565786474</v>
+        <v>0.0004298058639719273</v>
       </c>
       <c r="BB4">
-        <v>0.0005636866636028876</v>
+        <v>0.000316528620113272</v>
       </c>
       <c r="BC4">
-        <v>0.0003777934256059693</v>
+        <v>0.0001229594980726288</v>
       </c>
       <c r="BD4">
-        <v>0.0002531783036523377</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001130876186979596</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>7.569690311226916E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1.86773917940053E-07</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>3.319324785671996E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0001856792580107349</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>6.497436580462081E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.858470879998982E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0001233270620368012</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0003786618755498937</v>
+        <v>0.0001238638079603531</v>
       </c>
       <c r="BN4">
-        <v>0.0002894378113110701</v>
+        <v>3.095551303951608E-05</v>
       </c>
       <c r="BO4">
-        <v>0.0002804218518932284</v>
+        <v>2.156726757308004E-05</v>
       </c>
       <c r="BP4">
-        <v>0.0002140545261785507</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001404952509282554</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0002206692857514372</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0001377233311072376</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.000134235391332453</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001759125186413709</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0001420188508298769</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>7.683809503858267E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>1.194651422861645E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.284222517078061E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001228316420687904</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>2.689488626340366E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>2.065707466617765E-07</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001244947919614012</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0003577186169021949</v>
+        <v>0.0001020557624779652</v>
       </c>
       <c r="CE4">
-        <v>5.711753331193459E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>2.41961424376609E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.000188282317842656</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0004548736906289151</v>
+        <v>0.0002032225532968273</v>
       </c>
       <c r="CI4">
-        <v>0.0001099290729019062</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>7.514510514789861E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001713825089338726</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>5.222153462806805E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>2.244248055089442E-05</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.05008175276623325</v>
+        <v>0.05187928950330147</v>
       </c>
       <c r="CO4">
-        <v>0.0008558773447362055</v>
+        <v>0.0006207844081391468</v>
       </c>
       <c r="CP4">
-        <v>0.08587554445503671</v>
+        <v>0.08915107467615545</v>
       </c>
       <c r="CQ4">
-        <v>0.02091442064956088</v>
+        <v>0.02150758297470939</v>
       </c>
       <c r="CR4">
-        <v>0.001732730988117976</v>
+        <v>0.001533844999995438</v>
       </c>
       <c r="CS4">
-        <v>0.003601231167469369</v>
+        <v>0.003479499092350477</v>
       </c>
       <c r="CT4">
-        <v>0.01439886007026906</v>
+        <v>0.01472298255284224</v>
       </c>
       <c r="CU4">
-        <v>0.01097722129120346</v>
+        <v>0.01116005782496738</v>
       </c>
       <c r="CV4">
-        <v>0.03842956351861231</v>
+        <v>0.0397459592820548</v>
       </c>
       <c r="CW4">
-        <v>0.005705142931620291</v>
+        <v>0.005670285359919962</v>
       </c>
       <c r="CX4">
-        <v>0.1018394984242481</v>
+        <v>0.1057742105546574</v>
       </c>
       <c r="CY4">
-        <v>0.03134747797590087</v>
+        <v>0.03237144100752719</v>
       </c>
       <c r="CZ4">
-        <v>0.001729175488347554</v>
+        <v>0.001530142686902222</v>
       </c>
       <c r="DA4">
-        <v>0.02633410129961341</v>
+        <v>0.02715105250848942</v>
       </c>
       <c r="DB4">
-        <v>0.001343780813232396</v>
+        <v>0.001128834335371883</v>
       </c>
       <c r="DC4">
-        <v>0.1005746335059201</v>
+        <v>0.1044571169670746</v>
       </c>
       <c r="DD4">
-        <v>0.02828961617334628</v>
+        <v>0.02918731429684003</v>
       </c>
       <c r="DE4">
-        <v>0.03166223795557691</v>
+        <v>0.03269919802319889</v>
       </c>
       <c r="DF4">
-        <v>0.006130922204127826</v>
+        <v>0.00611364586539329</v>
       </c>
       <c r="DG4">
-        <v>0.02483033639671114</v>
+        <v>0.02558519430328053</v>
       </c>
       <c r="DH4">
-        <v>0.001418411308413523</v>
+        <v>0.001206546465115455</v>
       </c>
       <c r="DI4">
-        <v>0.01057578631712402</v>
+        <v>0.01074204684013396</v>
       </c>
       <c r="DJ4">
-        <v>0.0009350808096220568</v>
+        <v>0.0007032583341718157</v>
       </c>
       <c r="DK4">
-        <v>0.008242362467792636</v>
+        <v>0.008312271498487254</v>
       </c>
       <c r="DL4">
-        <v>0.007588600210005908</v>
+        <v>0.007631514158270373</v>
       </c>
       <c r="DM4">
-        <v>0.001969699172816998</v>
+        <v>0.001780598050068808</v>
       </c>
       <c r="DN4">
-        <v>0.005225233662607917</v>
+        <v>0.00517055972781584</v>
       </c>
       <c r="DO4">
-        <v>0.01154398425460771</v>
+        <v>0.01175022350508283</v>
       </c>
       <c r="DP4">
-        <v>0.001522519601691275</v>
+        <v>0.001314953587096183</v>
       </c>
       <c r="DQ4">
-        <v>0.001090680929574994</v>
+        <v>0.0008652834779223818</v>
       </c>
       <c r="DR4">
-        <v>0.001228184920696395</v>
+        <v>0.001008465269391822</v>
       </c>
       <c r="DS4">
-        <v>0.005849821622278423</v>
+        <v>0.005820938107865257</v>
       </c>
       <c r="DT4">
-        <v>0.0001407257909133695</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001041847332728168</v>
+        <v>0.0008144334493275622</v>
       </c>
       <c r="DV4">
-        <v>6.688261568140557E-05</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.007444285519324272</v>
+        <v>0.007481240440550344</v>
       </c>
       <c r="DX4">
-        <v>0.01599982296689527</v>
+        <v>0.01639005224111524</v>
       </c>
       <c r="DY4">
-        <v>0.0004612756002155453</v>
+        <v>0.00020988880986119</v>
       </c>
       <c r="DZ4">
-        <v>0.01801602983670928</v>
+        <v>0.0184895121130697</v>
       </c>
       <c r="EA4">
-        <v>0.006894268554838735</v>
+        <v>0.006908512233380753</v>
       </c>
       <c r="EB4">
-        <v>0.00514202966798038</v>
+        <v>0.005083920082587895</v>
       </c>
       <c r="EC4">
-        <v>0.006723262565880551</v>
+        <v>0.006730445083101321</v>
       </c>
       <c r="ED4">
-        <v>0.00305327030285107</v>
+        <v>0.002908911885307721</v>
       </c>
       <c r="EE4">
-        <v>0.003754114757597712</v>
+        <v>0.003638695535612472</v>
       </c>
       <c r="EF4">
-        <v>0.0003529220472119082</v>
+        <v>9.706113333620511E-05</v>
       </c>
       <c r="EG4">
-        <v>0.00222706945619866</v>
+        <v>0.002048595640139114</v>
       </c>
       <c r="EH4">
-        <v>0.000152914120126372</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.000758147981046567</v>
+        <v>0.0005190196138365824</v>
       </c>
       <c r="EJ4">
-        <v>0.0007921054488539415</v>
+        <v>0.0005543792498353154</v>
       </c>
       <c r="EK4">
-        <v>0.007729001800940211</v>
+        <v>0.007777713196939618</v>
       </c>
       <c r="EL4">
-        <v>0.01007860934922662</v>
+        <v>0.01022434049313749</v>
       </c>
       <c r="EM4">
-        <v>0.004275156423954177</v>
+        <v>0.004181251999688301</v>
       </c>
       <c r="EN4">
-        <v>0.001387274110424044</v>
+        <v>0.001174123553219494</v>
       </c>
       <c r="EO4">
-        <v>0.003484351775016243</v>
+        <v>0.003357793528309625</v>
       </c>
       <c r="EP4">
-        <v>0.000617193360147973</v>
+        <v>0.0003722447095478915</v>
       </c>
       <c r="EQ4">
-        <v>1.47455450478837E-05</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>8.854470428268971E-06</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.004135224732989533</v>
+        <v>0.00403554226404887</v>
       </c>
       <c r="ET4">
-        <v>0.0002184531858945303</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.008583331445776351</v>
+        <v>0.008667319731669881</v>
       </c>
       <c r="EV4">
-        <v>0.02147742361320792</v>
+        <v>0.02209383339755287</v>
       </c>
       <c r="EW4">
-        <v>0.008302604463902824</v>
+        <v>0.008375001000768656</v>
       </c>
       <c r="EX4">
-        <v>0.00274171192296832</v>
+        <v>0.002584488669551434</v>
       </c>
       <c r="EY4">
-        <v>0.00665511257028098</v>
+        <v>0.006659481045046847</v>
       </c>
       <c r="EZ4">
-        <v>0.02061577866884412</v>
+        <v>0.02119660950071578</v>
       </c>
       <c r="FA4">
-        <v>0.004118630434061022</v>
+        <v>0.004018262755073267</v>
       </c>
       <c r="FB4">
-        <v>0.004697198196703042</v>
+        <v>0.00462072067695578</v>
       </c>
       <c r="FC4">
-        <v>0.008913228424474982</v>
+        <v>0.009010838781736743</v>
       </c>
       <c r="FD4">
-        <v>0.0002829319117311544</v>
+        <v>2.418097253799588E-05</v>
       </c>
       <c r="FE4">
-        <v>0.004372091717695088</v>
+        <v>0.004282189935389281</v>
       </c>
       <c r="FF4">
-        <v>0.01741908387525394</v>
+        <v>0.01786791712172024</v>
       </c>
       <c r="FG4">
-        <v>0.006478669581673861</v>
+        <v>0.00647575239110047</v>
       </c>
       <c r="FH4">
-        <v>0.0003211245792650631</v>
+        <v>6.395068768520003E-05</v>
       </c>
       <c r="FI4">
-        <v>0.001887221778142543</v>
+        <v>0.001694715007482835</v>
       </c>
       <c r="FJ4">
-        <v>0.01871697879144918</v>
+        <v>0.01921940457837044</v>
       </c>
       <c r="FK4">
-        <v>0.01056041231811671</v>
+        <v>0.01072603801957563</v>
       </c>
       <c r="FL4">
-        <v>0.0001268901318067347</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.008022716481975124</v>
+        <v>0.008083555913710834</v>
       </c>
       <c r="FN4">
-        <v>0.01369722561557343</v>
+        <v>0.01399237628199365</v>
       </c>
       <c r="FO4">
-        <v>0.003412723279641278</v>
+        <v>0.003283207356632664</v>
       </c>
       <c r="FP4">
-        <v>4.798787290143458E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.000263826782964768</v>
+        <v>4.286956802769581E-06</v>
       </c>
       <c r="FR4">
-        <v>9.710960372965621E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001034962433172724</v>
+        <v>0.0008072642592233619</v>
       </c>
       <c r="FT4">
-        <v>0.007680073504099499</v>
+        <v>0.00772676455800872</v>
       </c>
       <c r="FU4">
-        <v>0.004593677103387373</v>
+        <v>0.00451292500153625</v>
       </c>
       <c r="FV4">
-        <v>0.001033649833257479</v>
+        <v>0.0008058974595703862</v>
       </c>
       <c r="FW4">
-        <v>0.001022005234009368</v>
+        <v>0.0007937720327541114</v>
       </c>
       <c r="FX4">
-        <v>0.0002007967970345991</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0001124070187419058</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.005519620643599421</v>
+        <v>0.005477102505082787</v>
       </c>
       <c r="GA4">
-        <v>0.004902943183418136</v>
+        <v>0.004834961264036011</v>
       </c>
       <c r="GB4">
-        <v>0.0007921054488539415</v>
+        <v>0.0005543792498353154</v>
       </c>
       <c r="GC4">
-        <v>6.618550572641779E-05</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0001099290729019062</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>1.331274814039905E-05</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0001329783214136217</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.000870257443807686</v>
+        <v>0.0006357582887499632</v>
       </c>
       <c r="GH4">
-        <v>8.275361465661899E-05</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0004005899541340029</v>
+        <v>0.0001466973384604492</v>
       </c>
       <c r="GJ4">
-        <v>1.468990705147623E-06</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0009123536410895446</v>
+        <v>0.0006795927177851613</v>
       </c>
       <c r="GL4">
-        <v>0.007293727229045785</v>
+        <v>0.007324465313175188</v>
       </c>
       <c r="GM4">
-        <v>0.006297508593371383</v>
+        <v>0.006287110922311233</v>
       </c>
       <c r="GN4">
-        <v>0.0005020617675819923</v>
+        <v>0.0002523591153634092</v>
       </c>
       <c r="GO4">
-        <v>0.0005087863671477866</v>
+        <v>0.0002593613863876369</v>
       </c>
       <c r="GP4">
-        <v>4.129600033352718E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.002830906317209059</v>
+        <v>0.002677366069343744</v>
       </c>
       <c r="GR4">
-        <v>0.005596075638662741</v>
+        <v>0.005556714471765909</v>
       </c>
       <c r="GS4">
-        <v>0.002575482833701692</v>
+        <v>0.002411395666203511</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.077833324074077E-05</v>
+        <v>6.386623711203177E-06</v>
       </c>
       <c r="C5">
-        <v>7.62307045519793E-07</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.348634780531298E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>7.085713923110653E-07</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.528433650980864E-05</v>
+        <v>1.090441788754393E-05</v>
       </c>
       <c r="G5">
-        <v>7.687225059028807E-05</v>
+        <v>6.262732261827424E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001190045071061399</v>
+        <v>0.0001048698270634131</v>
       </c>
       <c r="I5">
-        <v>0.0002582055354182787</v>
+        <v>0.0002444351042051932</v>
       </c>
       <c r="J5">
-        <v>0.0001527889091235147</v>
+        <v>0.0001387426330893227</v>
       </c>
       <c r="K5">
-        <v>4.991617898065478E-05</v>
+        <v>3.560071476580862E-05</v>
       </c>
       <c r="L5">
-        <v>3.401947703141184E-05</v>
+        <v>1.966241574540624E-05</v>
       </c>
       <c r="M5">
-        <v>6.291785775702661E-05</v>
+        <v>4.863641517503108E-05</v>
       </c>
       <c r="N5">
-        <v>1.9837004184531E-05</v>
+        <v>5.442831469116195E-06</v>
       </c>
       <c r="O5">
-        <v>1.440837786037035E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>9.65011457623922E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.57062525350026E-05</v>
+        <v>1.132743794494402E-05</v>
       </c>
       <c r="R5">
-        <v>1.010972160368383E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>7.472257446192404E-05</v>
+        <v>6.047202140923833E-05</v>
       </c>
       <c r="T5">
-        <v>7.015935418943954E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.961909117151871E-08</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>8.907671531905571E-05</v>
+        <v>7.486372290131007E-05</v>
       </c>
       <c r="W5">
-        <v>8.174210488108265E-05</v>
+        <v>6.750991990922804E-05</v>
       </c>
       <c r="X5">
-        <v>1.025503861236117E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.039039162044353E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>6.327961877862853E-05</v>
+        <v>4.899912282059351E-05</v>
       </c>
       <c r="AA5">
-        <v>1.093492265295922E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.098644125316756E-05</v>
+        <v>6.595276282106906E-06</v>
       </c>
       <c r="AC5">
-        <v>4.421208664004517E-05</v>
+        <v>2.988169646535213E-05</v>
       </c>
       <c r="AD5">
-        <v>1.887118512685885E-07</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.877709171837223E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001652144698654847</v>
+        <v>0.0001512007079298793</v>
       </c>
       <c r="AG5">
-        <v>0.0001633402197535672</v>
+        <v>0.0001493215534475128</v>
       </c>
       <c r="AH5">
-        <v>7.958638975235801E-07</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>6.399785382151664E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.61293549631354E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>6.475377786665529E-05</v>
+        <v>5.047713935657902E-05</v>
       </c>
       <c r="AL5">
-        <v>3.972338737201057E-05</v>
+        <v>2.538125156961048E-05</v>
       </c>
       <c r="AM5">
-        <v>1.624691497015528E-07</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>5.413427323253068E-05</v>
+        <v>3.982984655033203E-05</v>
       </c>
       <c r="AO5">
-        <v>0.0001406458083984113</v>
+        <v>0.0001265677573818002</v>
       </c>
       <c r="AP5">
-        <v>1.176668370262634E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3.574668013454866E-05</v>
+        <v>2.139413843950082E-05</v>
       </c>
       <c r="AR5">
-        <v>0.0004690203080067034</v>
+        <v>0.0004558015180790128</v>
       </c>
       <c r="AS5">
-        <v>0.0001939763415829481</v>
+        <v>0.0001800378411467613</v>
       </c>
       <c r="AT5">
-        <v>3.186163490256017E-05</v>
+        <v>1.749892716782129E-05</v>
       </c>
       <c r="AU5">
-        <v>0.0001752490304646804</v>
+        <v>0.0001612615260718428</v>
       </c>
       <c r="AV5">
-        <v>0.0003723470222340321</v>
+        <v>0.0003588752662785238</v>
       </c>
       <c r="AW5">
-        <v>4.29461425644516E-05</v>
+        <v>2.86124397802648E-05</v>
       </c>
       <c r="AX5">
-        <v>3.371434001319113E-07</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>5.105762004881387E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4.365822260697218E-05</v>
+        <v>2.932638313030002E-05</v>
       </c>
       <c r="BA5">
-        <v>5.431580324337042E-05</v>
+        <v>4.001185157270577E-05</v>
       </c>
       <c r="BB5">
-        <v>0.0001040509162132132</v>
+        <v>8.987710694818304E-05</v>
       </c>
       <c r="BC5">
-        <v>0.0001259815375227607</v>
+        <v>0.0001118651143506508</v>
       </c>
       <c r="BD5">
-        <v>0.0001641421598014536</v>
+        <v>0.0001501255919405575</v>
       </c>
       <c r="BE5">
-        <v>0.000253920055162379</v>
+        <v>0.0002401384100869636</v>
       </c>
       <c r="BF5">
-        <v>0.0003362540600788059</v>
+        <v>0.0003226878592805925</v>
       </c>
       <c r="BG5">
-        <v>0.0003088715484437085</v>
+        <v>0.0002952336955324564</v>
       </c>
       <c r="BH5">
-        <v>0.0001276281876210875</v>
+        <v>0.0001135160732560203</v>
       </c>
       <c r="BI5">
-        <v>1.994694619109599E-05</v>
+        <v>5.553061162113571E-06</v>
       </c>
       <c r="BJ5">
-        <v>1.777060106113945E-05</v>
+        <v>3.371021166421532E-06</v>
       </c>
       <c r="BK5">
-        <v>2.364986341220903E-05</v>
+        <v>9.265667846590518E-06</v>
       </c>
       <c r="BL5">
-        <v>1.534325291619473E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>3.371434001319113E-07</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>3.416341204000665E-05</v>
+        <v>1.980672739028788E-05</v>
       </c>
       <c r="BO5">
-        <v>0.0002270424835574332</v>
+        <v>0.0002131905076509931</v>
       </c>
       <c r="BP5">
-        <v>2.968109177235297E-05</v>
+        <v>1.531267818692612E-05</v>
       </c>
       <c r="BQ5">
-        <v>5.035993600715293E-05</v>
+        <v>3.60456329760962E-05</v>
       </c>
       <c r="BR5">
-        <v>2.242867033928768E-05</v>
+        <v>8.041279264605972E-06</v>
       </c>
       <c r="BS5">
-        <v>9.532368569208231E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>3.023218580526056E-05</v>
+        <v>1.586521427352356E-05</v>
       </c>
       <c r="BU5">
-        <v>0.0002232247933294667</v>
+        <v>0.0002093628276318998</v>
       </c>
       <c r="BV5">
-        <v>5.630747336229941E-05</v>
+        <v>4.200873331628042E-05</v>
       </c>
       <c r="BW5">
-        <v>8.721547520791511E-07</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0001741445803987301</v>
+        <v>0.0001601541859795127</v>
       </c>
       <c r="BY5">
-        <v>0.0005340138318876747</v>
+        <v>0.0005209651112137459</v>
       </c>
       <c r="BZ5">
-        <v>0.0003723470222340321</v>
+        <v>0.0003588752662785238</v>
       </c>
       <c r="CA5">
-        <v>0.0001371987681925775</v>
+        <v>0.0001231116972687436</v>
       </c>
       <c r="CB5">
-        <v>0.0001059388463259475</v>
+        <v>9.176997722797178E-05</v>
       </c>
       <c r="CC5">
-        <v>0.0001939763415829481</v>
+        <v>0.0001800378411467613</v>
       </c>
       <c r="CD5">
-        <v>2.797859467069142E-05</v>
+        <v>1.36057261427669E-05</v>
       </c>
       <c r="CE5">
-        <v>1.596939795358385E-05</v>
+        <v>1.56510483129981E-06</v>
       </c>
       <c r="CF5">
-        <v>4.686486779845122E-05</v>
+        <v>3.254141918477938E-05</v>
       </c>
       <c r="CG5">
-        <v>0.0002232247933294667</v>
+        <v>0.0002093628276318998</v>
       </c>
       <c r="CH5">
-        <v>6.885106411131735E-05</v>
+        <v>5.458514701427531E-05</v>
       </c>
       <c r="CI5">
-        <v>1.57199379386878E-05</v>
+        <v>1.314992051696697E-06</v>
       </c>
       <c r="CJ5">
-        <v>2.733919063251056E-05</v>
+        <v>1.29646489691545E-05</v>
       </c>
       <c r="CK5">
-        <v>1.681511400408426E-05</v>
+        <v>2.413033876095872E-06</v>
       </c>
       <c r="CL5">
-        <v>8.650790516566383E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0007549665050814659</v>
+        <v>0.0007424959536466067</v>
       </c>
       <c r="CN5">
-        <v>0.05295487316210493</v>
+        <v>0.05307899466848567</v>
       </c>
       <c r="CO5">
-        <v>0.0001902643113612909</v>
+        <v>0.0001763160976156535</v>
       </c>
       <c r="CP5">
-        <v>0.07858518969257315</v>
+        <v>0.07877637832419539</v>
       </c>
       <c r="CQ5">
-        <v>0.01368683881728494</v>
+        <v>0.01370820723537427</v>
       </c>
       <c r="CR5">
-        <v>3.791052426375871E-06</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.007941110474189116</v>
+        <v>0.007947443983055531</v>
       </c>
       <c r="CT5">
-        <v>0.01588727594868009</v>
+        <v>0.01591440227430449</v>
       </c>
       <c r="CU5">
-        <v>0.001555892492907319</v>
+        <v>0.001545517733128831</v>
       </c>
       <c r="CV5">
-        <v>0.05621566635681732</v>
+        <v>0.05634832041586148</v>
       </c>
       <c r="CW5">
-        <v>9.61110257390969E-05</v>
+        <v>8.191644007716982E-05</v>
       </c>
       <c r="CX5">
-        <v>0.09669209077379415</v>
+        <v>0.09693065992844295</v>
       </c>
       <c r="CY5">
-        <v>0.01899045813398102</v>
+        <v>0.01902570458984344</v>
       </c>
       <c r="CZ5">
-        <v>0.002745411163937286</v>
+        <v>0.002738149030473507</v>
       </c>
       <c r="DA5">
-        <v>0.03232999193052728</v>
+        <v>0.03240014408810948</v>
       </c>
       <c r="DB5">
-        <v>0.006694882399772851</v>
+        <v>0.006697954890218093</v>
       </c>
       <c r="DC5">
-        <v>0.1140800668120858</v>
+        <v>0.1143641352708603</v>
       </c>
       <c r="DD5">
-        <v>0.01125869767229287</v>
+        <v>0.01127371234730291</v>
       </c>
       <c r="DE5">
-        <v>0.03932846934842876</v>
+        <v>0.03941693449722699</v>
       </c>
       <c r="DF5">
-        <v>0.0004304861057057029</v>
+        <v>0.0004171664829159316</v>
       </c>
       <c r="DG5">
-        <v>0.02206259131742793</v>
+        <v>0.02210587665727088</v>
       </c>
       <c r="DH5">
-        <v>0.0001808236107975564</v>
+        <v>0.0001668506934691005</v>
       </c>
       <c r="DI5">
-        <v>0.01075859864243035</v>
+        <v>0.0107723047029241</v>
       </c>
       <c r="DJ5">
-        <v>0.003715273921850895</v>
+        <v>0.003710549638708814</v>
       </c>
       <c r="DK5">
-        <v>0.00514552930725602</v>
+        <v>0.005144547588781305</v>
       </c>
       <c r="DL5">
-        <v>0.001888561512772051</v>
+        <v>0.00187905725159988</v>
       </c>
       <c r="DM5">
-        <v>3.325523698577662E-06</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.007978051476394982</v>
+        <v>0.007984481649179634</v>
       </c>
       <c r="DO5">
-        <v>0.01263454775444928</v>
+        <v>0.01265316263118386</v>
       </c>
       <c r="DP5">
-        <v>0.001805804507830366</v>
+        <v>0.001796083695512271</v>
       </c>
       <c r="DQ5">
-        <v>0.0002562555453018386</v>
+        <v>0.0002424800115286187</v>
       </c>
       <c r="DR5">
-        <v>0.002765149065115899</v>
+        <v>0.002757938580030664</v>
       </c>
       <c r="DS5">
-        <v>0.003593815914598248</v>
+        <v>0.003588773810980782</v>
       </c>
       <c r="DT5">
-        <v>0.0002861748670884171</v>
+        <v>0.0002724776235266745</v>
       </c>
       <c r="DU5">
-        <v>0.0007532455449787019</v>
+        <v>0.0007407704902890112</v>
       </c>
       <c r="DV5">
-        <v>0.0002232247933294667</v>
+        <v>0.0002093628276318998</v>
       </c>
       <c r="DW5">
-        <v>0.007082919122943766</v>
+        <v>0.007087006993260742</v>
       </c>
       <c r="DX5">
-        <v>0.01078895564424306</v>
+        <v>0.01080274114023033</v>
       </c>
       <c r="DY5">
-        <v>0.002531049651137074</v>
+        <v>0.002523226595594598</v>
       </c>
       <c r="DZ5">
-        <v>0.0196530181735446</v>
+        <v>0.01968999835739671</v>
       </c>
       <c r="EA5">
-        <v>0.007507854448318013</v>
+        <v>0.007513054251476417</v>
       </c>
       <c r="EB5">
-        <v>0.009093348542992938</v>
+        <v>0.009102697125620797</v>
       </c>
       <c r="EC5">
-        <v>0.009899314591119751</v>
+        <v>0.009910772153784039</v>
       </c>
       <c r="ED5">
-        <v>0.005994614357957605</v>
+        <v>0.005995854449477644</v>
       </c>
       <c r="EE5">
-        <v>0.005139536306898159</v>
+        <v>0.005138538906474877</v>
       </c>
       <c r="EF5">
-        <v>7.006979018409139E-05</v>
+        <v>5.580706214068668E-05</v>
       </c>
       <c r="EG5">
-        <v>0.0003599557614941104</v>
+        <v>0.0003464515811932001</v>
       </c>
       <c r="EH5">
-        <v>6.315045377091568E-06</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001936064015608578</v>
+        <v>0.001926684054747065</v>
       </c>
       <c r="EJ5">
-        <v>0.001412676184355415</v>
+        <v>0.001401926668920247</v>
       </c>
       <c r="EK5">
-        <v>0.009166844547381621</v>
+        <v>0.009176385447795537</v>
       </c>
       <c r="EL5">
-        <v>0.01123836067107848</v>
+        <v>0.01125332213003847</v>
       </c>
       <c r="EM5">
-        <v>0.005421592723740651</v>
+        <v>0.005421333383380383</v>
       </c>
       <c r="EN5">
-        <v>0.003932034834794382</v>
+        <v>0.003927877752267189</v>
       </c>
       <c r="EO5">
-        <v>0.007107553924414789</v>
+        <v>0.00711170625688203</v>
       </c>
       <c r="EP5">
-        <v>0.002931247375034161</v>
+        <v>0.002924471521184964</v>
       </c>
       <c r="EQ5">
-        <v>0.0004427077064354938</v>
+        <v>0.000429420064039949</v>
       </c>
       <c r="ER5">
-        <v>0.0011413305681525</v>
+        <v>0.001129871019721681</v>
       </c>
       <c r="ES5">
-        <v>0.008094155483327925</v>
+        <v>0.008100889466717677</v>
       </c>
       <c r="ET5">
-        <v>0.0006636694696298277</v>
+        <v>0.000650960020259255</v>
       </c>
       <c r="EU5">
-        <v>0.008045700480434521</v>
+        <v>0.00805230767109646</v>
       </c>
       <c r="EV5">
-        <v>0.01851894210582529</v>
+        <v>0.01855295474061975</v>
       </c>
       <c r="EW5">
-        <v>0.004954038295821479</v>
+        <v>0.00495255550075525</v>
       </c>
       <c r="EX5">
-        <v>0.00207925232415881</v>
+        <v>0.002070247045686071</v>
       </c>
       <c r="EY5">
-        <v>0.008111417484358693</v>
+        <v>0.00811819663741241</v>
       </c>
       <c r="EZ5">
-        <v>0.02076657224003848</v>
+        <v>0.02080646627280665</v>
       </c>
       <c r="FA5">
-        <v>0.002365687141262749</v>
+        <v>0.002357431379860133</v>
       </c>
       <c r="FB5">
-        <v>0.004233652552804941</v>
+        <v>0.004230284716608156</v>
       </c>
       <c r="FC5">
-        <v>0.004684071279700885</v>
+        <v>0.004681882059036684</v>
       </c>
       <c r="FD5">
-        <v>2.88897697251006E-05</v>
+        <v>1.451928547875209E-05</v>
       </c>
       <c r="FE5">
-        <v>0.003006369179519924</v>
+        <v>0.002999789897705404</v>
       </c>
       <c r="FF5">
-        <v>0.01302019027747722</v>
+        <v>0.01303981426915425</v>
       </c>
       <c r="FG5">
-        <v>0.001593193695134694</v>
+        <v>0.001582916541813717</v>
       </c>
       <c r="FH5">
-        <v>0.002369753141505543</v>
+        <v>0.002361508019649543</v>
       </c>
       <c r="FI5">
-        <v>0.001587362194786476</v>
+        <v>0.001577069782115747</v>
       </c>
       <c r="FJ5">
-        <v>0.01186244570834459</v>
+        <v>0.01187904021734147</v>
       </c>
       <c r="FK5">
-        <v>0.004754389283899798</v>
+        <v>0.004752384065114339</v>
       </c>
       <c r="FL5">
-        <v>0.001333861579649143</v>
+        <v>0.001322905829189198</v>
       </c>
       <c r="FM5">
-        <v>0.01105789266030215</v>
+        <v>0.01107238188667514</v>
       </c>
       <c r="FN5">
-        <v>0.01746822604308368</v>
+        <v>0.0174994892578431</v>
       </c>
       <c r="FO5">
-        <v>0.005160525308151479</v>
+        <v>0.005159582829873778</v>
       </c>
       <c r="FP5">
-        <v>0.0006440022084554327</v>
+        <v>0.0006312412955507763</v>
       </c>
       <c r="FQ5">
-        <v>0.0005619739335572619</v>
+        <v>0.0005489983763824342</v>
       </c>
       <c r="FR5">
-        <v>0.0001116427226665442</v>
+        <v>9.748877896320583E-05</v>
       </c>
       <c r="FS5">
-        <v>0.000731616343687153</v>
+        <v>0.0007190846916335488</v>
       </c>
       <c r="FT5">
-        <v>0.005960697355932313</v>
+        <v>0.005961848696467948</v>
       </c>
       <c r="FU5">
-        <v>0.001760972505153303</v>
+        <v>0.001751134380451072</v>
       </c>
       <c r="FV5">
-        <v>0.003752062124047636</v>
+        <v>0.003747434104990363</v>
       </c>
       <c r="FW5">
-        <v>0.00416731124884349</v>
+        <v>0.004163769816642295</v>
       </c>
       <c r="FX5">
-        <v>0.0004365755260693216</v>
+        <v>0.0004232718375313841</v>
       </c>
       <c r="FY5">
-        <v>0.001867576711518981</v>
+        <v>0.001858017539191416</v>
       </c>
       <c r="FZ5">
-        <v>0.01375001482105738</v>
+        <v>0.01377154855247603</v>
       </c>
       <c r="GA5">
-        <v>0.01090208265099824</v>
+        <v>0.01091616416764219</v>
       </c>
       <c r="GB5">
-        <v>0.004560510872322697</v>
+        <v>0.004557998329810064</v>
       </c>
       <c r="GC5">
-        <v>0.002150165228393246</v>
+        <v>0.002141345508480577</v>
       </c>
       <c r="GD5">
-        <v>0.0002420192344517429</v>
+        <v>0.0002282064483706311</v>
       </c>
       <c r="GE5">
-        <v>0.0002263568435164915</v>
+        <v>0.0002125030734883735</v>
       </c>
       <c r="GF5">
-        <v>2.509351849841429E-05</v>
+        <v>1.071310056060451E-05</v>
       </c>
       <c r="GG5">
-        <v>0.0005017760299626524</v>
+        <v>0.0004886429522853034</v>
       </c>
       <c r="GH5">
-        <v>5.413427323253068E-05</v>
+        <v>3.982984655033203E-05</v>
       </c>
       <c r="GI5">
-        <v>2.677632059889978E-05</v>
+        <v>1.240030606746604E-05</v>
       </c>
       <c r="GJ5">
-        <v>0.000264683955805126</v>
+        <v>0.0002509304767444235</v>
       </c>
       <c r="GK5">
-        <v>0.004747448783485359</v>
+        <v>0.004745425403417733</v>
       </c>
       <c r="GL5">
-        <v>0.01347503980463774</v>
+        <v>0.01349585400597012</v>
       </c>
       <c r="GM5">
-        <v>0.008480522506399137</v>
+        <v>0.008488267500538393</v>
       </c>
       <c r="GN5">
-        <v>0.0025828091542278</v>
+        <v>0.002575121538334386</v>
       </c>
       <c r="GO5">
-        <v>0.00348344470800763</v>
+        <v>0.003478113794865449</v>
       </c>
       <c r="GP5">
-        <v>0.0002851156670251688</v>
+        <v>0.0002714156518432157</v>
       </c>
       <c r="GQ5">
-        <v>0.001476187688147891</v>
+        <v>0.001465604363948561</v>
       </c>
       <c r="GR5">
-        <v>0.0021202414266064</v>
+        <v>0.002111343404759389</v>
       </c>
       <c r="GS5">
-        <v>5.948623355211336E-05</v>
+        <v>4.519581140211057E-05</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.566191498365342E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.763205697115999E-05</v>
+        <v>7.254964278001353E-06</v>
       </c>
       <c r="D6">
-        <v>5.04082829473881E-07</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.288481297611477E-05</v>
+        <v>2.49171141644621E-06</v>
       </c>
       <c r="F6">
-        <v>2.040147597870666E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.96892199690129E-05</v>
+        <v>9.319064532050935E-06</v>
       </c>
       <c r="H6">
-        <v>1.164086998785024E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.456506491173812E-05</v>
+        <v>6.437996423017188E-05</v>
       </c>
       <c r="J6">
-        <v>0.0003550369296294424</v>
+        <v>0.0003357639261523747</v>
       </c>
       <c r="K6">
-        <v>0.000147982819845548</v>
+        <v>0.0001280115793266685</v>
       </c>
       <c r="L6">
-        <v>6.149852693581303E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5.319557694447895E-05</v>
+        <v>3.29046906858755E-05</v>
       </c>
       <c r="N6">
-        <v>0.0001053173038900787</v>
+        <v>8.52021848281496E-05</v>
       </c>
       <c r="O6">
-        <v>5.263644594506252E-05</v>
+        <v>3.234367416013252E-05</v>
       </c>
       <c r="P6">
-        <v>1.32700939861498E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>5.02644579475382E-05</v>
+        <v>2.996368723960043E-05</v>
       </c>
       <c r="R6">
-        <v>5.557478294199573E-05</v>
+        <v>3.529191994725941E-05</v>
       </c>
       <c r="S6">
-        <v>4.305064995506737E-05</v>
+        <v>2.272555252423519E-05</v>
       </c>
       <c r="T6">
-        <v>1.035354698919384E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>5.857481993886455E-06</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>4.184106695632982E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>5.500791794258738E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2.681444497201335E-07</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>6.190185993539207E-08</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.635537598292964E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.39601699749924E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.134874397771799E-05</v>
+        <v>9.504624181229435E-07</v>
       </c>
       <c r="AC6">
-        <v>3.62795179621345E-05</v>
+        <v>1.593158662002474E-05</v>
       </c>
       <c r="AD6">
-        <v>8.302526991334522E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>7.820004991838138E-08</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>7.919462991734334E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.818325393927324E-05</v>
+        <v>3.790918734599299E-05</v>
       </c>
       <c r="AH6">
-        <v>1.189432398758571E-07</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>2.896080996977315E-05</v>
+        <v>8.588198156342126E-06</v>
       </c>
       <c r="AJ6">
-        <v>1.138436798811796E-08</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>3.061368296804802E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>3.949723995877612E-05</v>
+        <v>1.916015956133321E-05</v>
       </c>
       <c r="AM6">
-        <v>2.763205697115999E-05</v>
+        <v>7.254964278001353E-06</v>
       </c>
       <c r="AN6">
-        <v>1.411680598526607E-07</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.779953298142235E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>3.550169996294632E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>9.584678989996321E-07</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>2.62359799726171E-05</v>
+        <v>5.854179366755727E-06</v>
       </c>
       <c r="AS6">
-        <v>0.0001129443598821182</v>
+        <v>9.285496111629517E-05</v>
       </c>
       <c r="AT6">
-        <v>4.627651395170048E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>3.388961296462888E-05</v>
+        <v>1.353362227901026E-05</v>
       </c>
       <c r="AV6">
-        <v>4.255468595558501E-07</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.311106996544146E-05</v>
+        <v>1.275245384263039E-05</v>
       </c>
       <c r="AX6">
-        <v>2.108321297799512E-05</v>
+        <v>6.840359829994062E-07</v>
       </c>
       <c r="AY6">
-        <v>1.698576898227169E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>2.170537297734577E-05</v>
+        <v>1.308294057862451E-06</v>
       </c>
       <c r="BA6">
-        <v>0.0001186909298761204</v>
+        <v>9.862090994821258E-05</v>
       </c>
       <c r="BB6">
-        <v>1.123728298827147E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>3.688720196150025E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.000108054314887222</v>
+        <v>8.79484256950311E-05</v>
       </c>
       <c r="BE6">
-        <v>1.189067798758951E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>5.661243594091272E-05</v>
+        <v>3.633307216558888E-05</v>
       </c>
       <c r="BG6">
-        <v>1.469294398466475E-07</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>3.791801996042437E-05</v>
+        <v>1.757561404734127E-05</v>
       </c>
       <c r="BI6">
-        <v>3.504138696342675E-05</v>
+        <v>1.468928034111215E-05</v>
       </c>
       <c r="BJ6">
-        <v>0.000137650519856332</v>
+        <v>0.0001176444362976929</v>
       </c>
       <c r="BK6">
-        <v>3.406819796444249E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.10448649884723E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1.09944719885249E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>2.040147597870666E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>4.934365594849926E-05</v>
+        <v>2.903978007126746E-05</v>
       </c>
       <c r="BP6">
-        <v>9.400360990188697E-05</v>
+        <v>7.385033829987778E-05</v>
       </c>
       <c r="BQ6">
-        <v>2.937593696933988E-05</v>
+        <v>9.004725065567522E-06</v>
       </c>
       <c r="BR6">
-        <v>4.887918294898404E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.730003798194368E-06</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.510075997380195E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>5.488288994271787E-07</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>6.118326993614207E-05</v>
+        <v>4.091932012971154E-05</v>
       </c>
       <c r="BW6">
-        <v>0.0001086964548865518</v>
+        <v>8.859273114731436E-05</v>
       </c>
       <c r="BX6">
-        <v>8.210921991430132E-05</v>
+        <v>6.191583752343722E-05</v>
       </c>
       <c r="BY6">
-        <v>3.346695996507002E-05</v>
+        <v>1.310954399028214E-05</v>
       </c>
       <c r="BZ6">
-        <v>1.433823798503496E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>7.71583799194686E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0001157781148791606</v>
+        <v>9.569827222747806E-05</v>
       </c>
       <c r="CC6">
-        <v>0.000305412719681236</v>
+        <v>0.0002859723712449562</v>
       </c>
       <c r="CD6">
-        <v>7.392920992283893E-05</v>
+        <v>5.370824253989525E-05</v>
       </c>
       <c r="CE6">
-        <v>5.997834693739966E-06</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.000108054314887222</v>
+        <v>8.79484256950311E-05</v>
       </c>
       <c r="CG6">
-        <v>0.00031013233967631</v>
+        <v>0.0002907079069516637</v>
       </c>
       <c r="CH6">
-        <v>0.0001385063098554388</v>
+        <v>0.0001185031122297474</v>
       </c>
       <c r="CI6">
-        <v>2.186355997718066E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.000113719689881309</v>
+        <v>9.363290571765746E-05</v>
       </c>
       <c r="CK6">
-        <v>0.000253126399735808</v>
+        <v>0.0002335097290550481</v>
       </c>
       <c r="CL6">
-        <v>1.721980298202742E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>3.875083995955514E-05</v>
+        <v>1.841124251896825E-05</v>
       </c>
       <c r="CN6">
-        <v>0.04369122495439879</v>
+        <v>0.0438180921640351</v>
       </c>
       <c r="CO6">
-        <v>0.001703811798221705</v>
+        <v>0.001689087193109195</v>
       </c>
       <c r="CP6">
-        <v>0.07416884592258882</v>
+        <v>0.07439849111585706</v>
       </c>
       <c r="CQ6">
-        <v>0.02288211497611758</v>
+        <v>0.02293880878321125</v>
       </c>
       <c r="CR6">
-        <v>0.00124616329869936</v>
+        <v>0.001229895391042266</v>
       </c>
       <c r="CS6">
-        <v>0.0007763121391897509</v>
+        <v>0.0007584597786374679</v>
       </c>
       <c r="CT6">
-        <v>3.117317496746408E-05</v>
+        <v>1.080802378928926E-05</v>
       </c>
       <c r="CU6">
-        <v>0.02440122997453206</v>
+        <v>0.02446304660852238</v>
       </c>
       <c r="CV6">
-        <v>0.01921398997994606</v>
+        <v>0.01925831397342435</v>
       </c>
       <c r="CW6">
-        <v>0.01422845998514954</v>
+        <v>0.01425597155351314</v>
       </c>
       <c r="CX6">
-        <v>0.07562666992106726</v>
+        <v>0.07586123125300689</v>
       </c>
       <c r="CY6">
-        <v>0.05574774394181521</v>
+        <v>0.05591526867890224</v>
       </c>
       <c r="CZ6">
-        <v>0.001943294197971753</v>
+        <v>0.0019293771860171</v>
       </c>
       <c r="DA6">
-        <v>0.02677043997205927</v>
+        <v>0.02684024616096271</v>
       </c>
       <c r="DB6">
-        <v>0.001270018598674462</v>
+        <v>0.001253831136916768</v>
       </c>
       <c r="DC6">
-        <v>0.09912778989653878</v>
+        <v>0.09944160274639355</v>
       </c>
       <c r="DD6">
-        <v>0.04087735695733567</v>
+        <v>0.04099473511665384</v>
       </c>
       <c r="DE6">
-        <v>0.02819751597056981</v>
+        <v>0.02827213460837697</v>
       </c>
       <c r="DF6">
-        <v>0.008568299991057132</v>
+        <v>0.008576724117135327</v>
       </c>
       <c r="DG6">
-        <v>0.02532775697356502</v>
+        <v>0.02539269808294798</v>
       </c>
       <c r="DH6">
-        <v>0.0008274560991363712</v>
+        <v>0.0008097762085115721</v>
       </c>
       <c r="DI6">
-        <v>0.009448968990137963</v>
+        <v>0.009460362947229779</v>
       </c>
       <c r="DJ6">
-        <v>0.002002862997909581</v>
+        <v>0.001989146866501062</v>
       </c>
       <c r="DK6">
-        <v>0.01348879598592153</v>
+        <v>0.01351381322657875</v>
       </c>
       <c r="DL6">
-        <v>0.003996775995828502</v>
+        <v>0.003989783826164816</v>
       </c>
       <c r="DM6">
-        <v>0.001320355198621925</v>
+        <v>0.001304337484176559</v>
       </c>
       <c r="DN6">
-        <v>0.002167096397738168</v>
+        <v>0.00215393410147633</v>
       </c>
       <c r="DO6">
-        <v>0.01107911298843656</v>
+        <v>0.01109600418933719</v>
       </c>
       <c r="DP6">
-        <v>0.003380190796472042</v>
+        <v>0.003371119350883463</v>
       </c>
       <c r="DQ6">
-        <v>0.001830445398089536</v>
+        <v>0.001816147832412553</v>
       </c>
       <c r="DR6">
-        <v>0.0002902289596970835</v>
+        <v>0.0002707374079127225</v>
       </c>
       <c r="DS6">
-        <v>0.003011009696857362</v>
+        <v>0.003000693282409403</v>
       </c>
       <c r="DT6">
-        <v>0.0001512239398421652</v>
+        <v>0.0001312636291717246</v>
       </c>
       <c r="DU6">
-        <v>0.001477699598457702</v>
+        <v>0.001462212487768048</v>
       </c>
       <c r="DV6">
-        <v>3.662757796177123E-05</v>
+        <v>1.628082036301181E-05</v>
       </c>
       <c r="DW6">
-        <v>0.006370466993351045</v>
+        <v>0.006371479489627172</v>
       </c>
       <c r="DX6">
-        <v>0.01368188698572</v>
+        <v>0.01370755537640095</v>
       </c>
       <c r="DY6">
-        <v>0.0002321778197576724</v>
+        <v>0.0002124905053474576</v>
       </c>
       <c r="DZ6">
-        <v>0.01312746698629866</v>
+        <v>0.01315126573729595</v>
       </c>
       <c r="EA6">
-        <v>0.007279263992402519</v>
+        <v>0.007283341174179878</v>
       </c>
       <c r="EB6">
-        <v>0.004988296994793637</v>
+        <v>0.004984648476168485</v>
       </c>
       <c r="EC6">
-        <v>0.00709356099259634</v>
+        <v>0.007097011938490839</v>
       </c>
       <c r="ED6">
-        <v>0.002180346997724338</v>
+        <v>0.002167229385722794</v>
       </c>
       <c r="EE6">
-        <v>0.003128963996734252</v>
+        <v>0.003119045353001884</v>
       </c>
       <c r="EF6">
-        <v>0.0001025745398929413</v>
+        <v>8.245017156075269E-05</v>
       </c>
       <c r="EG6">
-        <v>0.002413466297481028</v>
+        <v>0.002401134820709648</v>
       </c>
       <c r="EH6">
-        <v>0.0007212205692472509</v>
+        <v>0.0007031824264621709</v>
       </c>
       <c r="EI6">
-        <v>0.0006615071293095747</v>
+        <v>0.0006432676182169446</v>
       </c>
       <c r="EJ6">
-        <v>0.0007909489991744743</v>
+        <v>0.000773145997689866</v>
       </c>
       <c r="EK6">
-        <v>0.01096009798856078</v>
+        <v>0.01097658784180629</v>
       </c>
       <c r="EL6">
-        <v>0.0137764519856213</v>
+        <v>0.01380243927258428</v>
       </c>
       <c r="EM6">
-        <v>0.007707066991956014</v>
+        <v>0.007712586829960764</v>
       </c>
       <c r="EN6">
-        <v>0.003364567896488348</v>
+        <v>0.003355443766664327</v>
       </c>
       <c r="EO6">
-        <v>0.006422721293296505</v>
+        <v>0.00642391000383785</v>
       </c>
       <c r="EP6">
-        <v>0.00117003109877882</v>
+        <v>0.001153506454744387</v>
       </c>
       <c r="EQ6">
-        <v>5.471858494288936E-05</v>
+        <v>3.443283463932963E-05</v>
       </c>
       <c r="ER6">
-        <v>1.094681198857464E-06</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.004385060595423244</v>
+        <v>0.004379377816287884</v>
       </c>
       <c r="ET6">
-        <v>0.0005357760994408021</v>
+        <v>0.0005171125925991808</v>
       </c>
       <c r="EU6">
-        <v>0.007872918991782912</v>
+        <v>0.007878998123248965</v>
       </c>
       <c r="EV6">
-        <v>0.02878716196995439</v>
+        <v>0.02886376903812286</v>
       </c>
       <c r="EW6">
-        <v>0.01465334398470608</v>
+        <v>0.01468228836571597</v>
       </c>
       <c r="EX6">
-        <v>0.007614208392052933</v>
+        <v>0.007619415088173318</v>
       </c>
       <c r="EY6">
-        <v>0.01151987398797653</v>
+        <v>0.01153825154264616</v>
       </c>
       <c r="EZ6">
-        <v>0.02566835497320954</v>
+        <v>0.02573444466225589</v>
       </c>
       <c r="FA6">
-        <v>0.00844033599119069</v>
+        <v>0.008448328591399545</v>
       </c>
       <c r="FB6">
-        <v>0.001622318598306761</v>
+        <v>0.00160731917821523</v>
       </c>
       <c r="FC6">
-        <v>0.007462735292211028</v>
+        <v>0.007467431184033647</v>
       </c>
       <c r="FD6">
-        <v>0.0007467291392206272</v>
+        <v>0.0007287770175652783</v>
       </c>
       <c r="FE6">
-        <v>0.004695774995098947</v>
+        <v>0.004691140020827274</v>
       </c>
       <c r="FF6">
-        <v>0.0188724749803025</v>
+        <v>0.01891564730176939</v>
       </c>
       <c r="FG6">
-        <v>0.00819535499144638</v>
+        <v>0.008202521455874882</v>
       </c>
       <c r="FH6">
-        <v>2.592098497294587E-05</v>
+        <v>5.538122126991866E-06</v>
       </c>
       <c r="FI6">
-        <v>0.002699989597181979</v>
+        <v>0.00268862434697525</v>
       </c>
       <c r="FJ6">
-        <v>0.01994047297918782</v>
+        <v>0.01998724685082041</v>
       </c>
       <c r="FK6">
-        <v>0.01444984598491847</v>
+        <v>0.01447810412095822</v>
       </c>
       <c r="FL6">
-        <v>0.0002550284997338228</v>
+        <v>0.000235418243398942</v>
       </c>
       <c r="FM6">
-        <v>0.004034524295789104</v>
+        <v>0.00402765942261485</v>
       </c>
       <c r="FN6">
-        <v>0.01182923398765364</v>
+        <v>0.01184865477981929</v>
       </c>
       <c r="FO6">
-        <v>0.005761219993986925</v>
+        <v>0.005760177960541268</v>
       </c>
       <c r="FP6">
-        <v>0.0004113439595706739</v>
+        <v>0.0003922608371544575</v>
       </c>
       <c r="FQ6">
-        <v>0.0002252036997649514</v>
+        <v>0.0002054928669183335</v>
       </c>
       <c r="FR6">
-        <v>2.661034897222636E-05</v>
+        <v>6.229810830090567E-06</v>
       </c>
       <c r="FS6">
-        <v>0.001013181298942527</v>
+        <v>0.000996127719064411</v>
       </c>
       <c r="FT6">
-        <v>0.006237410493489918</v>
+        <v>0.006237974290742617</v>
       </c>
       <c r="FU6">
-        <v>0.006975906992719137</v>
+        <v>0.006978961180583007</v>
       </c>
       <c r="FV6">
-        <v>1.560189598371606E-05</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0005438122294324148</v>
+        <v>0.0005251758223843634</v>
       </c>
       <c r="FX6">
-        <v>3.20145659665859E-05</v>
+        <v>1.165225216441316E-05</v>
       </c>
       <c r="FY6">
-        <v>4.510792795292015E-08</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.005741124494007899</v>
+        <v>0.005740014693626952</v>
       </c>
       <c r="GA6">
-        <v>0.005980906993757634</v>
+        <v>0.005980605798545056</v>
       </c>
       <c r="GB6">
-        <v>0.001902007798014845</v>
+        <v>0.001887951558233209</v>
       </c>
       <c r="GC6">
-        <v>0.0007104240392585194</v>
+        <v>0.0006923494879367095</v>
       </c>
       <c r="GD6">
-        <v>2.224585297678166E-05</v>
+        <v>1.850596687896494E-06</v>
       </c>
       <c r="GE6">
-        <v>0.0001231279998714894</v>
+        <v>0.0001030729428275886</v>
       </c>
       <c r="GF6">
-        <v>0.0005145471994629591</v>
+        <v>0.0004958121035843613</v>
       </c>
       <c r="GG6">
-        <v>0.0008252465591386774</v>
+        <v>0.0008075592174052122</v>
       </c>
       <c r="GH6">
-        <v>3.042667396824321E-05</v>
+        <v>1.005900540632773E-05</v>
       </c>
       <c r="GI6">
-        <v>6.98900199270547E-05</v>
+        <v>4.965543140866523E-05</v>
       </c>
       <c r="GJ6">
-        <v>4.157015795661258E-07</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0009774148989798569</v>
+        <v>0.0009602407060632833</v>
       </c>
       <c r="GL6">
-        <v>0.007666277691998587</v>
+        <v>0.007671659978518995</v>
       </c>
       <c r="GM6">
-        <v>0.007445793992228709</v>
+        <v>0.007450432753849004</v>
       </c>
       <c r="GN6">
-        <v>0.0007231777992452081</v>
+        <v>0.0007051462567178355</v>
       </c>
       <c r="GO6">
-        <v>0.0005978765993759869</v>
+        <v>0.0005794225105913896</v>
       </c>
       <c r="GP6">
-        <v>7.707565991955494E-08</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.002645351197239006</v>
+        <v>0.002633801692999429</v>
       </c>
       <c r="GR6">
-        <v>0.005490573594269402</v>
+        <v>0.005488618875044587</v>
       </c>
       <c r="GS6">
-        <v>0.002284029697616123</v>
+        <v>0.002271261729008449</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0002501105308408135</v>
+        <v>0.0001841479861132176</v>
       </c>
       <c r="C2">
-        <v>0.0004260778884679586</v>
+        <v>0.0002932014851083379</v>
       </c>
       <c r="D2">
-        <v>0.0006485643681114326</v>
+        <v>0.0004493709822134018</v>
       </c>
       <c r="E2">
-        <v>0.0007168597410716335</v>
+        <v>0.0004493709822134018</v>
       </c>
       <c r="F2">
-        <v>0.000717591918203369</v>
+        <v>0.0004493709822134018</v>
       </c>
       <c r="G2">
-        <v>0.0007420112732618037</v>
+        <v>0.0004493709822134018</v>
       </c>
       <c r="H2">
-        <v>0.0008217463967178501</v>
+        <v>0.0004609575135015738</v>
       </c>
       <c r="I2">
-        <v>0.0009095570155239215</v>
+        <v>0.0004807231549525532</v>
       </c>
       <c r="J2">
-        <v>0.001182773597366246</v>
+        <v>0.0006882736604627039</v>
       </c>
       <c r="K2">
-        <v>0.001577976884495973</v>
+        <v>0.00101937605445738</v>
       </c>
       <c r="L2">
-        <v>0.001845817196105267</v>
+        <v>0.0012214813080548</v>
       </c>
       <c r="M2">
-        <v>0.002225578752565687</v>
+        <v>0.001536943842105989</v>
       </c>
       <c r="N2">
-        <v>0.002598997068751164</v>
+        <v>0.001845981747233611</v>
       </c>
       <c r="O2">
-        <v>0.003075311019396559</v>
+        <v>0.002259235516904703</v>
       </c>
       <c r="P2">
-        <v>0.003496263367642355</v>
+        <v>0.00261641735226226</v>
       </c>
       <c r="Q2">
-        <v>0.004098360593739712</v>
+        <v>0.003157068293495981</v>
       </c>
       <c r="R2">
-        <v>0.00473791832146076</v>
+        <v>0.003735660383384224</v>
       </c>
       <c r="S2">
-        <v>0.00550295595462062</v>
+        <v>0.004441342382351484</v>
       </c>
       <c r="T2">
-        <v>0.006319461390011306</v>
+        <v>0.005199152555014268</v>
       </c>
       <c r="U2">
-        <v>0.006838795112521353</v>
+        <v>0.005655978073291315</v>
       </c>
       <c r="V2">
-        <v>0.007255065990564235</v>
+        <v>0.006008418371584719</v>
       </c>
       <c r="W2">
-        <v>0.007394832396622283</v>
+        <v>0.006080806432975298</v>
       </c>
       <c r="X2">
-        <v>0.007431867558227539</v>
+        <v>0.006080806432975298</v>
       </c>
       <c r="Y2">
-        <v>0.00745029385602621</v>
+        <v>0.006080806432975298</v>
       </c>
       <c r="Z2">
-        <v>0.00748165476238552</v>
+        <v>0.006080806432975298</v>
       </c>
       <c r="AA2">
-        <v>0.007576744111507081</v>
+        <v>0.006107944196446702</v>
       </c>
       <c r="AB2">
-        <v>0.007906240285788794</v>
+        <v>0.006372496404828025</v>
       </c>
       <c r="AC2">
-        <v>0.008587192415304045</v>
+        <v>0.006993014018504384</v>
       </c>
       <c r="AD2">
-        <v>0.009474560913766226</v>
+        <v>0.007822596481808627</v>
       </c>
       <c r="AE2">
-        <v>0.01062648636369539</v>
+        <v>0.00892013036562582</v>
       </c>
       <c r="AF2">
-        <v>0.01209491912734327</v>
+        <v>0.01033823259528841</v>
       </c>
       <c r="AG2">
-        <v>0.01347333658708952</v>
+        <v>0.01166516455550768</v>
       </c>
       <c r="AH2">
-        <v>0.01473538804179199</v>
+        <v>0.01287423744539067</v>
       </c>
       <c r="AI2">
-        <v>0.01592196189322296</v>
+        <v>0.01400686429633434</v>
       </c>
       <c r="AJ2">
-        <v>0.01706613454281608</v>
+        <v>0.01509654590542779</v>
       </c>
       <c r="AK2">
-        <v>0.01784597097661738</v>
+        <v>0.0158172165850242</v>
       </c>
       <c r="AL2">
-        <v>0.01831538315696362</v>
+        <v>0.01622348002937798</v>
       </c>
       <c r="AM2">
-        <v>0.0184794189340736</v>
+        <v>0.01632044885650638</v>
       </c>
       <c r="AN2">
-        <v>0.01854398481687215</v>
+        <v>0.01632044885650638</v>
       </c>
       <c r="AO2">
-        <v>0.0185458407533526</v>
+        <v>0.01632044885650638</v>
       </c>
       <c r="AP2">
-        <v>0.01861112038618208</v>
+        <v>0.01632044885650638</v>
       </c>
       <c r="AQ2">
-        <v>0.01873008386133845</v>
+        <v>0.01637176706940109</v>
       </c>
       <c r="AR2">
-        <v>0.01898523910239792</v>
+        <v>0.01656102449324282</v>
       </c>
       <c r="AS2">
-        <v>0.01940351312052762</v>
+        <v>0.01691549363345013</v>
       </c>
       <c r="AT2">
-        <v>0.01980327816785507</v>
+        <v>0.01725121631853238</v>
       </c>
       <c r="AU2">
-        <v>0.02044531824568372</v>
+        <v>0.01783232260898823</v>
       </c>
       <c r="AV2">
-        <v>0.02145723308954425</v>
+        <v>0.0187880494430381</v>
       </c>
       <c r="AW2">
-        <v>0.02290533205231078</v>
+        <v>0.02018555697352391</v>
       </c>
       <c r="AX2">
-        <v>0.02411420240470816</v>
+        <v>0.02134076640668019</v>
       </c>
       <c r="AY2">
-        <v>0.02550321046491345</v>
+        <v>0.02267842485290314</v>
       </c>
       <c r="AZ2">
-        <v>0.02685831722364932</v>
+        <v>0.02398174701789968</v>
       </c>
       <c r="BA2">
-        <v>0.02804006547487113</v>
+        <v>0.02510948635247418</v>
       </c>
       <c r="BB2">
-        <v>0.02886312211054577</v>
+        <v>0.02587393178235631</v>
       </c>
       <c r="BC2">
-        <v>0.02937429418270206</v>
+        <v>0.0263224909300319</v>
       </c>
       <c r="BD2">
-        <v>0.02963311746392052</v>
+        <v>0.02651546345780739</v>
       </c>
       <c r="BE2">
-        <v>0.02970768528715259</v>
+        <v>0.02652181638843773</v>
       </c>
       <c r="BF2">
-        <v>0.0297419878686394</v>
+        <v>0.02652181638843773</v>
       </c>
       <c r="BG2">
-        <v>0.02974310413998779</v>
+        <v>0.02652181638843773</v>
       </c>
       <c r="BH2">
-        <v>0.02990422248697132</v>
+        <v>0.0266158303525686</v>
       </c>
       <c r="BI2">
-        <v>0.03028736124357811</v>
+        <v>0.02693471341884002</v>
       </c>
       <c r="BJ2">
-        <v>0.0306978436113701</v>
+        <v>0.02728129093584651</v>
       </c>
       <c r="BK2">
-        <v>0.03138821084129344</v>
+        <v>0.02791134445290636</v>
       </c>
       <c r="BL2">
-        <v>0.03228632255022127</v>
+        <v>0.02875180797032459</v>
       </c>
       <c r="BM2">
-        <v>0.03345383210082591</v>
+        <v>0.02986512591080805</v>
       </c>
       <c r="BN2">
-        <v>0.03469621985467608</v>
+        <v>0.03105428279944179</v>
       </c>
       <c r="BO2">
-        <v>0.03633464792569226</v>
+        <v>0.03264456150693756</v>
       </c>
       <c r="BP2">
-        <v>0.0379956458976867</v>
+        <v>0.0342576997045901</v>
       </c>
       <c r="BQ2">
-        <v>0.03958287916648388</v>
+        <v>0.03579612674120218</v>
       </c>
       <c r="BR2">
-        <v>0.04067351531375651</v>
+        <v>0.03683158493349813</v>
       </c>
       <c r="BS2">
-        <v>0.04173519995977427</v>
+        <v>0.03783772015452377</v>
       </c>
       <c r="BT2">
-        <v>0.04224289718177994</v>
+        <v>0.03828275986705026</v>
       </c>
       <c r="BU2">
-        <v>0.04247723905193727</v>
+        <v>0.03845093686844244</v>
       </c>
       <c r="BV2">
-        <v>0.04256452668172068</v>
+        <v>0.03847017281051958</v>
       </c>
       <c r="BW2">
-        <v>0.04256468512583755</v>
+        <v>0.03847017281051958</v>
       </c>
       <c r="BX2">
-        <v>0.04260517919359273</v>
+        <v>0.03847017281051958</v>
       </c>
       <c r="BY2">
-        <v>0.04274072708946793</v>
+        <v>0.038538288234999</v>
       </c>
       <c r="BZ2">
-        <v>0.04306532280353723</v>
+        <v>0.03879787710649652</v>
       </c>
       <c r="CA2">
-        <v>0.04387902856880657</v>
+        <v>0.03955285168711826</v>
       </c>
       <c r="CB2">
-        <v>0.0450754299206635</v>
+        <v>0.04069543213287252</v>
       </c>
       <c r="CC2">
-        <v>0.04615713536754903</v>
+        <v>0.04172184503703059</v>
       </c>
       <c r="CD2">
-        <v>0.04757553502902827</v>
+        <v>0.04308927220136446</v>
       </c>
       <c r="CE2">
-        <v>0.04940542550834321</v>
+        <v>0.04487346992703008</v>
       </c>
       <c r="CF2">
-        <v>0.05133881359214416</v>
+        <v>0.04676249321100341</v>
       </c>
       <c r="CG2">
-        <v>0.05302080606504859</v>
+        <v>0.04839689528515059</v>
       </c>
       <c r="CH2">
-        <v>0.05441835492562407</v>
+        <v>0.04974320411677759</v>
       </c>
       <c r="CI2">
-        <v>0.05561136687733409</v>
+        <v>0.0508823516737757</v>
       </c>
       <c r="CJ2">
-        <v>0.05632748640837364</v>
+        <v>0.05153848791377026</v>
       </c>
       <c r="CK2">
-        <v>0.05676948562753169</v>
+        <v>0.05191698666757211</v>
       </c>
       <c r="CL2">
-        <v>0.05704108371930386</v>
+        <v>0.05212289791654041</v>
       </c>
       <c r="CM2">
-        <v>0.05772434930891938</v>
+        <v>0.05274575867378844</v>
       </c>
       <c r="CN2">
-        <v>0.1182802199336585</v>
+        <v>0.1140094360114112</v>
       </c>
       <c r="CO2">
-        <v>0.1185892763770543</v>
+        <v>0.1142532862314478</v>
       </c>
       <c r="CP2">
-        <v>0.197956489817154</v>
+        <v>0.1945696703725849</v>
       </c>
       <c r="CQ2">
-        <v>0.2066331231932347</v>
+        <v>0.2032884599693106</v>
       </c>
       <c r="CR2">
-        <v>0.2119147144221605</v>
+        <v>0.208568646418445</v>
       </c>
       <c r="CS2">
-        <v>0.2119259788826487</v>
+        <v>0.208568646418445</v>
       </c>
       <c r="CT2">
-        <v>0.2404276701180286</v>
+        <v>0.2373668646058561</v>
       </c>
       <c r="CU2">
-        <v>0.2448625250102534</v>
+        <v>0.2417894504402235</v>
       </c>
       <c r="CV2">
-        <v>0.2752469143272371</v>
+        <v>0.2724945231728107</v>
       </c>
       <c r="CW2">
-        <v>0.279614545016548</v>
+        <v>0.2768490222660673</v>
       </c>
       <c r="CX2">
-        <v>0.381703224441489</v>
+        <v>0.3801784062660828</v>
       </c>
       <c r="CY2">
-        <v>0.4088043216161614</v>
+        <v>0.4075580596943842</v>
       </c>
       <c r="CZ2">
-        <v>0.4181235855200964</v>
+        <v>0.4169277252626113</v>
       </c>
       <c r="DA2">
-        <v>0.4440221906426479</v>
+        <v>0.4430894577414359</v>
       </c>
       <c r="DB2">
-        <v>0.4535117080539623</v>
+        <v>0.4526315613004121</v>
       </c>
       <c r="DC2">
-        <v>0.542091917893391</v>
+        <v>0.5422791516664932</v>
       </c>
       <c r="DD2">
-        <v>0.5488189361849675</v>
+        <v>0.5490233111185576</v>
       </c>
       <c r="DE2">
-        <v>0.5764499473826085</v>
+        <v>0.5769396777740746</v>
       </c>
       <c r="DF2">
-        <v>0.5765003426247928</v>
+        <v>0.5769396777740746</v>
       </c>
       <c r="DG2">
-        <v>0.600315889657056</v>
+        <v>0.6009916249261152</v>
       </c>
       <c r="DH2">
-        <v>0.6006718311224839</v>
+        <v>0.601282961739056</v>
       </c>
       <c r="DI2">
-        <v>0.6009971870165861</v>
+        <v>0.6015433205442807</v>
       </c>
       <c r="DJ2">
-        <v>0.6123745395097271</v>
+        <v>0.6129974815603172</v>
       </c>
       <c r="DK2">
-        <v>0.6212010078923024</v>
+        <v>0.6218680286618453</v>
       </c>
       <c r="DL2">
-        <v>0.6330077004040527</v>
+        <v>0.6337570384589535</v>
       </c>
       <c r="DM2">
-        <v>0.6400465622091458</v>
+        <v>0.6408170426165196</v>
       </c>
       <c r="DN2">
-        <v>0.6427386559258321</v>
+        <v>0.6434745063098473</v>
       </c>
       <c r="DO2">
-        <v>0.6477598534434713</v>
+        <v>0.6484909579962208</v>
       </c>
       <c r="DP2">
-        <v>0.6477645327396742</v>
+        <v>0.6484909579962208</v>
       </c>
       <c r="DQ2">
-        <v>0.6488798217880154</v>
+        <v>0.6495513854052561</v>
       </c>
       <c r="DR2">
-        <v>0.6497012756936206</v>
+        <v>0.65031420754081</v>
       </c>
       <c r="DS2">
-        <v>0.6520410777950372</v>
+        <v>0.6526148594466459</v>
       </c>
       <c r="DT2">
-        <v>0.6523051865064847</v>
+        <v>0.6528131852207831</v>
       </c>
       <c r="DU2">
-        <v>0.6524206114714877</v>
+        <v>0.6528609195217192</v>
       </c>
       <c r="DV2">
-        <v>0.6529078956426085</v>
+        <v>0.6532852842682271</v>
       </c>
       <c r="DW2">
-        <v>0.6648331221594966</v>
+        <v>0.6652943489528731</v>
       </c>
       <c r="DX2">
-        <v>0.6837960819814288</v>
+        <v>0.6844314464706056</v>
       </c>
       <c r="DY2">
-        <v>0.6839993580902396</v>
+        <v>0.6845681591130537</v>
       </c>
       <c r="DZ2">
-        <v>0.6923413124518141</v>
+        <v>0.6929479755062571</v>
       </c>
       <c r="EA2">
-        <v>0.6934533291000134</v>
+        <v>0.6940050885277413</v>
       </c>
       <c r="EB2">
-        <v>0.69510330157153</v>
+        <v>0.6956070597592698</v>
       </c>
       <c r="EC2">
-        <v>0.696104845014941</v>
+        <v>0.6965522821198301</v>
       </c>
       <c r="ED2">
-        <v>0.6962512580812871</v>
+        <v>0.6966314021232695</v>
       </c>
       <c r="EE2">
-        <v>0.6970455007157128</v>
+        <v>0.697366663846118</v>
       </c>
       <c r="EF2">
-        <v>0.6990416088022323</v>
+        <v>0.6993192118786561</v>
       </c>
       <c r="EG2">
-        <v>0.7018658779246477</v>
+        <v>0.7021105468897684</v>
       </c>
       <c r="EH2">
-        <v>0.7023502800956437</v>
+        <v>0.7025319926578744</v>
       </c>
       <c r="EI2">
-        <v>0.7027526636530846</v>
+        <v>0.7028703674505676</v>
       </c>
       <c r="EJ2">
-        <v>0.7047138761380917</v>
+        <v>0.7047875721442024</v>
       </c>
       <c r="EK2">
-        <v>0.7145545865646283</v>
+        <v>0.7146853747947397</v>
       </c>
       <c r="EL2">
-        <v>0.720713157131566</v>
+        <v>0.7208537929009059</v>
       </c>
       <c r="EM2">
-        <v>0.721846299780681</v>
+        <v>0.7219323029861366</v>
       </c>
       <c r="EN2">
-        <v>0.7223065504806302</v>
+        <v>0.7223292874012576</v>
       </c>
       <c r="EO2">
-        <v>0.7235686019353327</v>
+        <v>0.7235383602911406</v>
       </c>
       <c r="EP2">
-        <v>0.7235708946174321</v>
+        <v>0.7235383602911406</v>
       </c>
       <c r="EQ2">
-        <v>0.7245365591092879</v>
+        <v>0.7244472433456181</v>
       </c>
       <c r="ER2">
-        <v>0.7251986309979849</v>
+        <v>0.7250486384704736</v>
       </c>
       <c r="ES2">
-        <v>0.7255553684834474</v>
+        <v>0.7253407815169979</v>
       </c>
       <c r="ET2">
-        <v>0.7273518541613144</v>
+        <v>0.7270911458319356</v>
       </c>
       <c r="EU2">
-        <v>0.746684397999266</v>
+        <v>0.7466025694127033</v>
       </c>
       <c r="EV2">
-        <v>0.7740212191841557</v>
+        <v>0.7742209713714684</v>
       </c>
       <c r="EW2">
-        <v>0.7832797115854566</v>
+        <v>0.7835290856919691</v>
       </c>
       <c r="EX2">
-        <v>0.7866695128323845</v>
+        <v>0.7868932090394625</v>
       </c>
       <c r="EY2">
-        <v>0.7948865491885445</v>
+        <v>0.7951465046332205</v>
       </c>
       <c r="EZ2">
-        <v>0.8129762539726263</v>
+        <v>0.8133991425797165</v>
       </c>
       <c r="FA2">
-        <v>0.8142368078272638</v>
+        <v>0.8146066986541746</v>
       </c>
       <c r="FB2">
-        <v>0.8222661526752885</v>
+        <v>0.8226698945134738</v>
       </c>
       <c r="FC2">
-        <v>0.8321848381052048</v>
+        <v>0.8326466726466218</v>
       </c>
       <c r="FD2">
-        <v>0.8333256960546542</v>
+        <v>0.8337329970254208</v>
       </c>
       <c r="FE2">
-        <v>0.8417133604182099</v>
+        <v>0.8421591099150671</v>
       </c>
       <c r="FF2">
-        <v>0.862209536306598</v>
+        <v>0.862849095839935</v>
       </c>
       <c r="FG2">
-        <v>0.8697061571315322</v>
+        <v>0.8703727324174353</v>
       </c>
       <c r="FH2">
-        <v>0.870228691454181</v>
+        <v>0.8708327996020111</v>
       </c>
       <c r="FI2">
-        <v>0.8804788998984669</v>
+        <v>0.8811453544446369</v>
       </c>
       <c r="FJ2">
-        <v>0.9048132289532163</v>
+        <v>0.9057227399912876</v>
       </c>
       <c r="FK2">
-        <v>0.9146539393797529</v>
+        <v>0.9156205426418249</v>
       </c>
       <c r="FL2">
-        <v>0.9150884115985847</v>
+        <v>0.9159914178181005</v>
       </c>
       <c r="FM2">
-        <v>0.9245874840103133</v>
+        <v>0.9255431989754908</v>
       </c>
       <c r="FN2">
-        <v>0.9364439525242212</v>
+        <v>0.9374826234391257</v>
       </c>
       <c r="FO2">
-        <v>0.938519269514174</v>
+        <v>0.9395153966862141</v>
       </c>
       <c r="FP2">
-        <v>0.9386510384898854</v>
+        <v>0.9395796847040793</v>
       </c>
       <c r="FQ2">
-        <v>0.9391027110394627</v>
+        <v>0.9399679809045653</v>
       </c>
       <c r="FR2">
-        <v>0.9395163185673902</v>
+        <v>0.9403177236799141</v>
       </c>
       <c r="FS2">
-        <v>0.9438725287562061</v>
+        <v>0.9446606557388756</v>
       </c>
       <c r="FT2">
-        <v>0.9577250323566302</v>
+        <v>0.9586217259534916</v>
       </c>
       <c r="FU2">
-        <v>0.9631952565937321</v>
+        <v>0.9640929657172947</v>
       </c>
       <c r="FV2">
-        <v>0.9632958418380918</v>
+        <v>0.9641256698925649</v>
       </c>
       <c r="FW2">
-        <v>0.9633138496008723</v>
+        <v>0.9641256698925649</v>
       </c>
       <c r="FX2">
-        <v>0.9646725686597647</v>
+        <v>0.9654326507063057</v>
       </c>
       <c r="FY2">
-        <v>0.964702430428059</v>
+        <v>0.9654326507063057</v>
       </c>
       <c r="FZ2">
-        <v>0.9674302578462942</v>
+        <v>0.9681263065920407</v>
       </c>
       <c r="GA2">
-        <v>0.9703827614742678</v>
+        <v>0.9710475214559883</v>
       </c>
       <c r="GB2">
-        <v>0.9713015624540924</v>
+        <v>0.9719089397035522</v>
       </c>
       <c r="GC2">
-        <v>0.9714433806102394</v>
+        <v>0.9719834058405624</v>
       </c>
       <c r="GD2">
-        <v>0.9714562333257964</v>
+        <v>0.9719834058405624</v>
       </c>
       <c r="GE2">
-        <v>0.9715426071795402</v>
+        <v>0.9720017162821509</v>
       </c>
       <c r="GF2">
-        <v>0.9715693402766989</v>
+        <v>0.9720017162821509</v>
       </c>
       <c r="GG2">
-        <v>0.9716833647966412</v>
+        <v>0.9720480321692397</v>
       </c>
       <c r="GH2">
-        <v>0.9728044362452331</v>
+        <v>0.9731143161711657</v>
       </c>
       <c r="GI2">
-        <v>0.9738396610901039</v>
+        <v>0.9740936520914567</v>
       </c>
       <c r="GJ2">
-        <v>0.9740096102974702</v>
+        <v>0.9741966102226971</v>
       </c>
       <c r="GK2">
-        <v>0.9748553273341271</v>
+        <v>0.9749840068039245</v>
       </c>
       <c r="GL2">
-        <v>0.9808931875958327</v>
+        <v>0.9810301657988553</v>
       </c>
       <c r="GM2">
-        <v>0.983296197699989</v>
+        <v>0.9833948367146924</v>
       </c>
       <c r="GN2">
-        <v>0.9833045997783532</v>
+        <v>0.9833948367146924</v>
       </c>
       <c r="GO2">
-        <v>0.9833320131775414</v>
+        <v>0.9833948367146924</v>
       </c>
       <c r="GP2">
-        <v>0.9847954397409723</v>
+        <v>0.9848078685107411</v>
       </c>
       <c r="GQ2">
-        <v>0.9915742735347947</v>
+        <v>0.9916045082977746</v>
       </c>
       <c r="GR2">
-        <v>0.9981289248189</v>
+        <v>0.9981740891411676</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001234673544646308</v>
+        <v>0.0001151656327831265</v>
       </c>
       <c r="C3">
-        <v>0.0002453530788720693</v>
+        <v>0.0002287470876655888</v>
       </c>
       <c r="D3">
-        <v>0.000292388537572891</v>
+        <v>0.0002673577007560366</v>
       </c>
       <c r="E3">
-        <v>0.0003008754808797824</v>
+        <v>0.0002673577007560366</v>
       </c>
       <c r="F3">
-        <v>0.0003249071517487776</v>
+        <v>0.0002829274692766503</v>
       </c>
       <c r="G3">
-        <v>0.0003302862933432897</v>
+        <v>0.0002829274692766503</v>
       </c>
       <c r="H3">
-        <v>0.0003307073188085141</v>
+        <v>0.0002829274692766503</v>
       </c>
       <c r="I3">
-        <v>0.0004253169772296387</v>
+        <v>0.0003691889192337631</v>
       </c>
       <c r="J3">
-        <v>0.0006156603241125332</v>
+        <v>0.000551338274785831</v>
       </c>
       <c r="K3">
-        <v>0.0007486502689215049</v>
+        <v>0.0006760418378276691</v>
       </c>
       <c r="L3">
-        <v>0.0009409688358758242</v>
+        <v>0.0008601695953276956</v>
       </c>
       <c r="M3">
-        <v>0.001354050690813036</v>
+        <v>0.001265416267778845</v>
       </c>
       <c r="N3">
-        <v>0.001747066325024644</v>
+        <v>0.001650564394885088</v>
       </c>
       <c r="O3">
-        <v>0.00210568513799245</v>
+        <v>0.002001260291003599</v>
       </c>
       <c r="P3">
-        <v>0.002505605952453753</v>
+        <v>0.002393324721895245</v>
       </c>
       <c r="Q3">
-        <v>0.002930378567813707</v>
+        <v>0.002810280987382674</v>
       </c>
       <c r="R3">
-        <v>0.003179559726824201</v>
+        <v>0.003051362936730686</v>
       </c>
       <c r="S3">
-        <v>0.003364038633495035</v>
+        <v>0.003227638405060223</v>
       </c>
       <c r="T3">
-        <v>0.003469247617299436</v>
+        <v>0.00332451625482447</v>
       </c>
       <c r="U3">
-        <v>0.003537105159753193</v>
+        <v>0.003383982493904812</v>
       </c>
       <c r="V3">
-        <v>0.003594788833839058</v>
+        <v>0.00343325847556093</v>
       </c>
       <c r="W3">
-        <v>0.003595464949563507</v>
+        <v>0.00343325847556093</v>
       </c>
       <c r="X3">
-        <v>0.003680746662647329</v>
+        <v>0.003510176953819472</v>
       </c>
       <c r="Y3">
-        <v>0.003776105861095557</v>
+        <v>0.003597189151235638</v>
       </c>
       <c r="Z3">
-        <v>0.003839952763404287</v>
+        <v>0.003652638289441869</v>
       </c>
       <c r="AA3">
-        <v>0.004048372340940826</v>
+        <v>0.003852892994597399</v>
       </c>
       <c r="AB3">
-        <v>0.004650820362725596</v>
+        <v>0.004447810883328995</v>
       </c>
       <c r="AC3">
-        <v>0.005096345248835961</v>
+        <v>0.00488555284934222</v>
       </c>
       <c r="AD3">
-        <v>0.005419852210534107</v>
+        <v>0.00520108033260726</v>
       </c>
       <c r="AE3">
-        <v>0.005727058621642818</v>
+        <v>0.005500281006771137</v>
       </c>
       <c r="AF3">
-        <v>0.005912583568351477</v>
+        <v>0.005677604200201494</v>
       </c>
       <c r="AG3">
-        <v>0.005940973917378084</v>
+        <v>0.005697539668262273</v>
       </c>
       <c r="AH3">
-        <v>0.006040562360979243</v>
+        <v>0.005788787923710657</v>
       </c>
       <c r="AI3">
-        <v>0.00624692550844142</v>
+        <v>0.005986982886094323</v>
       </c>
       <c r="AJ3">
-        <v>0.006379861363248436</v>
+        <v>0.006111632272000771</v>
       </c>
       <c r="AK3">
-        <v>0.006435970931277382</v>
+        <v>0.006159331611876888</v>
       </c>
       <c r="AL3">
-        <v>0.006505650373797019</v>
+        <v>0.006220622685916873</v>
       </c>
       <c r="AM3">
-        <v>0.006544284659194051</v>
+        <v>0.00625081859227676</v>
       </c>
       <c r="AN3">
-        <v>0.006597826578130149</v>
+        <v>0.006295946146841229</v>
       </c>
       <c r="AO3">
-        <v>0.006616037903788678</v>
+        <v>0.006305686194173422</v>
       </c>
       <c r="AP3">
-        <v>0.00661976937812361</v>
+        <v>0.006305686194173422</v>
       </c>
       <c r="AQ3">
-        <v>0.006634761947665747</v>
+        <v>0.006312202300303924</v>
       </c>
       <c r="AR3">
-        <v>0.006692445621751613</v>
+        <v>0.006361478281960042</v>
       </c>
       <c r="AS3">
-        <v>0.006822860386467465</v>
+        <v>0.006483602516558292</v>
       </c>
       <c r="AT3">
-        <v>0.007103230666605771</v>
+        <v>0.006755923829502825</v>
       </c>
       <c r="AU3">
-        <v>0.007377486226522966</v>
+        <v>0.007022120572040404</v>
       </c>
       <c r="AV3">
-        <v>0.007806473622035329</v>
+        <v>0.007443298407257896</v>
       </c>
       <c r="AW3">
-        <v>0.008167801705101103</v>
+        <v>0.007796707937830061</v>
       </c>
       <c r="AX3">
-        <v>0.008537318878462997</v>
+        <v>0.00815831975048119</v>
       </c>
       <c r="AY3">
-        <v>0.008878764190809801</v>
+        <v>0.008491814481234188</v>
       </c>
       <c r="AZ3">
-        <v>0.009144971670435974</v>
+        <v>0.008749950178850529</v>
       </c>
       <c r="BA3">
-        <v>0.009330560527146944</v>
+        <v>0.008927337385235644</v>
       </c>
       <c r="BB3">
-        <v>0.009579741686157439</v>
+        <v>0.009168419334583656</v>
       </c>
       <c r="BC3">
-        <v>0.009649972228697005</v>
+        <v>0.009230262396409063</v>
       </c>
       <c r="BD3">
-        <v>0.009650547880767822</v>
+        <v>0.009230262396409063</v>
       </c>
       <c r="BE3">
-        <v>0.00965468382121738</v>
+        <v>0.009230262396409063</v>
       </c>
       <c r="BF3">
-        <v>0.009671112864811461</v>
+        <v>0.009238217290603574</v>
       </c>
       <c r="BG3">
-        <v>0.00985663781152012</v>
+        <v>0.009415540484033931</v>
       </c>
       <c r="BH3">
-        <v>0.01008187596966482</v>
+        <v>0.009632640862802477</v>
       </c>
       <c r="BI3">
-        <v>0.0102468844956316</v>
+        <v>0.00978941458564569</v>
       </c>
       <c r="BJ3">
-        <v>0.0104918235344887</v>
+        <v>0.01002624758122072</v>
       </c>
       <c r="BK3">
-        <v>0.0110024316929525</v>
+        <v>0.01052917766205028</v>
       </c>
       <c r="BL3">
-        <v>0.01135980378587523</v>
+        <v>0.01087862482978585</v>
       </c>
       <c r="BM3">
-        <v>0.01169366594794782</v>
+        <v>0.01120452419458889</v>
       </c>
       <c r="BN3">
-        <v>0.01202344052987261</v>
+        <v>0.01152632939457261</v>
       </c>
       <c r="BO3">
-        <v>0.01228526278934021</v>
+        <v>0.01178007280789139</v>
       </c>
       <c r="BP3">
-        <v>0.01239787293341224</v>
+        <v>0.01188436374043181</v>
       </c>
       <c r="BQ3">
-        <v>0.01259525152054953</v>
+        <v>0.01207355966928729</v>
       </c>
       <c r="BR3">
-        <v>0.01272031068507172</v>
+        <v>0.01219031967637038</v>
       </c>
       <c r="BS3">
-        <v>0.01274402043092907</v>
+        <v>0.01220556700129125</v>
       </c>
       <c r="BT3">
-        <v>0.01274568223728917</v>
+        <v>0.01220556700129125</v>
       </c>
       <c r="BU3">
-        <v>0.01275358529257494</v>
+        <v>0.01220556700129125</v>
       </c>
       <c r="BV3">
-        <v>0.01279762429716741</v>
+        <v>0.01224117633329373</v>
       </c>
       <c r="BW3">
-        <v>0.01285210020113728</v>
+        <v>0.01228723937744587</v>
       </c>
       <c r="BX3">
-        <v>0.01295502010485891</v>
+        <v>0.01238182445965459</v>
       </c>
       <c r="BY3">
-        <v>0.01324364818529582</v>
+        <v>0.01266241687536532</v>
       </c>
       <c r="BZ3">
-        <v>0.01352504413547122</v>
+        <v>0.01293576551059596</v>
       </c>
       <c r="CA3">
-        <v>0.01374487471342038</v>
+        <v>0.01314744959811303</v>
       </c>
       <c r="CB3">
-        <v>0.01412108832702442</v>
+        <v>0.01351576863828331</v>
       </c>
       <c r="CC3">
-        <v>0.01479685665146049</v>
+        <v>0.01418412494113836</v>
       </c>
       <c r="CD3">
-        <v>0.01521118330644271</v>
+        <v>0.01459061841887946</v>
       </c>
       <c r="CE3">
-        <v>0.01553587647818375</v>
+        <v>0.01490733402304986</v>
       </c>
       <c r="CF3">
-        <v>0.01615051770040943</v>
+        <v>0.01551446475421514</v>
       </c>
       <c r="CG3">
-        <v>0.01660349243678919</v>
+        <v>0.01595966857144088</v>
       </c>
       <c r="CH3">
-        <v>0.01679893552385649</v>
+        <v>0.01614692588233468</v>
       </c>
       <c r="CI3">
-        <v>0.01690414450766089</v>
+        <v>0.01624380373209892</v>
       </c>
       <c r="CJ3">
-        <v>0.01693885543591605</v>
+        <v>0.0162700699611918</v>
       </c>
       <c r="CK3">
-        <v>0.01693889060140233</v>
+        <v>0.0162700699611918</v>
       </c>
       <c r="CL3">
-        <v>0.01694029983635328</v>
+        <v>0.0162700699611918</v>
       </c>
       <c r="CM3">
-        <v>0.01943557132658334</v>
+        <v>0.01876086046244346</v>
       </c>
       <c r="CN3">
-        <v>0.08987098387355713</v>
+        <v>0.08930123660520636</v>
       </c>
       <c r="CO3">
-        <v>0.1047088514101006</v>
+        <v>0.104154505806505</v>
       </c>
       <c r="CP3">
-        <v>0.1732395138881978</v>
+        <v>0.172787063523789</v>
       </c>
       <c r="CQ3">
-        <v>0.1754269779672974</v>
+        <v>0.1749695507678055</v>
       </c>
       <c r="CR3">
-        <v>0.1781175026645879</v>
+        <v>0.1776559090089672</v>
       </c>
       <c r="CS3">
-        <v>0.1810635428711179</v>
+        <v>0.1805981943685935</v>
       </c>
       <c r="CT3">
-        <v>0.208150511850594</v>
+        <v>0.2077202970563611</v>
       </c>
       <c r="CU3">
-        <v>0.2130284784269833</v>
+        <v>0.2125976209206769</v>
       </c>
       <c r="CV3">
-        <v>0.2873757011154098</v>
+        <v>0.2870561087289982</v>
       </c>
       <c r="CW3">
-        <v>0.305168589758808</v>
+        <v>0.3048691592724557</v>
       </c>
       <c r="CX3">
-        <v>0.3707790721313103</v>
+        <v>0.370576832774113</v>
       </c>
       <c r="CY3">
-        <v>0.3716495758227881</v>
+        <v>0.3714402381426724</v>
       </c>
       <c r="CZ3">
-        <v>0.3775511190361904</v>
+        <v>0.3773427875207663</v>
       </c>
       <c r="DA3">
-        <v>0.3937384036215293</v>
+        <v>0.3935476475430412</v>
       </c>
       <c r="DB3">
-        <v>0.4281368488653914</v>
+        <v>0.4279930045320276</v>
       </c>
       <c r="DC3">
-        <v>0.5248439123623589</v>
+        <v>0.5248473525544241</v>
       </c>
       <c r="DD3">
-        <v>0.5251633958339116</v>
+        <v>0.5251588500661145</v>
       </c>
       <c r="DE3">
-        <v>0.5742014916071495</v>
+        <v>0.5742674405569053</v>
       </c>
       <c r="DF3">
-        <v>0.5742231831109339</v>
+        <v>0.5742806663885726</v>
       </c>
       <c r="DG3">
-        <v>0.5996014260286218</v>
+        <v>0.5996912904324788</v>
       </c>
       <c r="DH3">
-        <v>0.6020613921175751</v>
+        <v>0.6021467186590809</v>
       </c>
       <c r="DI3">
-        <v>0.6153591295984269</v>
+        <v>0.6154573768134532</v>
       </c>
       <c r="DJ3">
-        <v>0.6170566688598106</v>
+        <v>0.6171491500212239</v>
       </c>
       <c r="DK3">
-        <v>0.6205497125861205</v>
+        <v>0.6206393200670828</v>
       </c>
       <c r="DL3">
-        <v>0.6222271399467769</v>
+        <v>0.6223109489759211</v>
       </c>
       <c r="DM3">
-        <v>0.6240194547115878</v>
+        <v>0.6240976503607145</v>
       </c>
       <c r="DN3">
-        <v>0.6450496284720476</v>
+        <v>0.6451532009548486</v>
       </c>
       <c r="DO3">
-        <v>0.6564273328834701</v>
+        <v>0.6565407330638463</v>
       </c>
       <c r="DP3">
-        <v>0.6564295692665509</v>
+        <v>0.6565407330638463</v>
       </c>
       <c r="DQ3">
-        <v>0.6564576344675658</v>
+        <v>0.6565603428601153</v>
       </c>
       <c r="DR3">
-        <v>0.6634985922221698</v>
+        <v>0.6636041422591348</v>
       </c>
       <c r="DS3">
-        <v>0.666398564827034</v>
+        <v>0.6665002858069236</v>
       </c>
       <c r="DT3">
-        <v>0.6680501916867575</v>
+        <v>0.6681460726528736</v>
       </c>
       <c r="DU3">
-        <v>0.6691351898259915</v>
+        <v>0.6692243179977001</v>
       </c>
       <c r="DV3">
-        <v>0.6692772695911292</v>
+        <v>0.6693581260238369</v>
       </c>
       <c r="DW3">
-        <v>0.6771565918760488</v>
+        <v>0.6772416404722683</v>
       </c>
       <c r="DX3">
-        <v>0.6794475609588913</v>
+        <v>0.679527799455951</v>
       </c>
       <c r="DY3">
-        <v>0.6924616434294859</v>
+        <v>0.6925543456609971</v>
       </c>
       <c r="DZ3">
-        <v>0.71421012421592</v>
+        <v>0.714329360399901</v>
       </c>
       <c r="EA3">
-        <v>0.7191023483928248</v>
+        <v>0.7192209648322615</v>
       </c>
       <c r="EB3">
-        <v>0.7266888669671565</v>
+        <v>0.7268112038934198</v>
       </c>
       <c r="EC3">
-        <v>0.7326844491839593</v>
+        <v>0.732807943762084</v>
       </c>
       <c r="ED3">
-        <v>0.7397387127390443</v>
+        <v>0.7398650703958617</v>
       </c>
       <c r="EE3">
-        <v>0.7441253488976669</v>
+        <v>0.7442502723596037</v>
       </c>
       <c r="EF3">
-        <v>0.7453698457426684</v>
+        <v>0.7454882733462204</v>
       </c>
       <c r="EG3">
-        <v>0.7464902237831817</v>
+        <v>0.746601955585711</v>
       </c>
       <c r="EH3">
-        <v>0.7464950950688579</v>
+        <v>0.746601955585711</v>
       </c>
       <c r="EI3">
-        <v>0.7475003100052069</v>
+        <v>0.7476002892051122</v>
       </c>
       <c r="EJ3">
-        <v>0.7494361619752081</v>
+        <v>0.7495307590187817</v>
       </c>
       <c r="EK3">
-        <v>0.7585170063035752</v>
+        <v>0.7586177310391875</v>
       </c>
       <c r="EL3">
-        <v>0.7655579640581792</v>
+        <v>0.7656615304382069</v>
       </c>
       <c r="EM3">
-        <v>0.7668328696042803</v>
+        <v>0.7669299891112155</v>
       </c>
       <c r="EN3">
-        <v>0.7698684144140469</v>
+        <v>0.7699619232567954</v>
       </c>
       <c r="EO3">
-        <v>0.7734417663432608</v>
+        <v>0.7735325308738195</v>
       </c>
       <c r="EP3">
-        <v>0.7742647854730215</v>
+        <v>0.774348375187913</v>
       </c>
       <c r="EQ3">
-        <v>0.7743038303984333</v>
+        <v>0.7743789823957866</v>
       </c>
       <c r="ER3">
-        <v>0.776862919090971</v>
+        <v>0.7769336929023001</v>
       </c>
       <c r="ES3">
-        <v>0.7851642283911499</v>
+        <v>0.785239874143703</v>
       </c>
       <c r="ET3">
-        <v>0.7851829861088282</v>
+        <v>0.7852501614632363</v>
       </c>
       <c r="EU3">
-        <v>0.7968360065302063</v>
+        <v>0.7969134530879863</v>
       </c>
       <c r="EV3">
-        <v>0.8115944630638782</v>
+        <v>0.8116871833634491</v>
       </c>
       <c r="EW3">
-        <v>0.8132024425220233</v>
+        <v>0.8132892524963428</v>
       </c>
       <c r="EX3">
-        <v>0.8141259546554179</v>
+        <v>0.8142057516979709</v>
       </c>
       <c r="EY3">
-        <v>0.8254358040643868</v>
+        <v>0.8255253194970797</v>
       </c>
       <c r="EZ3">
-        <v>0.8422619616728276</v>
+        <v>0.8423700817012372</v>
       </c>
       <c r="FA3">
-        <v>0.8422658215152672</v>
+        <v>0.8423700817012372</v>
       </c>
       <c r="FB3">
-        <v>0.8526812458918933</v>
+        <v>0.8527937836411996</v>
       </c>
       <c r="FC3">
-        <v>0.8552765809857417</v>
+        <v>0.8553847989382511</v>
       </c>
       <c r="FD3">
-        <v>0.8552778950180892</v>
+        <v>0.8553847989382511</v>
       </c>
       <c r="FE3">
-        <v>0.8624806765785448</v>
+        <v>0.8625906828246421</v>
       </c>
       <c r="FF3">
-        <v>0.8765587780876147</v>
+        <v>0.8766829620934812</v>
       </c>
       <c r="FG3">
-        <v>0.8767443669443257</v>
+        <v>0.8768603492998663</v>
       </c>
       <c r="FH3">
-        <v>0.8793363458380528</v>
+        <v>0.879448002990303</v>
       </c>
       <c r="FI3">
-        <v>0.8835679589910697</v>
+        <v>0.8836779322223096</v>
       </c>
       <c r="FJ3">
-        <v>0.8980090175132643</v>
+        <v>0.898133753190719</v>
       </c>
       <c r="FK3">
-        <v>0.8994968154670637</v>
+        <v>0.8996154472192148</v>
       </c>
       <c r="FL3">
-        <v>0.9060530370041394</v>
+        <v>0.9061737295404778</v>
       </c>
       <c r="FM3">
-        <v>0.9218373735749076</v>
+        <v>0.921974992440343</v>
       </c>
       <c r="FN3">
-        <v>0.9323336679544579</v>
+        <v>0.9324796946564932</v>
       </c>
       <c r="FO3">
-        <v>0.9328111800517249</v>
+        <v>0.9329494753617728</v>
       </c>
       <c r="FP3">
-        <v>0.9328191273280123</v>
+        <v>0.9329494753617728</v>
       </c>
       <c r="FQ3">
-        <v>0.9333739855480763</v>
+        <v>0.9334967267865039</v>
       </c>
       <c r="FR3">
-        <v>0.9335162526132207</v>
+        <v>0.9336307224143686</v>
       </c>
       <c r="FS3">
-        <v>0.9354090571816653</v>
+        <v>0.9355180754815418</v>
       </c>
       <c r="FT3">
-        <v>0.9434847374736853</v>
+        <v>0.9435982642496424</v>
       </c>
       <c r="FU3">
-        <v>0.944062900594592</v>
+        <v>0.9441688581170165</v>
       </c>
       <c r="FV3">
-        <v>0.947189026207634</v>
+        <v>0.9472915189822365</v>
       </c>
       <c r="FW3">
-        <v>0.9482903668474589</v>
+        <v>0.9483861331537428</v>
       </c>
       <c r="FX3">
-        <v>0.948404497435586</v>
+        <v>0.9484919469796173</v>
       </c>
       <c r="FY3">
-        <v>0.9498680027885069</v>
+        <v>0.9499493092743513</v>
       </c>
       <c r="FZ3">
-        <v>0.9588267911124604</v>
+        <v>0.9589140286706646</v>
       </c>
       <c r="GA3">
-        <v>0.966833379401982</v>
+        <v>0.9669250141361517</v>
       </c>
       <c r="GB3">
-        <v>0.9687692313719832</v>
+        <v>0.9688554839498212</v>
       </c>
       <c r="GC3">
-        <v>0.9690862510834468</v>
+        <v>0.9691645137325583</v>
       </c>
       <c r="GD3">
-        <v>0.9692988825411356</v>
+        <v>0.9693689871027722</v>
       </c>
       <c r="GE3">
-        <v>0.9697760514583902</v>
+        <v>0.9698384240752117</v>
       </c>
       <c r="GF3">
-        <v>0.9699725711854964</v>
+        <v>0.9700267597605009</v>
       </c>
       <c r="GG3">
-        <v>0.9700387205178884</v>
+        <v>0.9700845150377686</v>
       </c>
       <c r="GH3">
-        <v>0.9705898513378175</v>
+        <v>0.9706280330579065</v>
       </c>
       <c r="GI3">
-        <v>0.9706542258201453</v>
+        <v>0.970684010626009</v>
       </c>
       <c r="GJ3">
-        <v>0.9707103353881742</v>
+        <v>0.9707317099658851</v>
       </c>
       <c r="GK3">
-        <v>0.9756971851685008</v>
+        <v>0.9757180924337893</v>
       </c>
       <c r="GL3">
-        <v>0.9883576426263082</v>
+        <v>0.988390443972496</v>
       </c>
       <c r="GM3">
-        <v>0.9918591308529234</v>
+        <v>0.9918890721218823</v>
       </c>
       <c r="GN3">
-        <v>0.9928463176886205</v>
+        <v>0.9928693485992143</v>
       </c>
       <c r="GO3">
-        <v>0.9948617491614994</v>
+        <v>0.9948795261101618</v>
       </c>
       <c r="GP3">
-        <v>0.9948692989741724</v>
+        <v>0.9948795261101618</v>
       </c>
       <c r="GQ3">
-        <v>0.9968803646468934</v>
+        <v>0.9968853307880962</v>
       </c>
       <c r="GR3">
-        <v>0.9999985114596469</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.000277922932054583</v>
+        <v>1.896516259912428E-05</v>
       </c>
       <c r="C4">
-        <v>0.0005498236744980174</v>
+        <v>3.165946796668183E-05</v>
       </c>
       <c r="D4">
-        <v>0.0009979285755639916</v>
+        <v>0.0002278337355534175</v>
       </c>
       <c r="E4">
-        <v>0.001832685751663921</v>
+        <v>0.0008266258832729465</v>
       </c>
       <c r="F4">
-        <v>0.002314415090558774</v>
+        <v>0.001057813005441052</v>
       </c>
       <c r="G4">
-        <v>0.002613750351230768</v>
+        <v>0.001099074652280161</v>
       </c>
       <c r="H4">
-        <v>0.002873460174461367</v>
+        <v>0.001099074652280161</v>
       </c>
       <c r="I4">
-        <v>0.003005231525952922</v>
+        <v>0.001099074652280161</v>
       </c>
       <c r="J4">
-        <v>0.003008828925420639</v>
+        <v>0.001099074652280161</v>
       </c>
       <c r="K4">
-        <v>0.003328423824784473</v>
+        <v>0.001161432496682439</v>
       </c>
       <c r="L4">
-        <v>0.003706217250390443</v>
+        <v>0.001284391994755068</v>
       </c>
       <c r="M4">
-        <v>0.003790711688934657</v>
+        <v>0.001284391994755068</v>
       </c>
       <c r="N4">
-        <v>0.003908621001321281</v>
+        <v>0.001284391994755068</v>
       </c>
       <c r="O4">
-        <v>0.004758826086423743</v>
+        <v>0.001899269924911898</v>
       </c>
       <c r="P4">
-        <v>0.006124626298234351</v>
+        <v>0.003051032881553579</v>
       </c>
       <c r="Q4">
-        <v>0.006610072136889231</v>
+        <v>0.003286089964799153</v>
       </c>
       <c r="R4">
-        <v>0.006963761214051612</v>
+        <v>0.003383949800205922</v>
       </c>
       <c r="S4">
-        <v>0.00779291672051324</v>
+        <v>0.003976908974733248</v>
       </c>
       <c r="T4">
-        <v>0.008787722756278853</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="U4">
-        <v>0.009031471640540046</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="V4">
-        <v>0.009083077410207873</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="W4">
-        <v>0.009182516823787094</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="X4">
-        <v>0.00933042884423645</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="Y4">
-        <v>0.009377826517175994</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="Z4">
-        <v>0.009378191405692432</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="AA4">
-        <v>0.009380347624653205</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="AB4">
-        <v>0.009394132216763136</v>
+        <v>0.004742358702808692</v>
       </c>
       <c r="AC4">
-        <v>0.00982344272904266</v>
+        <v>0.004918962525682725</v>
       </c>
       <c r="AD4">
-        <v>0.0107961947162323</v>
+        <v>0.005661447551726543</v>
       </c>
       <c r="AE4">
-        <v>0.01119978369017265</v>
+        <v>0.005811267745203957</v>
       </c>
       <c r="AF4">
-        <v>0.01144758215417237</v>
+        <v>0.005811267745203957</v>
       </c>
       <c r="AG4">
-        <v>0.01195737616125509</v>
+        <v>0.006071678378888809</v>
       </c>
       <c r="AH4">
-        <v>0.01266412121562073</v>
+        <v>0.006537172541799031</v>
       </c>
       <c r="AI4">
-        <v>0.01338112720932383</v>
+        <v>0.007013351337675279</v>
       </c>
       <c r="AJ4">
-        <v>0.01394587447285823</v>
+        <v>0.007330984351900959</v>
       </c>
       <c r="AK4">
-        <v>0.01453008073513618</v>
+        <v>0.007668879863800916</v>
       </c>
       <c r="AL4">
-        <v>0.01499876922487307</v>
+        <v>0.007886487655438389</v>
       </c>
       <c r="AM4">
-        <v>0.01533268795331202</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AN4">
-        <v>0.01535678855775585</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AO4">
-        <v>0.01535732334642132</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AP4">
-        <v>0.01535778416982156</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AQ4">
-        <v>0.0153674120231999</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AR4">
-        <v>0.01539497583542011</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AS4">
-        <v>0.01540326182288508</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AT4">
-        <v>0.01543015670914849</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AU4">
-        <v>0.01549357502105358</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AV4">
-        <v>0.0156451472612666</v>
+        <v>0.007963760786960341</v>
       </c>
       <c r="AW4">
-        <v>0.0160766341034056</v>
+        <v>0.008142630804477649</v>
       </c>
       <c r="AX4">
-        <v>0.01666182722561982</v>
+        <v>0.008481553925630643</v>
       </c>
       <c r="AY4">
-        <v>0.01718419709189052</v>
+        <v>0.008755059699559189</v>
       </c>
       <c r="AZ4">
-        <v>0.01785888710832595</v>
+        <v>0.009187175211282358</v>
       </c>
       <c r="BA4">
-        <v>0.01853135906490459</v>
+        <v>0.009616981075254286</v>
       </c>
       <c r="BB4">
-        <v>0.01909504572850748</v>
+        <v>0.009933509695367557</v>
       </c>
       <c r="BC4">
-        <v>0.01947283915411345</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BD4">
-        <v>0.01972601745776579</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BE4">
-        <v>0.01983910507646375</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BF4">
-        <v>0.01984667476677498</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BG4">
-        <v>0.01984686154069291</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BH4">
-        <v>0.01985018086547859</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BI4">
-        <v>0.02003586012348932</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BJ4">
-        <v>0.02010083448929394</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BK4">
-        <v>0.02011941919809393</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BL4">
-        <v>0.02024274626013074</v>
+        <v>0.01005646919344019</v>
       </c>
       <c r="BM4">
-        <v>0.02062140813568063</v>
+        <v>0.01018033300140054</v>
       </c>
       <c r="BN4">
-        <v>0.0209108459469917</v>
+        <v>0.01021128851444006</v>
       </c>
       <c r="BO4">
-        <v>0.02119126779888493</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BP4">
-        <v>0.02140532232506348</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BQ4">
-        <v>0.02154581757599174</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BR4">
-        <v>0.02176648686174317</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BS4">
-        <v>0.02190421019285041</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BT4">
-        <v>0.02203844558418286</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BU4">
-        <v>0.02221435810282423</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BV4">
-        <v>0.02235637695365411</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BW4">
-        <v>0.02243321504869269</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BX4">
-        <v>0.02244516156292131</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BY4">
-        <v>0.02245800378809209</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="BZ4">
-        <v>0.02258083543016088</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="CA4">
-        <v>0.02260773031642428</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="CB4">
-        <v>0.02260793688717094</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="CC4">
-        <v>0.02273243167913234</v>
+        <v>0.01023285578201314</v>
       </c>
       <c r="CD4">
-        <v>0.02309015029603454</v>
+        <v>0.0103349115444911</v>
       </c>
       <c r="CE4">
-        <v>0.02314726782934648</v>
+        <v>0.0103349115444911</v>
       </c>
       <c r="CF4">
-        <v>0.02317146397178414</v>
+        <v>0.0103349115444911</v>
       </c>
       <c r="CG4">
-        <v>0.02335974628962679</v>
+        <v>0.0103349115444911</v>
       </c>
       <c r="CH4">
-        <v>0.02381461998025571</v>
+        <v>0.01053813409778793</v>
       </c>
       <c r="CI4">
-        <v>0.02392454905315761</v>
+        <v>0.01053813409778793</v>
       </c>
       <c r="CJ4">
-        <v>0.02399969415830551</v>
+        <v>0.01053813409778793</v>
       </c>
       <c r="CK4">
-        <v>0.02417107666723938</v>
+        <v>0.01053813409778793</v>
       </c>
       <c r="CL4">
-        <v>0.02422329820186745</v>
+        <v>0.01053813409778793</v>
       </c>
       <c r="CM4">
-        <v>0.02424574068241835</v>
+        <v>0.01053813409778793</v>
       </c>
       <c r="CN4">
-        <v>0.0743274934486516</v>
+        <v>0.06241742360108939</v>
       </c>
       <c r="CO4">
-        <v>0.0751833707933878</v>
+        <v>0.06303820800922855</v>
       </c>
       <c r="CP4">
-        <v>0.1610589152484245</v>
+        <v>0.152189282685384</v>
       </c>
       <c r="CQ4">
-        <v>0.1819733358979854</v>
+        <v>0.1736968656600934</v>
       </c>
       <c r="CR4">
-        <v>0.1837060668861034</v>
+        <v>0.1752307106600888</v>
       </c>
       <c r="CS4">
-        <v>0.1873072980535728</v>
+        <v>0.1787102097524393</v>
       </c>
       <c r="CT4">
-        <v>0.2017061581238418</v>
+        <v>0.1934331923052816</v>
       </c>
       <c r="CU4">
-        <v>0.2126833794150453</v>
+        <v>0.2045932501302489</v>
       </c>
       <c r="CV4">
-        <v>0.2511129429336576</v>
+        <v>0.2443392094123037</v>
       </c>
       <c r="CW4">
-        <v>0.2568180858652779</v>
+        <v>0.2500094947722237</v>
       </c>
       <c r="CX4">
-        <v>0.3586575842895259</v>
+        <v>0.3557837053268811</v>
       </c>
       <c r="CY4">
-        <v>0.3900050622654268</v>
+        <v>0.3881551463344083</v>
       </c>
       <c r="CZ4">
-        <v>0.3917342377537744</v>
+        <v>0.3896852890213105</v>
       </c>
       <c r="DA4">
-        <v>0.4180683390533877</v>
+        <v>0.4168363415297999</v>
       </c>
       <c r="DB4">
-        <v>0.4194121198666201</v>
+        <v>0.4179651758651718</v>
       </c>
       <c r="DC4">
-        <v>0.5199867533725402</v>
+        <v>0.5224222928322464</v>
       </c>
       <c r="DD4">
-        <v>0.5482763695458864</v>
+        <v>0.5516096071290865</v>
       </c>
       <c r="DE4">
-        <v>0.5799386075014633</v>
+        <v>0.5843088051522853</v>
       </c>
       <c r="DF4">
-        <v>0.5860695297055911</v>
+        <v>0.5904224510176787</v>
       </c>
       <c r="DG4">
-        <v>0.6108998661023023</v>
+        <v>0.6160076453209592</v>
       </c>
       <c r="DH4">
-        <v>0.6123182774107158</v>
+        <v>0.6172141917860746</v>
       </c>
       <c r="DI4">
-        <v>0.6228940637278397</v>
+        <v>0.6279562386262085</v>
       </c>
       <c r="DJ4">
-        <v>0.6238291445374617</v>
+        <v>0.6286594969603804</v>
       </c>
       <c r="DK4">
-        <v>0.6320715070052544</v>
+        <v>0.6369717684588676</v>
       </c>
       <c r="DL4">
-        <v>0.6396601072152603</v>
+        <v>0.644603282617138</v>
       </c>
       <c r="DM4">
-        <v>0.6416298063880773</v>
+        <v>0.6463838806672068</v>
       </c>
       <c r="DN4">
-        <v>0.6468550400506853</v>
+        <v>0.6515544403950226</v>
       </c>
       <c r="DO4">
-        <v>0.658399024305293</v>
+        <v>0.6633046639001055</v>
       </c>
       <c r="DP4">
-        <v>0.6599215439069842</v>
+        <v>0.6646196174872017</v>
       </c>
       <c r="DQ4">
-        <v>0.6610122248365592</v>
+        <v>0.665484900965124</v>
       </c>
       <c r="DR4">
-        <v>0.6622404097572556</v>
+        <v>0.6664933662345158</v>
       </c>
       <c r="DS4">
-        <v>0.668090231379534</v>
+        <v>0.672314304342381</v>
       </c>
       <c r="DT4">
-        <v>0.6682309571704474</v>
+        <v>0.672314304342381</v>
       </c>
       <c r="DU4">
-        <v>0.6692728045031756</v>
+        <v>0.6731287377917086</v>
       </c>
       <c r="DV4">
-        <v>0.6693396871188571</v>
+        <v>0.6731287377917086</v>
       </c>
       <c r="DW4">
-        <v>0.6767839726381814</v>
+        <v>0.6806099782322589</v>
       </c>
       <c r="DX4">
-        <v>0.6927837956050766</v>
+        <v>0.6970000304733741</v>
       </c>
       <c r="DY4">
-        <v>0.6932450712052922</v>
+        <v>0.6972099192832353</v>
       </c>
       <c r="DZ4">
-        <v>0.7112611010420015</v>
+        <v>0.715699431396305</v>
       </c>
       <c r="EA4">
-        <v>0.7181553695968402</v>
+        <v>0.7226079436296857</v>
       </c>
       <c r="EB4">
-        <v>0.7232973992648206</v>
+        <v>0.7276918637122736</v>
       </c>
       <c r="EC4">
-        <v>0.7300206618307011</v>
+        <v>0.7344223087953748</v>
       </c>
       <c r="ED4">
-        <v>0.7330739321335522</v>
+        <v>0.7373312206806826</v>
       </c>
       <c r="EE4">
-        <v>0.7368280468911499</v>
+        <v>0.740969916216295</v>
       </c>
       <c r="EF4">
-        <v>0.7371809689383618</v>
+        <v>0.7410669773496312</v>
       </c>
       <c r="EG4">
-        <v>0.7394080383945605</v>
+        <v>0.7431155729897704</v>
       </c>
       <c r="EH4">
-        <v>0.7395609525146869</v>
+        <v>0.7431155729897704</v>
       </c>
       <c r="EI4">
-        <v>0.7403191004957335</v>
+        <v>0.743634592603607</v>
       </c>
       <c r="EJ4">
-        <v>0.7411112059445875</v>
+        <v>0.7441889718534423</v>
       </c>
       <c r="EK4">
-        <v>0.7488402077455276</v>
+        <v>0.751966685050382</v>
       </c>
       <c r="EL4">
-        <v>0.7589188170947543</v>
+        <v>0.7621910255435195</v>
       </c>
       <c r="EM4">
-        <v>0.7631939735187084</v>
+        <v>0.7663722775432078</v>
       </c>
       <c r="EN4">
-        <v>0.7645812476291325</v>
+        <v>0.7675464010964272</v>
       </c>
       <c r="EO4">
-        <v>0.7680655994041488</v>
+        <v>0.7709041946247369</v>
       </c>
       <c r="EP4">
-        <v>0.7686827927642967</v>
+        <v>0.7712764393342848</v>
       </c>
       <c r="EQ4">
-        <v>0.7686975383093446</v>
+        <v>0.7712764393342848</v>
       </c>
       <c r="ER4">
-        <v>0.7687063927797729</v>
+        <v>0.7712764393342848</v>
       </c>
       <c r="ES4">
-        <v>0.7728416175127625</v>
+        <v>0.7753119815983337</v>
       </c>
       <c r="ET4">
-        <v>0.773060070698657</v>
+        <v>0.7753119815983337</v>
       </c>
       <c r="EU4">
-        <v>0.7816434021444334</v>
+        <v>0.7839793013300036</v>
       </c>
       <c r="EV4">
-        <v>0.8031208257576413</v>
+        <v>0.8060731347275565</v>
       </c>
       <c r="EW4">
-        <v>0.8114234302215442</v>
+        <v>0.8144481357283251</v>
       </c>
       <c r="EX4">
-        <v>0.8141651421445125</v>
+        <v>0.8170326243978765</v>
       </c>
       <c r="EY4">
-        <v>0.8208202547147935</v>
+        <v>0.8236921054429234</v>
       </c>
       <c r="EZ4">
-        <v>0.8414360333836376</v>
+        <v>0.8448887149436392</v>
       </c>
       <c r="FA4">
-        <v>0.8455546638176986</v>
+        <v>0.8489069776987124</v>
       </c>
       <c r="FB4">
-        <v>0.8502518620144016</v>
+        <v>0.8535276983756681</v>
       </c>
       <c r="FC4">
-        <v>0.8591650904388766</v>
+        <v>0.8625385371574048</v>
       </c>
       <c r="FD4">
-        <v>0.8594480223506077</v>
+        <v>0.8625627181299428</v>
       </c>
       <c r="FE4">
-        <v>0.8638201140683027</v>
+        <v>0.8668449080653321</v>
       </c>
       <c r="FF4">
-        <v>0.8812391979435567</v>
+        <v>0.8847128251870523</v>
       </c>
       <c r="FG4">
-        <v>0.8877178675252305</v>
+        <v>0.8911885775781527</v>
       </c>
       <c r="FH4">
-        <v>0.8880389921044956</v>
+        <v>0.8912525282658379</v>
       </c>
       <c r="FI4">
-        <v>0.889926213882638</v>
+        <v>0.8929472432733208</v>
       </c>
       <c r="FJ4">
-        <v>0.9086431926740872</v>
+        <v>0.9121666478516912</v>
       </c>
       <c r="FK4">
-        <v>0.9192036049922039</v>
+        <v>0.9228926858712668</v>
       </c>
       <c r="FL4">
-        <v>0.9193304951240107</v>
+        <v>0.9228926858712668</v>
       </c>
       <c r="FM4">
-        <v>0.9273532116059858</v>
+        <v>0.9309762417849776</v>
       </c>
       <c r="FN4">
-        <v>0.9410504372215592</v>
+        <v>0.9449686180669713</v>
       </c>
       <c r="FO4">
-        <v>0.9444631605012005</v>
+        <v>0.948251825423604</v>
       </c>
       <c r="FP4">
-        <v>0.9445111483741019</v>
+        <v>0.948251825423604</v>
       </c>
       <c r="FQ4">
-        <v>0.9447749751570667</v>
+        <v>0.9482561123804067</v>
       </c>
       <c r="FR4">
-        <v>0.9448720847607963</v>
+        <v>0.9482561123804067</v>
       </c>
       <c r="FS4">
-        <v>0.945907047193969</v>
+        <v>0.9490633766396301</v>
       </c>
       <c r="FT4">
-        <v>0.9535871206980685</v>
+        <v>0.9567901411976388</v>
       </c>
       <c r="FU4">
-        <v>0.9581807978014559</v>
+        <v>0.961303066199175</v>
       </c>
       <c r="FV4">
-        <v>0.9592144476347134</v>
+        <v>0.9621089636587454</v>
       </c>
       <c r="FW4">
-        <v>0.9602364528687228</v>
+        <v>0.9629027356914995</v>
       </c>
       <c r="FX4">
-        <v>0.9604372496657574</v>
+        <v>0.9629027356914995</v>
       </c>
       <c r="FY4">
-        <v>0.9605496566844993</v>
+        <v>0.9629027356914995</v>
       </c>
       <c r="FZ4">
-        <v>0.9660692773280988</v>
+        <v>0.9683798381965824</v>
       </c>
       <c r="GA4">
-        <v>0.9709722205115169</v>
+        <v>0.9732147994606184</v>
       </c>
       <c r="GB4">
-        <v>0.9717643259603709</v>
+        <v>0.9737691787104538</v>
       </c>
       <c r="GC4">
-        <v>0.9718305114660973</v>
+        <v>0.9737691787104538</v>
       </c>
       <c r="GD4">
-        <v>0.9719404405389992</v>
+        <v>0.9737691787104538</v>
       </c>
       <c r="GE4">
-        <v>0.9719537532871396</v>
+        <v>0.9737691787104538</v>
       </c>
       <c r="GF4">
-        <v>0.9720867316085532</v>
+        <v>0.9737691787104538</v>
       </c>
       <c r="GG4">
-        <v>0.9729569890523608</v>
+        <v>0.9744049369992037</v>
       </c>
       <c r="GH4">
-        <v>0.9730397426670174</v>
+        <v>0.9744049369992037</v>
       </c>
       <c r="GI4">
-        <v>0.9734403326211515</v>
+        <v>0.9745516343376641</v>
       </c>
       <c r="GJ4">
-        <v>0.9734418016118567</v>
+        <v>0.9745516343376641</v>
       </c>
       <c r="GK4">
-        <v>0.9743541552529462</v>
+        <v>0.9752312270554493</v>
       </c>
       <c r="GL4">
-        <v>0.981647882481992</v>
+        <v>0.9825556923686245</v>
       </c>
       <c r="GM4">
-        <v>0.9879453910753634</v>
+        <v>0.9888428032909358</v>
       </c>
       <c r="GN4">
-        <v>0.9884474528429453</v>
+        <v>0.9890951624062991</v>
       </c>
       <c r="GO4">
-        <v>0.9889562392100931</v>
+        <v>0.9893545237926867</v>
       </c>
       <c r="GP4">
-        <v>0.9889975352104267</v>
+        <v>0.9893545237926867</v>
       </c>
       <c r="GQ4">
-        <v>0.9918284415276357</v>
+        <v>0.9920318898620305</v>
       </c>
       <c r="GR4">
-        <v>0.9974245171662984</v>
+        <v>0.9975886043337964</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.077833324074077E-05</v>
+        <v>6.386623711203177E-06</v>
       </c>
       <c r="C5">
-        <v>2.154064028626056E-05</v>
+        <v>6.386623711203177E-06</v>
       </c>
       <c r="D5">
-        <v>3.502698809157354E-05</v>
+        <v>6.386623711203177E-06</v>
       </c>
       <c r="E5">
-        <v>3.57355594838846E-05</v>
+        <v>6.386623711203177E-06</v>
       </c>
       <c r="F5">
-        <v>6.101989599369325E-05</v>
+        <v>1.729104159874711E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001378921465839813</v>
+        <v>7.991836421702135E-05</v>
       </c>
       <c r="H5">
-        <v>0.0002568966536901212</v>
+        <v>0.0001847881912804345</v>
       </c>
       <c r="I5">
-        <v>0.0005151021891084</v>
+        <v>0.0004292232954856277</v>
       </c>
       <c r="J5">
-        <v>0.0006678910982319147</v>
+        <v>0.0005679659285749504</v>
       </c>
       <c r="K5">
-        <v>0.0007178072772125694</v>
+        <v>0.000603566643340759</v>
       </c>
       <c r="L5">
-        <v>0.0007518267542439812</v>
+        <v>0.0006232290590861652</v>
       </c>
       <c r="M5">
-        <v>0.0008147446120010079</v>
+        <v>0.0006718654742611963</v>
       </c>
       <c r="N5">
-        <v>0.0008345816161855388</v>
+        <v>0.0006773083057303125</v>
       </c>
       <c r="O5">
-        <v>0.0008489899940459091</v>
+        <v>0.0006773083057303125</v>
       </c>
       <c r="P5">
-        <v>0.0008586401086221483</v>
+        <v>0.0006773083057303125</v>
       </c>
       <c r="Q5">
-        <v>0.0008843463611571509</v>
+        <v>0.0006886357436752565</v>
       </c>
       <c r="R5">
-        <v>0.0008944560827608347</v>
+        <v>0.0006886357436752565</v>
       </c>
       <c r="S5">
-        <v>0.0009691786572227588</v>
+        <v>0.0007491077650844948</v>
       </c>
       <c r="T5">
-        <v>0.0009761945926417027</v>
+        <v>0.0007491077650844948</v>
       </c>
       <c r="U5">
-        <v>0.0009762142117328743</v>
+        <v>0.0007491077650844948</v>
       </c>
       <c r="V5">
-        <v>0.00106529092705193</v>
+        <v>0.0008239714879858049</v>
       </c>
       <c r="W5">
-        <v>0.001147033031933013</v>
+        <v>0.0008914814078950329</v>
       </c>
       <c r="X5">
-        <v>0.001157288070545374</v>
+        <v>0.0008914814078950329</v>
       </c>
       <c r="Y5">
-        <v>0.001158327109707418</v>
+        <v>0.0008914814078950329</v>
       </c>
       <c r="Z5">
-        <v>0.001221606728486047</v>
+        <v>0.0009404805307156264</v>
       </c>
       <c r="AA5">
-        <v>0.001232541651139006</v>
+        <v>0.0009404805307156264</v>
       </c>
       <c r="AB5">
-        <v>0.001253528092392173</v>
+        <v>0.0009470758069977333</v>
       </c>
       <c r="AC5">
-        <v>0.001297740179032219</v>
+        <v>0.0009769575034630855</v>
       </c>
       <c r="AD5">
-        <v>0.001297928890883487</v>
+        <v>0.0009769575034630855</v>
       </c>
       <c r="AE5">
-        <v>0.001300806600055324</v>
+        <v>0.0009769575034630855</v>
       </c>
       <c r="AF5">
-        <v>0.001466021069920809</v>
+        <v>0.001128158211392965</v>
       </c>
       <c r="AG5">
-        <v>0.001629361289674376</v>
+        <v>0.001277479764840478</v>
       </c>
       <c r="AH5">
-        <v>0.0016301571535719</v>
+        <v>0.001277479764840478</v>
       </c>
       <c r="AI5">
-        <v>0.001630797132110115</v>
+        <v>0.001277479764840478</v>
       </c>
       <c r="AJ5">
-        <v>0.001632410067606429</v>
+        <v>0.001277479764840478</v>
       </c>
       <c r="AK5">
-        <v>0.001697163845473084</v>
+        <v>0.001327956904197057</v>
       </c>
       <c r="AL5">
-        <v>0.001736887232845094</v>
+        <v>0.001353338155766667</v>
       </c>
       <c r="AM5">
-        <v>0.001737049701994796</v>
+        <v>0.001353338155766667</v>
       </c>
       <c r="AN5">
-        <v>0.001791183975227327</v>
+        <v>0.001393168002316999</v>
       </c>
       <c r="AO5">
-        <v>0.001931829783625738</v>
+        <v>0.0015197357596988</v>
       </c>
       <c r="AP5">
-        <v>0.001943596467328364</v>
+        <v>0.0015197357596988</v>
       </c>
       <c r="AQ5">
-        <v>0.001979343147462913</v>
+        <v>0.001541129898138301</v>
       </c>
       <c r="AR5">
-        <v>0.002448363455469617</v>
+        <v>0.001996931416217313</v>
       </c>
       <c r="AS5">
-        <v>0.002642339797052565</v>
+        <v>0.002176969257364074</v>
       </c>
       <c r="AT5">
-        <v>0.002674201431955125</v>
+        <v>0.002194468184531896</v>
       </c>
       <c r="AU5">
-        <v>0.002849450462419805</v>
+        <v>0.002355729710603738</v>
       </c>
       <c r="AV5">
-        <v>0.003221797484653837</v>
+        <v>0.002714604976882262</v>
       </c>
       <c r="AW5">
-        <v>0.003264743627218289</v>
+        <v>0.002743217416662527</v>
       </c>
       <c r="AX5">
-        <v>0.003265080770618421</v>
+        <v>0.002743217416662527</v>
       </c>
       <c r="AY5">
-        <v>0.003265591346818909</v>
+        <v>0.002743217416662527</v>
       </c>
       <c r="AZ5">
-        <v>0.003309249569425881</v>
+        <v>0.002772543799792827</v>
       </c>
       <c r="BA5">
-        <v>0.003363565372669251</v>
+        <v>0.002812555651365533</v>
       </c>
       <c r="BB5">
-        <v>0.003467616288882464</v>
+        <v>0.002902432758313716</v>
       </c>
       <c r="BC5">
-        <v>0.003593597826405225</v>
+        <v>0.003014297872664367</v>
       </c>
       <c r="BD5">
-        <v>0.003757739986206679</v>
+        <v>0.003164423464604924</v>
       </c>
       <c r="BE5">
-        <v>0.004011660041369058</v>
+        <v>0.003404561874691887</v>
       </c>
       <c r="BF5">
-        <v>0.004347914101447864</v>
+        <v>0.00372724973397248</v>
       </c>
       <c r="BG5">
-        <v>0.004656785649891572</v>
+        <v>0.004022483429504936</v>
       </c>
       <c r="BH5">
-        <v>0.004784413837512659</v>
+        <v>0.004135999502760957</v>
       </c>
       <c r="BI5">
-        <v>0.004804360783703755</v>
+        <v>0.00414155256392307</v>
       </c>
       <c r="BJ5">
-        <v>0.004822131384764895</v>
+        <v>0.004144923585089492</v>
       </c>
       <c r="BK5">
-        <v>0.004845781248177103</v>
+        <v>0.004154189252936082</v>
       </c>
       <c r="BL5">
-        <v>0.004847315573468723</v>
+        <v>0.004154189252936082</v>
       </c>
       <c r="BM5">
-        <v>0.004847652716868854</v>
+        <v>0.004154189252936082</v>
       </c>
       <c r="BN5">
-        <v>0.004881816128908861</v>
+        <v>0.004173995980326369</v>
       </c>
       <c r="BO5">
-        <v>0.005108858612466294</v>
+        <v>0.004387186487977362</v>
       </c>
       <c r="BP5">
-        <v>0.005138539704238647</v>
+        <v>0.004402499166164288</v>
       </c>
       <c r="BQ5">
-        <v>0.005188899640245799</v>
+        <v>0.004438544799140384</v>
       </c>
       <c r="BR5">
-        <v>0.005211328310585087</v>
+        <v>0.00444658607840499</v>
       </c>
       <c r="BS5">
-        <v>0.005220860679154296</v>
+        <v>0.00444658607840499</v>
       </c>
       <c r="BT5">
-        <v>0.005251092864959557</v>
+        <v>0.004462451292678513</v>
       </c>
       <c r="BU5">
-        <v>0.005474317658289023</v>
+        <v>0.004671814120310413</v>
       </c>
       <c r="BV5">
-        <v>0.005530625131651323</v>
+        <v>0.004713822853626694</v>
       </c>
       <c r="BW5">
-        <v>0.005531497286403402</v>
+        <v>0.004713822853626694</v>
       </c>
       <c r="BX5">
-        <v>0.005705641866802132</v>
+        <v>0.004873977039606207</v>
       </c>
       <c r="BY5">
-        <v>0.006239655698689807</v>
+        <v>0.005394942150819953</v>
       </c>
       <c r="BZ5">
-        <v>0.006612002720923838</v>
+        <v>0.005753817417098477</v>
       </c>
       <c r="CA5">
-        <v>0.006749201489116416</v>
+        <v>0.00587692911436722</v>
       </c>
       <c r="CB5">
-        <v>0.006855140335442363</v>
+        <v>0.005968699091595192</v>
       </c>
       <c r="CC5">
-        <v>0.007049116677025311</v>
+        <v>0.006148736932741953</v>
       </c>
       <c r="CD5">
-        <v>0.007077095271696003</v>
+        <v>0.006162342658884721</v>
       </c>
       <c r="CE5">
-        <v>0.007093064669649586</v>
+        <v>0.006163907763716021</v>
       </c>
       <c r="CF5">
-        <v>0.007139929537448037</v>
+        <v>0.0061964491829008</v>
       </c>
       <c r="CG5">
-        <v>0.007363154330777504</v>
+        <v>0.0064058120105327</v>
       </c>
       <c r="CH5">
-        <v>0.007432005394888821</v>
+        <v>0.006460397157546975</v>
       </c>
       <c r="CI5">
-        <v>0.007447725332827508</v>
+        <v>0.006461712149598672</v>
       </c>
       <c r="CJ5">
-        <v>0.007475064523460018</v>
+        <v>0.006474676798567826</v>
       </c>
       <c r="CK5">
-        <v>0.007491879637464102</v>
+        <v>0.006477089832443922</v>
       </c>
       <c r="CL5">
-        <v>0.007500530427980668</v>
+        <v>0.006477089832443922</v>
       </c>
       <c r="CM5">
-        <v>0.008255496933062134</v>
+        <v>0.007219585786090528</v>
       </c>
       <c r="CN5">
-        <v>0.06121037009516707</v>
+        <v>0.06029858045457619</v>
       </c>
       <c r="CO5">
-        <v>0.06140063440652836</v>
+        <v>0.06047489655219185</v>
       </c>
       <c r="CP5">
-        <v>0.1399858240991015</v>
+        <v>0.1392512748763872</v>
       </c>
       <c r="CQ5">
-        <v>0.1536726629163865</v>
+        <v>0.1529594821117615</v>
       </c>
       <c r="CR5">
-        <v>0.1536764539688128</v>
+        <v>0.1529594821117615</v>
       </c>
       <c r="CS5">
-        <v>0.1616175644430019</v>
+        <v>0.160906926094817</v>
       </c>
       <c r="CT5">
-        <v>0.177504840391682</v>
+        <v>0.1768213283691215</v>
       </c>
       <c r="CU5">
-        <v>0.1790607328845893</v>
+        <v>0.1783668461022503</v>
       </c>
       <c r="CV5">
-        <v>0.2352763992414067</v>
+        <v>0.2347151665181118</v>
       </c>
       <c r="CW5">
-        <v>0.2353725102671458</v>
+        <v>0.234797082958189</v>
       </c>
       <c r="CX5">
-        <v>0.3320646010409399</v>
+        <v>0.3317277428866319</v>
       </c>
       <c r="CY5">
-        <v>0.351055059174921</v>
+        <v>0.3507534474764754</v>
       </c>
       <c r="CZ5">
-        <v>0.3538004703388583</v>
+        <v>0.3534915965069488</v>
       </c>
       <c r="DA5">
-        <v>0.3861304622693855</v>
+        <v>0.3858917405950583</v>
       </c>
       <c r="DB5">
-        <v>0.3928253446691584</v>
+        <v>0.3925896954852764</v>
       </c>
       <c r="DC5">
-        <v>0.5069054114812442</v>
+        <v>0.5069538307561366</v>
       </c>
       <c r="DD5">
-        <v>0.5181641091535371</v>
+        <v>0.5182275431034395</v>
       </c>
       <c r="DE5">
-        <v>0.5574925785019658</v>
+        <v>0.5576444776006665</v>
       </c>
       <c r="DF5">
-        <v>0.5579230646076715</v>
+        <v>0.5580616440835824</v>
       </c>
       <c r="DG5">
-        <v>0.5799856559250994</v>
+        <v>0.5801675207408533</v>
       </c>
       <c r="DH5">
-        <v>0.580166479535897</v>
+        <v>0.5803343714343224</v>
       </c>
       <c r="DI5">
-        <v>0.5909250781783273</v>
+        <v>0.5911066761372465</v>
       </c>
       <c r="DJ5">
-        <v>0.5946403521001782</v>
+        <v>0.5948172257759553</v>
       </c>
       <c r="DK5">
-        <v>0.5997858814074342</v>
+        <v>0.5999617733647367</v>
       </c>
       <c r="DL5">
-        <v>0.6016744429202062</v>
+        <v>0.6018408306163365</v>
       </c>
       <c r="DM5">
-        <v>0.6016777684439047</v>
+        <v>0.6018408306163365</v>
       </c>
       <c r="DN5">
-        <v>0.6096558199202997</v>
+        <v>0.6098253122655162</v>
       </c>
       <c r="DO5">
-        <v>0.622290367674749</v>
+        <v>0.6224784748967001</v>
       </c>
       <c r="DP5">
-        <v>0.6240961721825794</v>
+        <v>0.6242745585922124</v>
       </c>
       <c r="DQ5">
-        <v>0.6243524277278812</v>
+        <v>0.624517038603741</v>
       </c>
       <c r="DR5">
-        <v>0.6271175767929972</v>
+        <v>0.6272749771837717</v>
       </c>
       <c r="DS5">
-        <v>0.6307113927075955</v>
+        <v>0.6308637509947524</v>
       </c>
       <c r="DT5">
-        <v>0.6309975675746838</v>
+        <v>0.6311362286182791</v>
       </c>
       <c r="DU5">
-        <v>0.6317508131196625</v>
+        <v>0.6318769991085681</v>
       </c>
       <c r="DV5">
-        <v>0.631974037912992</v>
+        <v>0.6320863619362</v>
       </c>
       <c r="DW5">
-        <v>0.6390569570359358</v>
+        <v>0.6391733689294608</v>
       </c>
       <c r="DX5">
-        <v>0.6498459126801789</v>
+        <v>0.649976110069691</v>
       </c>
       <c r="DY5">
-        <v>0.6523769623313159</v>
+        <v>0.6524993366652856</v>
       </c>
       <c r="DZ5">
-        <v>0.6720299805048605</v>
+        <v>0.6721893350226823</v>
       </c>
       <c r="EA5">
-        <v>0.6795378349531785</v>
+        <v>0.6797023892741587</v>
       </c>
       <c r="EB5">
-        <v>0.6886311834961715</v>
+        <v>0.6888050863997796</v>
       </c>
       <c r="EC5">
-        <v>0.6985304980872912</v>
+        <v>0.6987158585535636</v>
       </c>
       <c r="ED5">
-        <v>0.7045251124452487</v>
+        <v>0.7047117130030411</v>
       </c>
       <c r="EE5">
-        <v>0.7096646487521469</v>
+        <v>0.709850251909516</v>
       </c>
       <c r="EF5">
-        <v>0.7097347185423309</v>
+        <v>0.7099060589716567</v>
       </c>
       <c r="EG5">
-        <v>0.710094674303825</v>
+        <v>0.7102525105528499</v>
       </c>
       <c r="EH5">
-        <v>0.7101009893492021</v>
+        <v>0.7102525105528499</v>
       </c>
       <c r="EI5">
-        <v>0.7120370533648106</v>
+        <v>0.7121791946075969</v>
       </c>
       <c r="EJ5">
-        <v>0.713449729549166</v>
+        <v>0.7135811212765172</v>
       </c>
       <c r="EK5">
-        <v>0.7226165740965476</v>
+        <v>0.7227575067243127</v>
       </c>
       <c r="EL5">
-        <v>0.7338549347676261</v>
+        <v>0.7340108288543512</v>
       </c>
       <c r="EM5">
-        <v>0.7392765274913667</v>
+        <v>0.7394321622377316</v>
       </c>
       <c r="EN5">
-        <v>0.7432085623261612</v>
+        <v>0.7433600399899988</v>
       </c>
       <c r="EO5">
-        <v>0.7503161162505759</v>
+        <v>0.7504717462468808</v>
       </c>
       <c r="EP5">
-        <v>0.7532473636256101</v>
+        <v>0.7533962177680658</v>
       </c>
       <c r="EQ5">
-        <v>0.7536900713320456</v>
+        <v>0.7538256378321057</v>
       </c>
       <c r="ER5">
-        <v>0.754831401900198</v>
+        <v>0.7549555088518274</v>
       </c>
       <c r="ES5">
-        <v>0.762925557383526</v>
+        <v>0.7630563983185451</v>
       </c>
       <c r="ET5">
-        <v>0.7635892268531558</v>
+        <v>0.7637073583388043</v>
       </c>
       <c r="EU5">
-        <v>0.7716349273335903</v>
+        <v>0.7717596660099008</v>
       </c>
       <c r="EV5">
-        <v>0.7901538694394156</v>
+        <v>0.7903126207505206</v>
       </c>
       <c r="EW5">
-        <v>0.7951079077352371</v>
+        <v>0.7952651762512758</v>
       </c>
       <c r="EX5">
-        <v>0.7971871600593959</v>
+        <v>0.7973354232969618</v>
       </c>
       <c r="EY5">
-        <v>0.8052985775437547</v>
+        <v>0.8054536199343743</v>
       </c>
       <c r="EZ5">
-        <v>0.8260651497837932</v>
+        <v>0.8262600862071809</v>
       </c>
       <c r="FA5">
-        <v>0.8284308369250559</v>
+        <v>0.8286175175870411</v>
       </c>
       <c r="FB5">
-        <v>0.8326644894778609</v>
+        <v>0.8328478023036492</v>
       </c>
       <c r="FC5">
-        <v>0.8373485607575617</v>
+        <v>0.8375296843626858</v>
       </c>
       <c r="FD5">
-        <v>0.8373774505272868</v>
+        <v>0.8375442036481646</v>
       </c>
       <c r="FE5">
-        <v>0.8403838197068068</v>
+        <v>0.8405439935458701</v>
       </c>
       <c r="FF5">
-        <v>0.853404009984284</v>
+        <v>0.8535838078150243</v>
       </c>
       <c r="FG5">
-        <v>0.8549972036794187</v>
+        <v>0.855166724356838</v>
       </c>
       <c r="FH5">
-        <v>0.8573669568209242</v>
+        <v>0.8575282323764876</v>
       </c>
       <c r="FI5">
-        <v>0.8589543190157107</v>
+        <v>0.8591053021586033</v>
       </c>
       <c r="FJ5">
-        <v>0.8708167647240553</v>
+        <v>0.8709843423759447</v>
       </c>
       <c r="FK5">
-        <v>0.8755711540079552</v>
+        <v>0.875736726441059</v>
       </c>
       <c r="FL5">
-        <v>0.8769050155876043</v>
+        <v>0.8770596322702482</v>
       </c>
       <c r="FM5">
-        <v>0.8879629082479064</v>
+        <v>0.8881320141569233</v>
       </c>
       <c r="FN5">
-        <v>0.90543113429099</v>
+        <v>0.9056315034147664</v>
       </c>
       <c r="FO5">
-        <v>0.9105916595991415</v>
+        <v>0.9107910862446402</v>
       </c>
       <c r="FP5">
-        <v>0.9112356618075969</v>
+        <v>0.911422327540191</v>
       </c>
       <c r="FQ5">
-        <v>0.9117976357411541</v>
+        <v>0.9119713259165735</v>
       </c>
       <c r="FR5">
-        <v>0.9119092784638206</v>
+        <v>0.9120688146955367</v>
       </c>
       <c r="FS5">
-        <v>0.9126408948075078</v>
+        <v>0.9127878993871702</v>
       </c>
       <c r="FT5">
-        <v>0.9186015921634401</v>
+        <v>0.9187497480836382</v>
       </c>
       <c r="FU5">
-        <v>0.9203625646685933</v>
+        <v>0.9205008824640892</v>
       </c>
       <c r="FV5">
-        <v>0.924114626792641</v>
+        <v>0.9242483165690796</v>
       </c>
       <c r="FW5">
-        <v>0.9282819380414845</v>
+        <v>0.9284120863857219</v>
       </c>
       <c r="FX5">
-        <v>0.9287185135675539</v>
+        <v>0.9288353582232534</v>
       </c>
       <c r="FY5">
-        <v>0.9305860902790728</v>
+        <v>0.9306933757624448</v>
       </c>
       <c r="FZ5">
-        <v>0.9443361051001302</v>
+        <v>0.9444649243149209</v>
       </c>
       <c r="GA5">
-        <v>0.9552381877511285</v>
+        <v>0.9553810884825631</v>
       </c>
       <c r="GB5">
-        <v>0.9597986986234511</v>
+        <v>0.9599390868123732</v>
       </c>
       <c r="GC5">
-        <v>0.9619488638518444</v>
+        <v>0.9620804323208537</v>
       </c>
       <c r="GD5">
-        <v>0.9621908830862962</v>
+        <v>0.9623086387692243</v>
       </c>
       <c r="GE5">
-        <v>0.9624172399298127</v>
+        <v>0.9625211418427128</v>
       </c>
       <c r="GF5">
-        <v>0.9624423334483111</v>
+        <v>0.9625318549432733</v>
       </c>
       <c r="GG5">
-        <v>0.9629441094782737</v>
+        <v>0.9630204978955587</v>
       </c>
       <c r="GH5">
-        <v>0.9629982437515062</v>
+        <v>0.963060327742109</v>
       </c>
       <c r="GI5">
-        <v>0.9630250200721051</v>
+        <v>0.9630727280481765</v>
       </c>
       <c r="GJ5">
-        <v>0.9632897040279103</v>
+        <v>0.9633236585249209</v>
       </c>
       <c r="GK5">
-        <v>0.9680371528113956</v>
+        <v>0.9680690839283386</v>
       </c>
       <c r="GL5">
-        <v>0.9815121926160333</v>
+        <v>0.9815649379343087</v>
       </c>
       <c r="GM5">
-        <v>0.9899927151224325</v>
+        <v>0.9900532054348471</v>
       </c>
       <c r="GN5">
-        <v>0.9925755242766603</v>
+        <v>0.9926283269731815</v>
       </c>
       <c r="GO5">
-        <v>0.9960589689846679</v>
+        <v>0.9961064407680469</v>
       </c>
       <c r="GP5">
-        <v>0.9963440846516931</v>
+        <v>0.9963778564198901</v>
       </c>
       <c r="GQ5">
-        <v>0.9978202723398411</v>
+        <v>0.9978434607838387</v>
       </c>
       <c r="GR5">
-        <v>0.9999405137664474</v>
+        <v>0.9999548041885981</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.566191498365342E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.329397195481341E-05</v>
+        <v>7.254964278001353E-06</v>
       </c>
       <c r="D6">
-        <v>4.379805478428729E-05</v>
+        <v>7.254964278001353E-06</v>
       </c>
       <c r="E6">
-        <v>6.668286776040205E-05</v>
+        <v>9.746675694447562E-06</v>
       </c>
       <c r="F6">
-        <v>8.708434373910871E-05</v>
+        <v>9.746675694447562E-06</v>
       </c>
       <c r="G6">
-        <v>0.0001167735637081216</v>
+        <v>1.90657402264985E-05</v>
       </c>
       <c r="H6">
-        <v>0.0001284144336959719</v>
+        <v>1.90657402264985E-05</v>
       </c>
       <c r="I6">
-        <v>0.00021297949860771</v>
+        <v>8.344570445667038E-05</v>
       </c>
       <c r="J6">
-        <v>0.0005680164282371524</v>
+        <v>0.0004192096306090451</v>
       </c>
       <c r="K6">
-        <v>0.0007159992480827005</v>
+        <v>0.0005472212099357136</v>
       </c>
       <c r="L6">
-        <v>0.0007221491007762818</v>
+        <v>0.0005472212099357136</v>
       </c>
       <c r="M6">
-        <v>0.0007753446777207608</v>
+        <v>0.0005801259006215892</v>
       </c>
       <c r="N6">
-        <v>0.0008806619816108395</v>
+        <v>0.0006653280854497387</v>
       </c>
       <c r="O6">
-        <v>0.0009332984275559021</v>
+        <v>0.0006976717596098713</v>
       </c>
       <c r="P6">
-        <v>0.0009346254369545171</v>
+        <v>0.0006976717596098713</v>
       </c>
       <c r="Q6">
-        <v>0.0009848898949020553</v>
+        <v>0.0007276354468494717</v>
       </c>
       <c r="R6">
-        <v>0.001040464677844051</v>
+        <v>0.0007629273667967312</v>
       </c>
       <c r="S6">
-        <v>0.001083515327799119</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="T6">
-        <v>0.001093868874788312</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="U6">
-        <v>0.001099726356782199</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="V6">
-        <v>0.001103910463477832</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="W6">
-        <v>0.00110941125527209</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="X6">
-        <v>0.00110967939972181</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="Y6">
-        <v>0.001109741301581746</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="Z6">
-        <v>0.001111376839180039</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="AA6">
-        <v>0.001113772856177538</v>
+        <v>0.0007856529193209663</v>
       </c>
       <c r="AB6">
-        <v>0.001135121600155256</v>
+        <v>0.0007866033817390893</v>
       </c>
       <c r="AC6">
-        <v>0.001171401118117391</v>
+        <v>0.0008025349683591141</v>
       </c>
       <c r="AD6">
-        <v>0.001179703645108725</v>
+        <v>0.0008025349683591141</v>
       </c>
       <c r="AE6">
-        <v>0.001179781845158644</v>
+        <v>0.0008025349683591141</v>
       </c>
       <c r="AF6">
-        <v>0.001187701308150378</v>
+        <v>0.0008025349683591141</v>
       </c>
       <c r="AG6">
-        <v>0.001245884562089651</v>
+        <v>0.0008404441557051071</v>
       </c>
       <c r="AH6">
-        <v>0.001246003505329527</v>
+        <v>0.0008404441557051071</v>
       </c>
       <c r="AI6">
-        <v>0.0012749643152993</v>
+        <v>0.0008490323538614493</v>
       </c>
       <c r="AJ6">
-        <v>0.001274975699667288</v>
+        <v>0.0008490323538614493</v>
       </c>
       <c r="AK6">
-        <v>0.001278037067964093</v>
+        <v>0.0008490323538614493</v>
       </c>
       <c r="AL6">
-        <v>0.001317534307922869</v>
+        <v>0.0008681925134227824</v>
       </c>
       <c r="AM6">
-        <v>0.001345166364894029</v>
+        <v>0.0008754474777007838</v>
       </c>
       <c r="AN6">
-        <v>0.001345307532953882</v>
+        <v>0.0008754474777007838</v>
       </c>
       <c r="AO6">
-        <v>0.001363107065935304</v>
+        <v>0.0008754474777007838</v>
       </c>
       <c r="AP6">
-        <v>0.001366657235931599</v>
+        <v>0.0008754474777007838</v>
       </c>
       <c r="AQ6">
-        <v>0.001367615703830598</v>
+        <v>0.0008754474777007838</v>
       </c>
       <c r="AR6">
-        <v>0.001393851683803215</v>
+        <v>0.0008813016570675395</v>
       </c>
       <c r="AS6">
-        <v>0.001506796043685334</v>
+        <v>0.0009741566181838346</v>
       </c>
       <c r="AT6">
-        <v>0.001511423695080504</v>
+        <v>0.0009741566181838346</v>
       </c>
       <c r="AU6">
-        <v>0.001545313308045133</v>
+        <v>0.000987690240462845</v>
       </c>
       <c r="AV6">
-        <v>0.001545738854904689</v>
+        <v>0.000987690240462845</v>
       </c>
       <c r="AW6">
-        <v>0.00157884992487013</v>
+        <v>0.001000442694305475</v>
       </c>
       <c r="AX6">
-        <v>0.001599933137848125</v>
+        <v>0.001001126730288475</v>
       </c>
       <c r="AY6">
-        <v>0.001600102995537948</v>
+        <v>0.001001126730288475</v>
       </c>
       <c r="AZ6">
-        <v>0.001621808368515294</v>
+        <v>0.001002435024346337</v>
       </c>
       <c r="BA6">
-        <v>0.001740499298391414</v>
+        <v>0.00110105593429455</v>
       </c>
       <c r="BB6">
-        <v>0.001751736581379685</v>
+        <v>0.00110105593429455</v>
       </c>
       <c r="BC6">
-        <v>0.001755425301575835</v>
+        <v>0.00110105593429455</v>
       </c>
       <c r="BD6">
-        <v>0.001863479616463057</v>
+        <v>0.001189004359989581</v>
       </c>
       <c r="BE6">
-        <v>0.001875370294450647</v>
+        <v>0.001189004359989581</v>
       </c>
       <c r="BF6">
-        <v>0.00193198273039156</v>
+        <v>0.00122533743215517</v>
       </c>
       <c r="BG6">
-        <v>0.001932129659831406</v>
+        <v>0.00122533743215517</v>
       </c>
       <c r="BH6">
-        <v>0.00197004767979183</v>
+        <v>0.001242913046202511</v>
       </c>
       <c r="BI6">
-        <v>0.002005089066755257</v>
+        <v>0.001257602326543623</v>
       </c>
       <c r="BJ6">
-        <v>0.002142739586611589</v>
+        <v>0.001375246762841316</v>
       </c>
       <c r="BK6">
-        <v>0.002146146406408033</v>
+        <v>0.001375246762841316</v>
       </c>
       <c r="BL6">
-        <v>0.002157191271396506</v>
+        <v>0.001375246762841316</v>
       </c>
       <c r="BM6">
-        <v>0.002168185743385031</v>
+        <v>0.001375246762841316</v>
       </c>
       <c r="BN6">
-        <v>0.002188587219363737</v>
+        <v>0.001375246762841316</v>
       </c>
       <c r="BO6">
-        <v>0.002237930875312237</v>
+        <v>0.001404286542912584</v>
       </c>
       <c r="BP6">
-        <v>0.002331934485214124</v>
+        <v>0.001478136881212461</v>
       </c>
       <c r="BQ6">
-        <v>0.002361310422183463</v>
+        <v>0.001487141606278029</v>
       </c>
       <c r="BR6">
-        <v>0.002366198340478362</v>
+        <v>0.001487141606278029</v>
       </c>
       <c r="BS6">
-        <v>0.002367928344276556</v>
+        <v>0.001487141606278029</v>
       </c>
       <c r="BT6">
-        <v>0.002370438420273936</v>
+        <v>0.001487141606278029</v>
       </c>
       <c r="BU6">
-        <v>0.002370987249173364</v>
+        <v>0.001487141606278029</v>
       </c>
       <c r="BV6">
-        <v>0.002432170519109506</v>
+        <v>0.00152806092640774</v>
       </c>
       <c r="BW6">
-        <v>0.002540866973996058</v>
+        <v>0.001616653657555055</v>
       </c>
       <c r="BX6">
-        <v>0.002622976193910359</v>
+        <v>0.001678569495078492</v>
       </c>
       <c r="BY6">
-        <v>0.002656443153875429</v>
+        <v>0.001691679039068774</v>
       </c>
       <c r="BZ6">
-        <v>0.002670781391860464</v>
+        <v>0.001691679039068774</v>
       </c>
       <c r="CA6">
-        <v>0.002678497229852411</v>
+        <v>0.001691679039068774</v>
       </c>
       <c r="CB6">
-        <v>0.002794275344731571</v>
+        <v>0.001787377311296252</v>
       </c>
       <c r="CC6">
-        <v>0.003099688064412807</v>
+        <v>0.002073349682541208</v>
       </c>
       <c r="CD6">
-        <v>0.003173617274335646</v>
+        <v>0.002127057925081104</v>
       </c>
       <c r="CE6">
-        <v>0.003179615109029386</v>
+        <v>0.002127057925081104</v>
       </c>
       <c r="CF6">
-        <v>0.003287669423916608</v>
+        <v>0.002215006350776135</v>
       </c>
       <c r="CG6">
-        <v>0.003597801763592918</v>
+        <v>0.002505714257727798</v>
       </c>
       <c r="CH6">
-        <v>0.003736308073448357</v>
+        <v>0.002624217369957546</v>
       </c>
       <c r="CI6">
-        <v>0.003738494429446075</v>
+        <v>0.002624217369957546</v>
       </c>
       <c r="CJ6">
-        <v>0.003852214119327384</v>
+        <v>0.002717850275675203</v>
       </c>
       <c r="CK6">
-        <v>0.004105340519063192</v>
+        <v>0.002951360004730251</v>
       </c>
       <c r="CL6">
-        <v>0.00412256032204522</v>
+        <v>0.002951360004730251</v>
       </c>
       <c r="CM6">
-        <v>0.004161311162004775</v>
+        <v>0.002969771247249219</v>
       </c>
       <c r="CN6">
-        <v>0.04785253611640357</v>
+        <v>0.04678786341128432</v>
       </c>
       <c r="CO6">
-        <v>0.04955634791462527</v>
+        <v>0.04847695060439351</v>
       </c>
       <c r="CP6">
-        <v>0.1237251938372141</v>
+        <v>0.1228754417202506</v>
       </c>
       <c r="CQ6">
-        <v>0.1466073088133317</v>
+        <v>0.1458142505034618</v>
       </c>
       <c r="CR6">
-        <v>0.147853472112031</v>
+        <v>0.1470441458945041</v>
       </c>
       <c r="CS6">
-        <v>0.1486297842512208</v>
+        <v>0.1478026056731415</v>
       </c>
       <c r="CT6">
-        <v>0.1486609574261882</v>
+        <v>0.1478134136969308</v>
       </c>
       <c r="CU6">
-        <v>0.1730621874007203</v>
+        <v>0.1722764603054532</v>
       </c>
       <c r="CV6">
-        <v>0.1922761773806664</v>
+        <v>0.1915347742788776</v>
       </c>
       <c r="CW6">
-        <v>0.2065046373658159</v>
+        <v>0.2057907458323907</v>
       </c>
       <c r="CX6">
-        <v>0.2821313072868832</v>
+        <v>0.2816519770853976</v>
       </c>
       <c r="CY6">
-        <v>0.3378790512286984</v>
+        <v>0.3375672457642998</v>
       </c>
       <c r="CZ6">
-        <v>0.3398223454266701</v>
+        <v>0.3394966229503169</v>
       </c>
       <c r="DA6">
-        <v>0.3665927853987294</v>
+        <v>0.3663368691112796</v>
       </c>
       <c r="DB6">
-        <v>0.3678628039974039</v>
+        <v>0.3675907002481964</v>
       </c>
       <c r="DC6">
-        <v>0.4669905938939427</v>
+        <v>0.46703230299459</v>
       </c>
       <c r="DD6">
-        <v>0.5078679508512783</v>
+        <v>0.5080270381112438</v>
       </c>
       <c r="DE6">
-        <v>0.5360654668218482</v>
+        <v>0.5362991727196208</v>
       </c>
       <c r="DF6">
-        <v>0.5446337668129053</v>
+        <v>0.5448758968367561</v>
       </c>
       <c r="DG6">
-        <v>0.5699615237864704</v>
+        <v>0.5702685949197041</v>
       </c>
       <c r="DH6">
-        <v>0.5707889798856067</v>
+        <v>0.5710783711282156</v>
       </c>
       <c r="DI6">
-        <v>0.5802379488757446</v>
+        <v>0.5805387340754453</v>
       </c>
       <c r="DJ6">
-        <v>0.5822408118736542</v>
+        <v>0.5825278809419464</v>
       </c>
       <c r="DK6">
-        <v>0.5957296078595757</v>
+        <v>0.5960416941685251</v>
       </c>
       <c r="DL6">
-        <v>0.5997263838554042</v>
+        <v>0.6000314779946899</v>
       </c>
       <c r="DM6">
-        <v>0.6010467390540262</v>
+        <v>0.6013358154788665</v>
       </c>
       <c r="DN6">
-        <v>0.6032138354517643</v>
+        <v>0.6034897495803428</v>
       </c>
       <c r="DO6">
-        <v>0.6142929484402009</v>
+        <v>0.6145857537696801</v>
       </c>
       <c r="DP6">
-        <v>0.6176731392366729</v>
+        <v>0.6179568731205635</v>
       </c>
       <c r="DQ6">
-        <v>0.6195035846347624</v>
+        <v>0.619773020952976</v>
       </c>
       <c r="DR6">
-        <v>0.6197938135944595</v>
+        <v>0.6200437583608888</v>
       </c>
       <c r="DS6">
-        <v>0.6228048232913169</v>
+        <v>0.6230444516432981</v>
       </c>
       <c r="DT6">
-        <v>0.622956047231159</v>
+        <v>0.6231757152724698</v>
       </c>
       <c r="DU6">
-        <v>0.6244337468296167</v>
+        <v>0.6246379277602379</v>
       </c>
       <c r="DV6">
-        <v>0.6244703744075785</v>
+        <v>0.6246542085806008</v>
       </c>
       <c r="DW6">
-        <v>0.6308408414009296</v>
+        <v>0.631025688070228</v>
       </c>
       <c r="DX6">
-        <v>0.6445227283866496</v>
+        <v>0.644733243446629</v>
       </c>
       <c r="DY6">
-        <v>0.6447549062064073</v>
+        <v>0.6449457339519764</v>
       </c>
       <c r="DZ6">
-        <v>0.6578823731927059</v>
+        <v>0.6580969996892724</v>
       </c>
       <c r="EA6">
-        <v>0.6651616371851085</v>
+        <v>0.6653803408634522</v>
       </c>
       <c r="EB6">
-        <v>0.6701499341799021</v>
+        <v>0.6703649893396207</v>
       </c>
       <c r="EC6">
-        <v>0.6772434951724985</v>
+        <v>0.6774620012781116</v>
       </c>
       <c r="ED6">
-        <v>0.6794238421702228</v>
+        <v>0.6796292306638344</v>
       </c>
       <c r="EE6">
-        <v>0.682552806166957</v>
+        <v>0.6827482760168363</v>
       </c>
       <c r="EF6">
-        <v>0.6826553807068499</v>
+        <v>0.682830726188397</v>
       </c>
       <c r="EG6">
-        <v>0.685068847004331</v>
+        <v>0.6852318610091067</v>
       </c>
       <c r="EH6">
-        <v>0.6857900675735783</v>
+        <v>0.6859350434355689</v>
       </c>
       <c r="EI6">
-        <v>0.6864515747028879</v>
+        <v>0.6865783110537859</v>
       </c>
       <c r="EJ6">
-        <v>0.6872425237020623</v>
+        <v>0.6873514570514757</v>
       </c>
       <c r="EK6">
-        <v>0.6982026216906231</v>
+        <v>0.698328044893282</v>
       </c>
       <c r="EL6">
-        <v>0.7119790736762444</v>
+        <v>0.7121304841658663</v>
       </c>
       <c r="EM6">
-        <v>0.7196861406682004</v>
+        <v>0.7198430709958271</v>
       </c>
       <c r="EN6">
-        <v>0.7230507085646887</v>
+        <v>0.7231985147624914</v>
       </c>
       <c r="EO6">
-        <v>0.7294734298579851</v>
+        <v>0.7296224247663292</v>
       </c>
       <c r="EP6">
-        <v>0.7306434609567639</v>
+        <v>0.7307759312210736</v>
       </c>
       <c r="EQ6">
-        <v>0.7306981795417068</v>
+        <v>0.730810364055713</v>
       </c>
       <c r="ER6">
-        <v>0.7306992742229057</v>
+        <v>0.730810364055713</v>
       </c>
       <c r="ES6">
-        <v>0.7350843348183289</v>
+        <v>0.7351897418720008</v>
       </c>
       <c r="ET6">
-        <v>0.7356201109177697</v>
+        <v>0.7357068544646</v>
       </c>
       <c r="EU6">
-        <v>0.7434930299095526</v>
+        <v>0.743585852587849</v>
       </c>
       <c r="EV6">
-        <v>0.7722801918795069</v>
+        <v>0.7724496216259719</v>
       </c>
       <c r="EW6">
-        <v>0.786933535864213</v>
+        <v>0.7871319099916878</v>
       </c>
       <c r="EX6">
-        <v>0.794547744256266</v>
+        <v>0.7947513250798611</v>
       </c>
       <c r="EY6">
-        <v>0.8060676182442424</v>
+        <v>0.8062895766225073</v>
       </c>
       <c r="EZ6">
-        <v>0.831735973217452</v>
+        <v>0.8320240212847633</v>
       </c>
       <c r="FA6">
-        <v>0.8401763092086426</v>
+        <v>0.8404723498761628</v>
       </c>
       <c r="FB6">
-        <v>0.8417986278069494</v>
+        <v>0.842079669054378</v>
       </c>
       <c r="FC6">
-        <v>0.8492613630991603</v>
+        <v>0.8495471002384117</v>
       </c>
       <c r="FD6">
-        <v>0.8500080922383809</v>
+        <v>0.850275877255977</v>
       </c>
       <c r="FE6">
-        <v>0.8547038672334799</v>
+        <v>0.8549670172768042</v>
       </c>
       <c r="FF6">
-        <v>0.8735763422137824</v>
+        <v>0.8738826645785737</v>
       </c>
       <c r="FG6">
-        <v>0.8817716972052289</v>
+        <v>0.8820851860344485</v>
       </c>
       <c r="FH6">
-        <v>0.8817976181902017</v>
+        <v>0.8820907241565755</v>
       </c>
       <c r="FI6">
-        <v>0.8844976077873837</v>
+        <v>0.8847793485035508</v>
       </c>
       <c r="FJ6">
-        <v>0.9044380807665715</v>
+        <v>0.9047665953543712</v>
       </c>
       <c r="FK6">
-        <v>0.91888792675149</v>
+        <v>0.9192446994753294</v>
       </c>
       <c r="FL6">
-        <v>0.9191429552512238</v>
+        <v>0.9194801177187283</v>
       </c>
       <c r="FM6">
-        <v>0.9231774795470129</v>
+        <v>0.9235077771413431</v>
       </c>
       <c r="FN6">
-        <v>0.9350067135346666</v>
+        <v>0.9353564319211625</v>
       </c>
       <c r="FO6">
-        <v>0.9407679335286535</v>
+        <v>0.9411166098817038</v>
       </c>
       <c r="FP6">
-        <v>0.9411792774882242</v>
+        <v>0.9415088707188582</v>
       </c>
       <c r="FQ6">
-        <v>0.9414044811879891</v>
+        <v>0.9417143635857765</v>
       </c>
       <c r="FR6">
-        <v>0.9414310915369614</v>
+        <v>0.9417205933966066</v>
       </c>
       <c r="FS6">
-        <v>0.9424442728359039</v>
+        <v>0.9427167211156711</v>
       </c>
       <c r="FT6">
-        <v>0.9486816833293938</v>
+        <v>0.9489546954064136</v>
       </c>
       <c r="FU6">
-        <v>0.9556575903221129</v>
+        <v>0.9559336565869967</v>
       </c>
       <c r="FV6">
-        <v>0.9556731922180967</v>
+        <v>0.9559336565869967</v>
       </c>
       <c r="FW6">
-        <v>0.9562170044475291</v>
+        <v>0.956458832409381</v>
       </c>
       <c r="FX6">
-        <v>0.9562490190134957</v>
+        <v>0.9564704846615454</v>
       </c>
       <c r="FY6">
-        <v>0.9562490641214236</v>
+        <v>0.9564704846615454</v>
       </c>
       <c r="FZ6">
-        <v>0.9619901886154315</v>
+        <v>0.9622104993551723</v>
       </c>
       <c r="GA6">
-        <v>0.9679710956091891</v>
+        <v>0.9681911051537174</v>
       </c>
       <c r="GB6">
-        <v>0.969873103407204</v>
+        <v>0.9700790567119506</v>
       </c>
       <c r="GC6">
-        <v>0.9705835274464625</v>
+        <v>0.9707714061998873</v>
       </c>
       <c r="GD6">
-        <v>0.9706057732994393</v>
+        <v>0.9707732567965752</v>
       </c>
       <c r="GE6">
-        <v>0.9707289012993108</v>
+        <v>0.9708763297394029</v>
       </c>
       <c r="GF6">
-        <v>0.9712434484987738</v>
+        <v>0.9713721418429873</v>
       </c>
       <c r="GG6">
-        <v>0.9720686950579124</v>
+        <v>0.9721797010603924</v>
       </c>
       <c r="GH6">
-        <v>0.9720991217318806</v>
+        <v>0.9721897600657987</v>
       </c>
       <c r="GI6">
-        <v>0.9721690117518077</v>
+        <v>0.9722394154972074</v>
       </c>
       <c r="GJ6">
-        <v>0.9721694274533873</v>
+        <v>0.9722394154972074</v>
       </c>
       <c r="GK6">
-        <v>0.9731468423523671</v>
+        <v>0.9731996562032706</v>
       </c>
       <c r="GL6">
-        <v>0.9808131200443657</v>
+        <v>0.9808713161817897</v>
       </c>
       <c r="GM6">
-        <v>0.9882589140365944</v>
+        <v>0.9883217489356387</v>
       </c>
       <c r="GN6">
-        <v>0.9889820918358396</v>
+        <v>0.9890268951923565</v>
       </c>
       <c r="GO6">
-        <v>0.9895799684352156</v>
+        <v>0.9896063177029479</v>
       </c>
       <c r="GP6">
-        <v>0.9895800455108755</v>
+        <v>0.9896063177029479</v>
       </c>
       <c r="GQ6">
-        <v>0.9922253967081145</v>
+        <v>0.9922401193959474</v>
       </c>
       <c r="GR6">
-        <v>0.9977159703023839</v>
+        <v>0.997728738270992</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.05632748640837364</v>
+        <v>0.05212289791654041</v>
       </c>
       <c r="F2">
-        <v>0.542091917893391</v>
+        <v>0.5422791516664932</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01693885543591605</v>
+        <v>0.0162700699611918</v>
       </c>
       <c r="F3">
-        <v>0.5248439123623589</v>
+        <v>0.5248473525544241</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.02422329820186745</v>
+        <v>0.06241742360108939</v>
       </c>
       <c r="F4">
-        <v>0.5199867533725402</v>
+        <v>0.5224222928322464</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.007500530427980668</v>
+        <v>0.06029858045457619</v>
       </c>
       <c r="F5">
-        <v>0.5069054114812442</v>
+        <v>0.5069538307561366</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.00412256032204522</v>
+        <v>0.04678786341128432</v>
       </c>
       <c r="F6">
-        <v>0.5078679508512783</v>
+        <v>0.5080270381112438</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>136</v>
       </c>
       <c r="E2">
-        <v>0.05632748640837364</v>
+        <v>0.05212289791654041</v>
       </c>
       <c r="F2">
-        <v>0.7018658779246477</v>
+        <v>0.7021105468897684</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>129</v>
       </c>
       <c r="E3">
-        <v>0.01693885543591605</v>
+        <v>0.0162700699611918</v>
       </c>
       <c r="F3">
-        <v>0.71421012421592</v>
+        <v>0.714329360399901</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.02422329820186745</v>
+        <v>0.06241742360108939</v>
       </c>
       <c r="F4">
-        <v>0.7112611010420015</v>
+        <v>0.715699431396305</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>133</v>
       </c>
       <c r="E5">
-        <v>0.007500530427980668</v>
+        <v>0.06029858045457619</v>
       </c>
       <c r="F5">
-        <v>0.7045251124452487</v>
+        <v>0.7047117130030411</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>141</v>
       </c>
       <c r="E6">
-        <v>0.00412256032204522</v>
+        <v>0.04678786341128432</v>
       </c>
       <c r="F6">
-        <v>0.7119790736762444</v>
+        <v>0.7121304841658663</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>155</v>
       </c>
       <c r="E2">
-        <v>0.05632748640837364</v>
+        <v>0.05212289791654041</v>
       </c>
       <c r="F2">
-        <v>0.8129762539726263</v>
+        <v>0.8133991425797165</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.01693885543591605</v>
+        <v>0.0162700699611918</v>
       </c>
       <c r="F3">
-        <v>0.8115944630638782</v>
+        <v>0.8116871833634491</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>151</v>
       </c>
       <c r="E4">
-        <v>0.02422329820186745</v>
+        <v>0.06241742360108939</v>
       </c>
       <c r="F4">
-        <v>0.8031208257576413</v>
+        <v>0.8060731347275565</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.007500530427980668</v>
+        <v>0.06029858045457619</v>
       </c>
       <c r="F5">
-        <v>0.8052985775437547</v>
+        <v>0.8054536199343743</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>154</v>
       </c>
       <c r="E6">
-        <v>0.00412256032204522</v>
+        <v>0.04678786341128432</v>
       </c>
       <c r="F6">
-        <v>0.8060676182442424</v>
+        <v>0.8062895766225073</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.05632748640837364</v>
+        <v>0.05212289791654041</v>
       </c>
       <c r="F2">
-        <v>0.9048132289532163</v>
+        <v>0.9057227399912876</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3">
-        <v>0.01693885543591605</v>
+        <v>0.0162700699611918</v>
       </c>
       <c r="F3">
-        <v>0.9060530370041394</v>
+        <v>0.9061737295404778</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.02422329820186745</v>
+        <v>0.06241742360108939</v>
       </c>
       <c r="F4">
-        <v>0.9086431926740872</v>
+        <v>0.9121666478516912</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>169</v>
       </c>
       <c r="E5">
-        <v>0.007500530427980668</v>
+        <v>0.06029858045457619</v>
       </c>
       <c r="F5">
-        <v>0.90543113429099</v>
+        <v>0.9056315034147664</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.00412256032204522</v>
+        <v>0.04678786341128432</v>
       </c>
       <c r="F6">
-        <v>0.9044380807665715</v>
+        <v>0.9047665953543712</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>1</v>

--- a/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
@@ -1994,13 +1994,13 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001841479861132176</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001090534989951203</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001561694971050638</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2012,52 +2012,52 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.158653128817198E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.976564145097941E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0002075505055101508</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0003311023939946761</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0002021052535974201</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0003154625340511892</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0003090379051276215</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.000413253769671092</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.000357181835357557</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0005406509412337208</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0005785920898882427</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0007056819989672603</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0007578101726627847</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.000456825518277046</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0003524402982934045</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>7.238806139057917E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2069,43 +2069,43 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>2.713776347140433E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002645522083813228</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0006205176136763593</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.000829582463304242</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001097533883817193</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001418102229662586</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001326931960219269</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.001209072889882993</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.001132626850943669</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.00108968160909345</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0007206706795964174</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.000406263444353776</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>9.69688271283988E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -2117,49 +2117,49 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.131821289470719E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001892574238417304</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.000354469140207309</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.000335722685082255</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.000581106290455842</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0009557268340498706</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.001397507530485818</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.001155209433156281</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.001337658446222942</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001303322164996542</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0011277393345745</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0007644454298821358</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.000448559147675581</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0001929725277754935</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>6.352930630345451E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -2168,49 +2168,49 @@
         <v>0</v>
       </c>
       <c r="BH2">
-        <v>9.401396413086376E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0003188830662714225</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0003465775170064973</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0006300535170598482</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0008404635174182218</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001113317940483467</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001189156888633732</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001590278707495771</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001613138197652542</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.00153842703661208</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001035458192295948</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.00100613522102564</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0004450397125264995</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0001681770013921751</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.923594207714084E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -2219,361 +2219,361 @@
         <v>0</v>
       </c>
       <c r="BY2">
-        <v>6.811542447941708E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0002595888714975243</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0007549745806217388</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001142580445754264</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.001026412904158072</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001367427164333865</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.001784197725665618</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001889023283973335</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001634402074147179</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001346308831626995</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001139147556998118</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.000656136239994562</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0003784987538018489</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0002059112489683039</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0006228607572480225</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.06126367733762275</v>
+        <v>0.1448307774458194</v>
       </c>
       <c r="CO2">
-        <v>0.0002438502200365787</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.08031638414113712</v>
+        <v>0.2339940494797922</v>
       </c>
       <c r="CQ2">
-        <v>0.008718789596725732</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.005280186449134399</v>
+        <v>0</v>
       </c>
       <c r="CS2">
         <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.02879821818741109</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.004422585834367382</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.03070507273258723</v>
+        <v>0.001821954422583054</v>
       </c>
       <c r="CW2">
-        <v>0.004354499093256577</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.1033293840000156</v>
+        <v>0.3416907871609952</v>
       </c>
       <c r="CY2">
-        <v>0.02737965342830133</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.009369665568227173</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.02616173247882459</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.009542103558976165</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.08964759036608114</v>
+        <v>0.27766243149081</v>
       </c>
       <c r="DD2">
-        <v>0.006744159452064407</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.02791636665551699</v>
+        <v>0</v>
       </c>
       <c r="DF2">
         <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.02405194715204062</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0002913368129408439</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0002603588052246286</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.01145416101603652</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.008870547101528133</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01188900979710811</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.007060004157566105</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.002657463693327673</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.005016451686373598</v>
+        <v>0</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001060427409035316</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0007628221355538952</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0023006519058358</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0001983257741372097</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>4.773430093609712E-05</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0004243647465078349</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01200906468464605</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.01913709751773248</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0001367126424480687</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.008379816393203444</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.00105711302148424</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.00160197123152848</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0009452223605603147</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>7.912000343929887E-05</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0007352617228485568</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.001952548032538133</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.002791335011112297</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0004214457681059895</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0003383747926932947</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.001917204693634789</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.009897802650537343</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.006168418106166166</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001078510085230732</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0003969844151209726</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.001209072889882993</v>
+        <v>0</v>
       </c>
       <c r="EP2">
         <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0009088830544774232</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0006013951248555199</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0002921430465242711</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.001750364314937662</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.01951142358076775</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.02761840195876511</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.009308114320500681</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.003364123347493389</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.008253295593758012</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.01825263794649599</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001207556074458078</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.008063195859299311</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.009976778133147995</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.001086324378799003</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.008426112889646314</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.02068998592486776</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.007523636577500309</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0004600671845757783</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01031255484262579</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.02457738554665068</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.009897802650537343</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0003708751762755857</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.009551781157390334</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.01193942446363492</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.002032773247088423</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>6.42880178651555E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0003882962004860696</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0003497427753487289</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.004342932058961546</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.01396107021461604</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.00547123976380314</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>3.270417527008944E-05</v>
+        <v>0</v>
       </c>
       <c r="FW2">
         <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001306980813740812</v>
+        <v>0</v>
       </c>
       <c r="FY2">
         <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.002693655885735038</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.002921214863947638</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0008614182475639363</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>7.446613701028296E-05</v>
+        <v>0</v>
       </c>
       <c r="GD2">
         <v>0</v>
       </c>
       <c r="GE2">
-        <v>1.831044158854794E-05</v>
+        <v>0</v>
       </c>
       <c r="GF2">
         <v>0</v>
       </c>
       <c r="GG2">
-        <v>4.631588708877843E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001066284001925958</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0009793359202910287</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.000102958131240413</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0007873965812274443</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.006046158994930812</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.002364670915837135</v>
+        <v>0</v>
       </c>
       <c r="GN2">
         <v>0</v>
@@ -2582,16 +2582,16 @@
         <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.001413031796048666</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.006796639787033463</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.006569580843393033</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.001825910858832337</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001151656327831265</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001135814548824623</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.861061309044777E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.556976852061371E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2788,145 +2788,145 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.626144995711281E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001821493555520678</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001247035630418381</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001841277575000266</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0004052466724511498</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0003851481271062422</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0003506958961185115</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0003920644308916462</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0004169562654874283</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002410819493480123</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001762754683295371</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9.687784976424702E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>5.946623908034169E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4.927598165611809E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>7.691847825854157E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>8.701219741616699E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>5.544913820623085E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002002547051555297</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0005949178887315965</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0004377419660132256</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0003155274832650396</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0002992006741638769</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0001773231934303577</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.993546806077877E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.124825544838349E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0001981949623836659</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0001246493859064481</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.769933987611711E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.129107403998467E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.019590635988699E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>4.512755456446865E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>9.740047332193261E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>6.516106130502392E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>4.927598165611809E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001221242345982499</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0002723213129445324</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0002661967425375792</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0004211778352174925</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0003534095305721653</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0003616118126511283</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0003334947307529981</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0002581356976163412</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0001773872063851141</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0002410819493480123</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>6.184306182540607E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -2935,46 +2935,46 @@
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>7.954894194511495E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001773231934303577</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0002171003787685448</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001567737228432133</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0002368329955750277</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.000502930080829562</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0003494471677355672</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0003258993648030466</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0003218051999837166</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0002537434133187807</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0001042909325404209</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001891959288554756</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0001167600070830932</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.524732492086451E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2983,49 +2983,49 @@
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>3.560933200248353E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>4.606304415214204E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>9.458508220871732E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002805924157107324</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0002733486352306387</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0002116840875170677</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.000368319040170285</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.000668356302855045</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0004064934777411018</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0003167156041704011</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0006071307311652749</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.000445203817225749</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0001872573108937933</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>9.687784976424702E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.626622909288002E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
         <v>0</v>
@@ -3034,334 +3034,334 @@
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.00249079050125165</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.0705403761427629</v>
+        <v>0.1623472804835598</v>
       </c>
       <c r="CO3">
-        <v>0.01485326920129863</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.06863255771728401</v>
+        <v>0.1546997513944538</v>
       </c>
       <c r="CQ3">
-        <v>0.00218248724401645</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.002686358241161723</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.002942285359626323</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.02712210268776757</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.004877323864315773</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.07445848780832139</v>
+        <v>0.17805311104718</v>
       </c>
       <c r="CW3">
-        <v>0.01781305054345745</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.06570767350165735</v>
+        <v>0.1429752933314926</v>
       </c>
       <c r="CY3">
-        <v>0.0008634053685593432</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.00590254937809397</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.01620486002227484</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.03444535698898641</v>
+        <v>0.01765965965766554</v>
       </c>
       <c r="DC3">
-        <v>0.09685434802239648</v>
+        <v>0.2678273737208929</v>
       </c>
       <c r="DD3">
-        <v>0.000311497511690434</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.04910859049079074</v>
+        <v>0.07643753036475562</v>
       </c>
       <c r="DF3">
-        <v>1.322583166732712E-05</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.02541062404390627</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.00245542822660201</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.01331065815437238</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.001691773207770721</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.003490170045858865</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001671628908838374</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001786701384793413</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.02105555059413412</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01138753210899767</v>
+        <v>0</v>
       </c>
       <c r="DP3">
         <v>0</v>
       </c>
       <c r="DQ3">
-        <v>1.960979626899108E-05</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.007043799399019446</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.002896143547788764</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.001645786845950032</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001078245344826451</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0001338080261368828</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.00788351444843138</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.002286158983682648</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.01302654620504611</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.02177501473890401</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.004891604432360454</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.007590239061158306</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.00599673986866418</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.007057126633777675</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.004385201963741993</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.001238000986616674</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.001113682239490632</v>
+        <v>0</v>
       </c>
       <c r="EH3">
         <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.000998333619401242</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.001930469813669458</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.009086972020405775</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.007043799399019446</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.001268458673008515</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.003031934145579922</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.003570607617024132</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0008158443140935303</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>3.060720787359673E-05</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.00255471050651348</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.008306181241402926</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>1.028731953334001E-05</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.01166329162474994</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01477373027546285</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.001602069132893596</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.000916499201628193</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01131956779910878</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.01684476220415748</v>
+        <v>0</v>
       </c>
       <c r="FA3">
         <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01042370193996246</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.002591015297051491</v>
+        <v>0</v>
       </c>
       <c r="FD3">
         <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.007205883886391021</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01409227926883906</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0001773872063851141</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002587653690436664</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.00422992923200659</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.01445582096840936</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.001481694028495807</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.006558282321262987</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01580126289986514</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.01050470221615014</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0004697807052796187</v>
+        <v>0</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0005472514247311478</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.000133995627864717</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.001887353067173089</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.008080188768100724</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0005705938673739842</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.003122660865220093</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001094614171506271</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0001058138258745114</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001457362294734007</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.008964719396313244</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.008010985465487159</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.001930469813669458</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0003090297827370502</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.000204473370213887</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0004694369724394791</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001883356852891773</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>5.775527726772205E-05</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0005435180201378259</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>5.597756810249764E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>4.769933987611711E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.004986382467904223</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.01267235153870671</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.003498628149386339</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0009802764773320068</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.002010177510947524</v>
+        <v>0</v>
       </c>
       <c r="GP3">
         <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.002005804677934291</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.003114669211904324</v>
+        <v>0</v>
       </c>
       <c r="GS3">
         <v>0</v>
@@ -3540,22 +3540,22 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.896516259912428E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.269430536755755E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001961742675867357</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.000598792147719529</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002311871221681058</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4.12616468391089E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3567,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.235784440227751E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001229594980726288</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3579,22 +3579,22 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0006148779301568304</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001151762956641681</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002350570832455739</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>9.785983540676887E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0005929591745273264</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0007654497280754431</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -3621,37 +3621,37 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0001766038228740339</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0007424850260438176</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0001498201934774136</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.000260410633684852</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.000465494162910222</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0004761787958762481</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0003176330142256796</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0003378955118999569</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0002176077916374722</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>7.727313152195197E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -3681,25 +3681,25 @@
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001788700175173075</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0003389231211529935</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0002735057739285459</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0004321155117231687</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0004298058639719273</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.000316528620113272</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001229594980726288</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -3729,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0001238638079603531</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>3.095551303951608E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>2.156726757308004E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001020557624779652</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0002032225532968273</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -3810,169 +3810,169 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.05187928950330147</v>
+        <v>0.08738388601835465</v>
       </c>
       <c r="CO4">
-        <v>0.0006207844081391468</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.08915107467615545</v>
+        <v>0.2431372532422763</v>
       </c>
       <c r="CQ4">
-        <v>0.02150758297470939</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.001533844999995438</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.003479499092350477</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01472298255284224</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.01116005782496738</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0397459592820548</v>
+        <v>0.0366804644131203</v>
       </c>
       <c r="CW4">
-        <v>0.005670285359919962</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.1057742105546574</v>
+        <v>0.3126029194262288</v>
       </c>
       <c r="CY4">
-        <v>0.03237144100752719</v>
+        <v>0.005863425530083907</v>
       </c>
       <c r="CZ4">
-        <v>0.001530142686902222</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.02715105250848942</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.001128834335371883</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.1044571169670746</v>
+        <v>0.3070989769597307</v>
       </c>
       <c r="DD4">
-        <v>0.02918731429684003</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.03269919802319889</v>
+        <v>0.007233074410205499</v>
       </c>
       <c r="DF4">
-        <v>0.00611364586539329</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.02558519430328053</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001206546465115455</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.01074204684013396</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0007032583341718157</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.008312271498487254</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.007631514158270373</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.001780598050068808</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.00517055972781584</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01175022350508283</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.001314953587096183</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0008652834779223818</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.001008465269391822</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.005820938107865257</v>
+        <v>0</v>
       </c>
       <c r="DT4">
         <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0008144334493275622</v>
+        <v>0</v>
       </c>
       <c r="DV4">
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.007481240440550344</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.01639005224111524</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.00020988880986119</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0184895121130697</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.006908512233380753</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.005083920082587895</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.006730445083101321</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.002908911885307721</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.003638695535612472</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>9.706113333620511E-05</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.002048595640139114</v>
+        <v>0</v>
       </c>
       <c r="EH4">
         <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0005190196138365824</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0005543792498353154</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.007777713196939618</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.01022434049313749</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.004181251999688301</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.001174123553219494</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.003357793528309625</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0003722447095478915</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
         <v>0</v>
@@ -3981,97 +3981,97 @@
         <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.00403554226404887</v>
+        <v>0</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.008667319731669881</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.02209383339755287</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.008375001000768656</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.002584488669551434</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.006659481045046847</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.02119660950071578</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.004018262755073267</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.00462072067695578</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.009010838781736743</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>2.418097253799588E-05</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.004282189935389281</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01786791712172024</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.00647575239110047</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>6.395068768520003E-05</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.001694715007482835</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.01921940457837044</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01072603801957563</v>
+        <v>0</v>
       </c>
       <c r="FL4">
         <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.008083555913710834</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.01399237628199365</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003283207356632664</v>
+        <v>0</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>4.286956802769581E-06</v>
+        <v>0</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0008072642592233619</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.00772676455800872</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.00451292500153625</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0008058974595703862</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0007937720327541114</v>
+        <v>0</v>
       </c>
       <c r="FX4">
         <v>0</v>
@@ -4080,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.005477102505082787</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.004834961264036011</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0005543792498353154</v>
+        <v>0</v>
       </c>
       <c r="GC4">
         <v>0</v>
@@ -4101,43 +4101,43 @@
         <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0006357582887499632</v>
+        <v>0</v>
       </c>
       <c r="GH4">
         <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0001466973384604492</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
         <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0006795927177851613</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.007324465313175188</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.006287110922311233</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0002523591153634092</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0002593613863876369</v>
+        <v>0</v>
       </c>
       <c r="GP4">
         <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.002677366069343744</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.005556714471765909</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002411395666203511</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.386623711203177E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4325,31 +4325,31 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090441788754393E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6.262732261827424E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001048698270634131</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002444351042051932</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001387426330893227</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.560071476580862E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.966241574540624E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>4.863641517503108E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5.442831469116195E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4358,13 +4358,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.132743794494402E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>6.047202140923833E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>7.486372290131007E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>6.750991990922804E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -4385,16 +4385,16 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>4.899912282059351E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>6.595276282106906E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2.988169646535213E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -4403,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001512007079298793</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001493215534475128</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -4418,43 +4418,43 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.047713935657902E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.538125156961048E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.982984655033203E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001265677573818002</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2.139413843950082E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0004558015180790128</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001800378411467613</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.749892716782129E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001612615260718428</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0003588752662785238</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.86124397802648E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -4463,40 +4463,40 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>2.932638313030002E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>4.001185157270577E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>8.987710694818304E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0001118651143506508</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0001501255919405575</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0002401384100869636</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0003226878592805925</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0002952336955324564</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0001135160732560203</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>5.553061162113571E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>3.371021166421532E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>9.265667846590518E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -4505,412 +4505,412 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>1.980672739028788E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0002131905076509931</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.531267818692612E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>3.60456329760962E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>8.041279264605972E-06</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.586521427352356E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0002093628276318998</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>4.200873331628042E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0001601541859795127</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0005209651112137459</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0003588752662785238</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0001231116972687436</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>9.176997722797178E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0001800378411467613</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.36057261427669E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>1.56510483129981E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>3.254141918477938E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0002093628276318998</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>5.458514701427531E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>1.314992051696697E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.29646489691545E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.413033876095872E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0007424959536466067</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.05307899466848567</v>
+        <v>0.08822474096669598</v>
       </c>
       <c r="CO5">
-        <v>0.0001763160976156535</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.07877637832419539</v>
+        <v>0.1867322788139507</v>
       </c>
       <c r="CQ5">
-        <v>0.01370820723537427</v>
+        <v>0</v>
       </c>
       <c r="CR5">
         <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.007947443983055531</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.01591440227430449</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.001545517733128831</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.05634832041586148</v>
+        <v>0.1007572708969588</v>
       </c>
       <c r="CW5">
-        <v>8.191644007716982E-05</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.09693065992844295</v>
+        <v>0.2563243278015054</v>
       </c>
       <c r="CY5">
-        <v>0.01902570458984344</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.002738149030473507</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.03240014408810948</v>
+        <v>0.008955089103459503</v>
       </c>
       <c r="DB5">
-        <v>0.006697954890218093</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.1143641352708603</v>
+        <v>0.323153260859863</v>
       </c>
       <c r="DD5">
-        <v>0.01127371234730291</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.03941693449722699</v>
+        <v>0.03585303155756675</v>
       </c>
       <c r="DF5">
-        <v>0.0004171664829159316</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.02210587665727088</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0001668506934691005</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0107723047029241</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.003710549638708814</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.005144547588781305</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.00187905725159988</v>
+        <v>0</v>
       </c>
       <c r="DM5">
         <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.007984481649179634</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01265316263118386</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.001796083695512271</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0002424800115286187</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002757938580030664</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.003588773810980782</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0002724776235266745</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0007407704902890112</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0002093628276318998</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.007087006993260742</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01080274114023033</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.002523226595594598</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.01968999835739671</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.007513054251476417</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.009102697125620797</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.009910772153784039</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.005995854449477644</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.005138538906474877</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>5.580706214068668E-05</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0003464515811932001</v>
+        <v>0</v>
       </c>
       <c r="EH5">
         <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001926684054747065</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.001401926668920247</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.009176385447795537</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.01125332213003847</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.005421333383380383</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.003927877752267189</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.00711170625688203</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.002924471521184964</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.000429420064039949</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.001129871019721681</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.008100889466717677</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.000650960020259255</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.00805230767109646</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.01855295474061975</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.00495255550075525</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.002070247045686071</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.00811819663741241</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.02080646627280665</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.002357431379860133</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.004230284716608156</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.004681882059036684</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>1.451928547875209E-05</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.002999789897705404</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01303981426915425</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.001582916541813717</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002361508019649543</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.001577069782115747</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01187904021734147</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.004752384065114339</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.001322905829189198</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.01107238188667514</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0174994892578431</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.005159582829873778</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0006312412955507763</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0005489983763824342</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>9.748877896320583E-05</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0007190846916335488</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.005961848696467948</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.001751134380451072</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.003747434104990363</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.004163769816642295</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0004232718375313841</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.001858017539191416</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.01377154855247603</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.01091616416764219</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.004557998329810064</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.002141345508480577</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0002282064483706311</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0002125030734883735</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>1.071310056060451E-05</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0004886429522853034</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>3.982984655033203E-05</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>1.240030606746604E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0002509304767444235</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.004745425403417733</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.01349585400597012</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.008488267500538393</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.002575121538334386</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.003478113794865449</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0002714156518432157</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001465604363948561</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.002111343404759389</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>4.519581140211057E-05</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5089,55 +5089,55 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.254964278001353E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.49171141644621E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.319064532050935E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.437996423017188E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0003357639261523747</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001280115793266685</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.29046906858755E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>8.52021848281496E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.234367416013252E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.996368723960043E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3.529191994725941E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2.272555252423519E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>9.504624181229435E-07</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1.593158662002474E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -5179,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>3.790918734599299E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>8.588198156342126E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -5194,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.916015956133321E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>7.254964278001353E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -5212,34 +5212,34 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>5.854179366755727E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>9.285496111629517E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.353362227901026E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>1.275245384263039E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>6.840359829994062E-07</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1.308294057862451E-06</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>9.862090994821258E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -5248,25 +5248,25 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>8.79484256950311E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>3.633307216558888E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.757561404734127E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.468928034111215E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001176444362976929</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5281,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="BO6">
-        <v>2.903978007126746E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>7.385033829987778E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>9.004725065567522E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>0</v>
       </c>
       <c r="BV6">
-        <v>4.091932012971154E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>8.859273114731436E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>6.191583752343722E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1.310954399028214E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
         <v>0</v>
@@ -5320,370 +5320,370 @@
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>9.569827222747806E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0002859723712449562</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>5.370824253989525E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>8.79484256950311E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0002907079069516637</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0001185031122297474</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>9.363290571765746E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0002335097290550481</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>1.841124251896825E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.0438180921640351</v>
+        <v>0.06543323007269196</v>
       </c>
       <c r="CO6">
-        <v>0.001689087193109195</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.07439849111585706</v>
+        <v>0.2110921606301915</v>
       </c>
       <c r="CQ6">
-        <v>0.02293880878321125</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.001229895391042266</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0007584597786374679</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>1.080802378928926E-05</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02446304660852238</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.01925831397342435</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01425597155351314</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.07586123125300689</v>
+        <v>0.2180594066885717</v>
       </c>
       <c r="CY6">
-        <v>0.05591526867890224</v>
+        <v>0.123053858132414</v>
       </c>
       <c r="CZ6">
-        <v>0.0019293771860171</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.02684024616096271</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.001253831136916768</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.09944160274639355</v>
+        <v>0.3303761785948654</v>
       </c>
       <c r="DD6">
-        <v>0.04099473511665384</v>
+        <v>0.05198516588126541</v>
       </c>
       <c r="DE6">
-        <v>0.02827213460837697</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.008576724117135327</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.02539269808294798</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0008097762085115721</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.009460362947229779</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.001989146866501062</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.01351381322657875</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.003989783826164816</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.001304337484176559</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.00215393410147633</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01109600418933719</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.003371119350883463</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.001816147832412553</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0002707374079127225</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.003000693282409403</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0001312636291717246</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.001462212487768048</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>1.628082036301181E-05</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.006371479489627172</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01370755537640095</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0002124905053474576</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.01315126573729595</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.007283341174179878</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.004984648476168485</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.007097011938490839</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.002167229385722794</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.003119045353001884</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>8.245017156075269E-05</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.002401134820709648</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0007031824264621709</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0006432676182169446</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.000773145997689866</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.01097658784180629</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01380243927258428</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.007712586829960764</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.003355443766664327</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.00642391000383785</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.001153506454744387</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>3.443283463932963E-05</v>
+        <v>0</v>
       </c>
       <c r="ER6">
         <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.004379377816287884</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0005171125925991808</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.007878998123248965</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.02886376903812286</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.01468228836571597</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.007619415088173318</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01153825154264616</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.02573444466225589</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.008448328591399545</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.00160731917821523</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.007467431184033647</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.0007287770175652783</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.004691140020827274</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01891564730176939</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.008202521455874882</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>5.538122126991866E-06</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.00268862434697525</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.01998724685082041</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.01447810412095822</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.000235418243398942</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.00402765942261485</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.01184865477981929</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.005760177960541268</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0003922608371544575</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0002054928669183335</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>6.229810830090567E-06</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.000996127719064411</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.006237974290742617</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.006978961180583007</v>
+        <v>0</v>
       </c>
       <c r="FV6">
         <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0005251758223843634</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>1.165225216441316E-05</v>
+        <v>0</v>
       </c>
       <c r="FY6">
         <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.005740014693626952</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.005980605798545056</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001887951558233209</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0006923494879367095</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>1.850596687896494E-06</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0001030729428275886</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0004958121035843613</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0008075592174052122</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>1.005900540632773E-05</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>4.965543140866523E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0009602407060632833</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.007671659978518995</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.007450432753849004</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0007051462567178355</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0005794225105913896</v>
+        <v>0</v>
       </c>
       <c r="GP6">
         <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.002633801692999429</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.005488618875044587</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.002271261729008449</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001841479861132176</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002932014851083379</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0004493709822134018</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0004493709822134018</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0004493709822134018</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0004493709822134018</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0004609575135015738</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004807231549525532</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0006882736604627039</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.00101937605445738</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0012214813080548</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001536943842105989</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001845981747233611</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002259235516904703</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.00261641735226226</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.003157068293495981</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003735660383384224</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.004441342382351484</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.005199152555014268</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.005655978073291315</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.006008418371584719</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.006080806432975298</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.006080806432975298</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.006080806432975298</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.006080806432975298</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.006107944196446702</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.006372496404828025</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.006993014018504384</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.007822596481808627</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.00892013036562582</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01033823259528841</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01166516455550768</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01287423744539067</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01400686429633434</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01509654590542779</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0158172165850242</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01622348002937798</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01632044885650638</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.01632044885650638</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01632044885650638</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01632044885650638</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.01637176706940109</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.01656102449324282</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01691549363345013</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01725121631853238</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.01783232260898823</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0187880494430381</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.02018555697352391</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.02134076640668019</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.02267842485290314</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.02398174701789968</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.02510948635247418</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.02587393178235631</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0263224909300319</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.02651546345780739</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.02652181638843773</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02652181638843773</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.02652181638843773</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0266158303525686</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.02693471341884002</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.02728129093584651</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.02791134445290636</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.02875180797032459</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.02986512591080805</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.03105428279944179</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.03264456150693756</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0342576997045901</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.03579612674120218</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.03683158493349813</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.03783772015452377</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.03828275986705026</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.03845093686844244</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.03847017281051958</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.03847017281051958</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.03847017281051958</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.038538288234999</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.03879787710649652</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.03955285168711826</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.04069543213287252</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.04172184503703059</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.04308927220136446</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.04487346992703008</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.04676249321100341</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.04839689528515059</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.04974320411677759</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0508823516737757</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.05153848791377026</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.05191698666757211</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.05212289791654041</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.05274575867378844</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1140094360114112</v>
+        <v>0.1448307774458194</v>
       </c>
       <c r="CO2">
-        <v>0.1142532862314478</v>
+        <v>0.1448307774458194</v>
       </c>
       <c r="CP2">
-        <v>0.1945696703725849</v>
+        <v>0.3788248269256116</v>
       </c>
       <c r="CQ2">
-        <v>0.2032884599693106</v>
+        <v>0.3788248269256116</v>
       </c>
       <c r="CR2">
-        <v>0.208568646418445</v>
+        <v>0.3788248269256116</v>
       </c>
       <c r="CS2">
-        <v>0.208568646418445</v>
+        <v>0.3788248269256116</v>
       </c>
       <c r="CT2">
-        <v>0.2373668646058561</v>
+        <v>0.3788248269256116</v>
       </c>
       <c r="CU2">
-        <v>0.2417894504402235</v>
+        <v>0.3788248269256116</v>
       </c>
       <c r="CV2">
-        <v>0.2724945231728107</v>
+        <v>0.3806467813481946</v>
       </c>
       <c r="CW2">
-        <v>0.2768490222660673</v>
+        <v>0.3806467813481946</v>
       </c>
       <c r="CX2">
-        <v>0.3801784062660828</v>
+        <v>0.7223375685091897</v>
       </c>
       <c r="CY2">
-        <v>0.4075580596943842</v>
+        <v>0.7223375685091897</v>
       </c>
       <c r="CZ2">
-        <v>0.4169277252626113</v>
+        <v>0.7223375685091897</v>
       </c>
       <c r="DA2">
-        <v>0.4430894577414359</v>
+        <v>0.7223375685091897</v>
       </c>
       <c r="DB2">
-        <v>0.4526315613004121</v>
+        <v>0.7223375685091897</v>
       </c>
       <c r="DC2">
-        <v>0.5422791516664932</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DD2">
-        <v>0.5490233111185576</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DE2">
-        <v>0.5769396777740746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF2">
-        <v>0.5769396777740746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG2">
-        <v>0.6009916249261152</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH2">
-        <v>0.601282961739056</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI2">
-        <v>0.6015433205442807</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ2">
-        <v>0.6129974815603172</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK2">
-        <v>0.6218680286618453</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL2">
-        <v>0.6337570384589535</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM2">
-        <v>0.6408170426165196</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN2">
-        <v>0.6434745063098473</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO2">
-        <v>0.6484909579962208</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP2">
-        <v>0.6484909579962208</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ2">
-        <v>0.6495513854052561</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR2">
-        <v>0.65031420754081</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS2">
-        <v>0.6526148594466459</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT2">
-        <v>0.6528131852207831</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU2">
-        <v>0.6528609195217192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV2">
-        <v>0.6532852842682271</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW2">
-        <v>0.6652943489528731</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX2">
-        <v>0.6844314464706056</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY2">
-        <v>0.6845681591130537</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ2">
-        <v>0.6929479755062571</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA2">
-        <v>0.6940050885277413</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB2">
-        <v>0.6956070597592698</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC2">
-        <v>0.6965522821198301</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED2">
-        <v>0.6966314021232695</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE2">
-        <v>0.697366663846118</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF2">
-        <v>0.6993192118786561</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG2">
-        <v>0.7021105468897684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH2">
-        <v>0.7025319926578744</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI2">
-        <v>0.7028703674505676</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ2">
-        <v>0.7047875721442024</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK2">
-        <v>0.7146853747947397</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL2">
-        <v>0.7208537929009059</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM2">
-        <v>0.7219323029861366</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN2">
-        <v>0.7223292874012576</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO2">
-        <v>0.7235383602911406</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP2">
-        <v>0.7235383602911406</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ2">
-        <v>0.7244472433456181</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER2">
-        <v>0.7250486384704736</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES2">
-        <v>0.7253407815169979</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET2">
-        <v>0.7270911458319356</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU2">
-        <v>0.7466025694127033</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV2">
-        <v>0.7742209713714684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW2">
-        <v>0.7835290856919691</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX2">
-        <v>0.7868932090394625</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY2">
-        <v>0.7951465046332205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ2">
-        <v>0.8133991425797165</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA2">
-        <v>0.8146066986541746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB2">
-        <v>0.8226698945134738</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC2">
-        <v>0.8326466726466218</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD2">
-        <v>0.8337329970254208</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE2">
-        <v>0.8421591099150671</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF2">
-        <v>0.862849095839935</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG2">
-        <v>0.8703727324174353</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH2">
-        <v>0.8708327996020111</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI2">
-        <v>0.8811453544446369</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ2">
-        <v>0.9057227399912876</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK2">
-        <v>0.9156205426418249</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL2">
-        <v>0.9159914178181005</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM2">
-        <v>0.9255431989754908</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN2">
-        <v>0.9374826234391257</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO2">
-        <v>0.9395153966862141</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP2">
-        <v>0.9395796847040793</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ2">
-        <v>0.9399679809045653</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR2">
-        <v>0.9403177236799141</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS2">
-        <v>0.9446606557388756</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT2">
-        <v>0.9586217259534916</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU2">
-        <v>0.9640929657172947</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV2">
-        <v>0.9641256698925649</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW2">
-        <v>0.9641256698925649</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX2">
-        <v>0.9654326507063057</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY2">
-        <v>0.9654326507063057</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ2">
-        <v>0.9681263065920407</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA2">
-        <v>0.9710475214559883</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB2">
-        <v>0.9719089397035522</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC2">
-        <v>0.9719834058405624</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD2">
-        <v>0.9719834058405624</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE2">
-        <v>0.9720017162821509</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF2">
-        <v>0.9720017162821509</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG2">
-        <v>0.9720480321692397</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH2">
-        <v>0.9731143161711657</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI2">
-        <v>0.9740936520914567</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ2">
-        <v>0.9741966102226971</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK2">
-        <v>0.9749840068039245</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL2">
-        <v>0.9810301657988553</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM2">
-        <v>0.9833948367146924</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN2">
-        <v>0.9833948367146924</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO2">
-        <v>0.9833948367146924</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP2">
-        <v>0.9848078685107411</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ2">
-        <v>0.9916045082977746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR2">
-        <v>0.9981740891411676</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,598 +7418,598 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001151656327831265</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002287470876655888</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002673577007560366</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0002673577007560366</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002829274692766503</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0002829274692766503</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002829274692766503</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0003691889192337631</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.000551338274785831</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0006760418378276691</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0008601695953276956</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001265416267778845</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001650564394885088</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002001260291003599</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.002393324721895245</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.002810280987382674</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003051362936730686</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.003227638405060223</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.00332451625482447</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003383982493904812</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.00343325847556093</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.00343325847556093</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003510176953819472</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003597189151235638</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.003652638289441869</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003852892994597399</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004447810883328995</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.00488555284934222</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.00520108033260726</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.005500281006771137</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.005677604200201494</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.005697539668262273</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.005788787923710657</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.005986982886094323</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.006111632272000771</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.006159331611876888</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.006220622685916873</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.00625081859227676</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.006295946146841229</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.006305686194173422</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.006305686194173422</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.006312202300303924</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.006361478281960042</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.006483602516558292</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.006755923829502825</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.007022120572040404</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.007443298407257896</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.007796707937830061</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.00815831975048119</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.008491814481234188</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.008749950178850529</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.008927337385235644</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.009168419334583656</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.009230262396409063</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.009230262396409063</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.009230262396409063</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.009238217290603574</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.009415540484033931</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.009632640862802477</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.00978941458564569</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.01002624758122072</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.01052917766205028</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01087862482978585</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01120452419458889</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01152632939457261</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01178007280789139</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01188436374043181</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01207355966928729</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01219031967637038</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.01220556700129125</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01220556700129125</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01220556700129125</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01224117633329373</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01228723937744587</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01238182445965459</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01266241687536532</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01293576551059596</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01314744959811303</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01351576863828331</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01418412494113836</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01459061841887946</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01490733402304986</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01551446475421514</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01595966857144088</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01614692588233468</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01624380373209892</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0162700699611918</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0162700699611918</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0162700699611918</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01876086046244346</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.08930123660520636</v>
+        <v>0.1623472804835598</v>
       </c>
       <c r="CO3">
-        <v>0.104154505806505</v>
+        <v>0.1623472804835598</v>
       </c>
       <c r="CP3">
-        <v>0.172787063523789</v>
+        <v>0.3170470318780135</v>
       </c>
       <c r="CQ3">
-        <v>0.1749695507678055</v>
+        <v>0.3170470318780135</v>
       </c>
       <c r="CR3">
-        <v>0.1776559090089672</v>
+        <v>0.3170470318780135</v>
       </c>
       <c r="CS3">
-        <v>0.1805981943685935</v>
+        <v>0.3170470318780135</v>
       </c>
       <c r="CT3">
-        <v>0.2077202970563611</v>
+        <v>0.3170470318780135</v>
       </c>
       <c r="CU3">
-        <v>0.2125976209206769</v>
+        <v>0.3170470318780135</v>
       </c>
       <c r="CV3">
-        <v>0.2870561087289982</v>
+        <v>0.4951001429251935</v>
       </c>
       <c r="CW3">
-        <v>0.3048691592724557</v>
+        <v>0.4951001429251935</v>
       </c>
       <c r="CX3">
-        <v>0.370576832774113</v>
+        <v>0.6380754362566861</v>
       </c>
       <c r="CY3">
-        <v>0.3714402381426724</v>
+        <v>0.6380754362566861</v>
       </c>
       <c r="CZ3">
-        <v>0.3773427875207663</v>
+        <v>0.6380754362566861</v>
       </c>
       <c r="DA3">
-        <v>0.3935476475430412</v>
+        <v>0.6380754362566861</v>
       </c>
       <c r="DB3">
-        <v>0.4279930045320276</v>
+        <v>0.6557350959143516</v>
       </c>
       <c r="DC3">
-        <v>0.5248473525544241</v>
+        <v>0.9235624696352445</v>
       </c>
       <c r="DD3">
-        <v>0.5251588500661145</v>
+        <v>0.9235624696352445</v>
       </c>
       <c r="DE3">
-        <v>0.5742674405569053</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.5742806663885726</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.5996912904324788</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.6021467186590809</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.6154573768134532</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.6171491500212239</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6206393200670828</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.6223109489759211</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.6240976503607145</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.6451532009548486</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.6565407330638463</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.6565407330638463</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.6565603428601153</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.6636041422591348</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.6665002858069236</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.6681460726528736</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.6692243179977001</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.6693581260238369</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.6772416404722683</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.679527799455951</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.6925543456609971</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.714329360399901</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7192209648322615</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7268112038934198</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.732807943762084</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7398650703958617</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7442502723596037</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.7454882733462204</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.746601955585711</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.746601955585711</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.7476002892051122</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.7495307590187817</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.7586177310391875</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.7656615304382069</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.7669299891112155</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7699619232567954</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7735325308738195</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.774348375187913</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7743789823957866</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7769336929023001</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.785239874143703</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7852501614632363</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7969134530879863</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8116871833634491</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8132892524963428</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8142057516979709</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8255253194970797</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8423700817012372</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8423700817012372</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8527937836411996</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8553847989382511</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8553847989382511</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8625906828246421</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8766829620934812</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8768603492998663</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.879448002990303</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8836779322223096</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.898133753190719</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8996154472192148</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9061737295404778</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.921974992440343</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9324796946564932</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9329494753617728</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9329494753617728</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9334967267865039</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9336307224143686</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9355180754815418</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9435982642496424</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9441688581170165</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9472915189822365</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9483861331537428</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9484919469796173</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9499493092743513</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9589140286706646</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9669250141361517</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9688554839498212</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9691645137325583</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9693689871027722</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9698384240752117</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9700267597605009</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9700845150377686</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9706280330579065</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.970684010626009</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9707317099658851</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9757180924337893</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.988390443972496</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9918890721218823</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9928693485992143</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9948795261101618</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9948795261101618</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9968853307880962</v>
+        <v>1</v>
       </c>
       <c r="GR3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.896516259912428E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.165946796668183E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002278337355534175</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0008266258832729465</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001057813005441052</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001099074652280161</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001099074652280161</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001099074652280161</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001099074652280161</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001161432496682439</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001284391994755068</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001284391994755068</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001284391994755068</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001899269924911898</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.003051032881553579</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.003286089964799153</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.003383949800205922</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.003976908974733248</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.004742358702808692</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.004918962525682725</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.005661447551726543</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.005811267745203957</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.005811267745203957</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.006071678378888809</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.006537172541799031</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.007013351337675279</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.007330984351900959</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.007668879863800916</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.007886487655438389</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.007963760786960341</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.008142630804477649</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.008481553925630643</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.008755059699559189</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.009187175211282358</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.009616981075254286</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.009933509695367557</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.01005646919344019</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.01018033300140054</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01021128851444006</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01023285578201314</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0103349115444911</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0103349115444911</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0103349115444911</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0103349115444911</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01053813409778793</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01053813409778793</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01053813409778793</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01053813409778793</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01053813409778793</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01053813409778793</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.06241742360108939</v>
+        <v>0.08738388601835465</v>
       </c>
       <c r="CO4">
-        <v>0.06303820800922855</v>
+        <v>0.08738388601835465</v>
       </c>
       <c r="CP4">
-        <v>0.152189282685384</v>
+        <v>0.3305211392606309</v>
       </c>
       <c r="CQ4">
-        <v>0.1736968656600934</v>
+        <v>0.3305211392606309</v>
       </c>
       <c r="CR4">
-        <v>0.1752307106600888</v>
+        <v>0.3305211392606309</v>
       </c>
       <c r="CS4">
-        <v>0.1787102097524393</v>
+        <v>0.3305211392606309</v>
       </c>
       <c r="CT4">
-        <v>0.1934331923052816</v>
+        <v>0.3305211392606309</v>
       </c>
       <c r="CU4">
-        <v>0.2045932501302489</v>
+        <v>0.3305211392606309</v>
       </c>
       <c r="CV4">
-        <v>0.2443392094123037</v>
+        <v>0.3672016036737512</v>
       </c>
       <c r="CW4">
-        <v>0.2500094947722237</v>
+        <v>0.3672016036737512</v>
       </c>
       <c r="CX4">
-        <v>0.3557837053268811</v>
+        <v>0.6798045230999799</v>
       </c>
       <c r="CY4">
-        <v>0.3881551463344083</v>
+        <v>0.6856679486300638</v>
       </c>
       <c r="CZ4">
-        <v>0.3896852890213105</v>
+        <v>0.6856679486300638</v>
       </c>
       <c r="DA4">
-        <v>0.4168363415297999</v>
+        <v>0.6856679486300638</v>
       </c>
       <c r="DB4">
-        <v>0.4179651758651718</v>
+        <v>0.6856679486300638</v>
       </c>
       <c r="DC4">
-        <v>0.5224222928322464</v>
+        <v>0.9927669255897944</v>
       </c>
       <c r="DD4">
-        <v>0.5516096071290865</v>
+        <v>0.9927669255897944</v>
       </c>
       <c r="DE4">
-        <v>0.5843088051522853</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF4">
-        <v>0.5904224510176787</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG4">
-        <v>0.6160076453209592</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH4">
-        <v>0.6172141917860746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI4">
-        <v>0.6279562386262085</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ4">
-        <v>0.6286594969603804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK4">
-        <v>0.6369717684588676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL4">
-        <v>0.644603282617138</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM4">
-        <v>0.6463838806672068</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN4">
-        <v>0.6515544403950226</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO4">
-        <v>0.6633046639001055</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP4">
-        <v>0.6646196174872017</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ4">
-        <v>0.665484900965124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR4">
-        <v>0.6664933662345158</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS4">
-        <v>0.672314304342381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT4">
-        <v>0.672314304342381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU4">
-        <v>0.6731287377917086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV4">
-        <v>0.6731287377917086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW4">
-        <v>0.6806099782322589</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX4">
-        <v>0.6970000304733741</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY4">
-        <v>0.6972099192832353</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ4">
-        <v>0.715699431396305</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA4">
-        <v>0.7226079436296857</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB4">
-        <v>0.7276918637122736</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC4">
-        <v>0.7344223087953748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED4">
-        <v>0.7373312206806826</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE4">
-        <v>0.740969916216295</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF4">
-        <v>0.7410669773496312</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG4">
-        <v>0.7431155729897704</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH4">
-        <v>0.7431155729897704</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI4">
-        <v>0.743634592603607</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ4">
-        <v>0.7441889718534423</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK4">
-        <v>0.751966685050382</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL4">
-        <v>0.7621910255435195</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM4">
-        <v>0.7663722775432078</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN4">
-        <v>0.7675464010964272</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO4">
-        <v>0.7709041946247369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP4">
-        <v>0.7712764393342848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ4">
-        <v>0.7712764393342848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER4">
-        <v>0.7712764393342848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES4">
-        <v>0.7753119815983337</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET4">
-        <v>0.7753119815983337</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU4">
-        <v>0.7839793013300036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV4">
-        <v>0.8060731347275565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW4">
-        <v>0.8144481357283251</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX4">
-        <v>0.8170326243978765</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY4">
-        <v>0.8236921054429234</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.8448887149436392</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.8489069776987124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.8535276983756681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.8625385371574048</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.8625627181299428</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.8668449080653321</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.8847128251870523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.8911885775781527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.8912525282658379</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.8929472432733208</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.9121666478516912</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.9228926858712668</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.9228926858712668</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.9309762417849776</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.9449686180669713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.948251825423604</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.948251825423604</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.9482561123804067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9482561123804067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9490633766396301</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.9567901411976388</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.961303066199175</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.9621089636587454</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.9629027356914995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9629027356914995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.9629027356914995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.9683798381965824</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.9732147994606184</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.9737691787104538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9737691787104538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9737691787104538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9737691787104538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9737691787104538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9744049369992037</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9744049369992037</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9745516343376641</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9745516343376641</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9752312270554493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9825556923686245</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.9888428032909358</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9890951624062991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9893545237926867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9893545237926867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9920318898620305</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9975886043337964</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
         <v>0.9999999999999999</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.386623711203177E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.386623711203177E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6.386623711203177E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6.386623711203177E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.729104159874711E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7.991836421702135E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001847881912804345</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0004292232954856277</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0005679659285749504</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.000603566643340759</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0006232290590861652</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0006718654742611963</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0006773083057303125</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0006773083057303125</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0006773083057303125</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0006886357436752565</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0006886357436752565</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0007491077650844948</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0007491077650844948</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0007491077650844948</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0008239714879858049</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0008914814078950329</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0008914814078950329</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0008914814078950329</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0009404805307156264</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0009404805307156264</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0009470758069977333</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0009769575034630855</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0009769575034630855</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0009769575034630855</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001128158211392965</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001277479764840478</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001277479764840478</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001277479764840478</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001277479764840478</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001327956904197057</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001353338155766667</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001353338155766667</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001393168002316999</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0015197357596988</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0015197357596988</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001541129898138301</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001996931416217313</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.002176969257364074</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.002194468184531896</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.002355729710603738</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.002714604976882262</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.002743217416662527</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002743217416662527</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.002743217416662527</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.002772543799792827</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.002812555651365533</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.002902432758313716</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.003014297872664367</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.003164423464604924</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.003404561874691887</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.00372724973397248</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.004022483429504936</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.004135999502760957</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.00414155256392307</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.004144923585089492</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.004154189252936082</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.004154189252936082</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.004154189252936082</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.004173995980326369</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.004387186487977362</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.004402499166164288</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.004438544799140384</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.00444658607840499</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.00444658607840499</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.004462451292678513</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.004671814120310413</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.004713822853626694</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.004713822853626694</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.004873977039606207</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.005394942150819953</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.005753817417098477</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.00587692911436722</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.005968699091595192</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.006148736932741953</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.006162342658884721</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.006163907763716021</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0061964491829008</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0064058120105327</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.006460397157546975</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.006461712149598672</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.006474676798567826</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.006477089832443922</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.006477089832443922</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.007219585786090528</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.06029858045457619</v>
+        <v>0.08822474096669598</v>
       </c>
       <c r="CO5">
-        <v>0.06047489655219185</v>
+        <v>0.08822474096669598</v>
       </c>
       <c r="CP5">
-        <v>0.1392512748763872</v>
+        <v>0.2749570197806467</v>
       </c>
       <c r="CQ5">
-        <v>0.1529594821117615</v>
+        <v>0.2749570197806467</v>
       </c>
       <c r="CR5">
-        <v>0.1529594821117615</v>
+        <v>0.2749570197806467</v>
       </c>
       <c r="CS5">
-        <v>0.160906926094817</v>
+        <v>0.2749570197806467</v>
       </c>
       <c r="CT5">
-        <v>0.1768213283691215</v>
+        <v>0.2749570197806467</v>
       </c>
       <c r="CU5">
-        <v>0.1783668461022503</v>
+        <v>0.2749570197806467</v>
       </c>
       <c r="CV5">
-        <v>0.2347151665181118</v>
+        <v>0.3757142906776055</v>
       </c>
       <c r="CW5">
-        <v>0.234797082958189</v>
+        <v>0.3757142906776055</v>
       </c>
       <c r="CX5">
-        <v>0.3317277428866319</v>
+        <v>0.6320386184791109</v>
       </c>
       <c r="CY5">
-        <v>0.3507534474764754</v>
+        <v>0.6320386184791109</v>
       </c>
       <c r="CZ5">
-        <v>0.3534915965069488</v>
+        <v>0.6320386184791109</v>
       </c>
       <c r="DA5">
-        <v>0.3858917405950583</v>
+        <v>0.6409937075825705</v>
       </c>
       <c r="DB5">
-        <v>0.3925896954852764</v>
+        <v>0.6409937075825705</v>
       </c>
       <c r="DC5">
-        <v>0.5069538307561366</v>
+        <v>0.9641469684424335</v>
       </c>
       <c r="DD5">
-        <v>0.5182275431034395</v>
+        <v>0.9641469684424335</v>
       </c>
       <c r="DE5">
-        <v>0.5576444776006665</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.5580616440835824</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.5801675207408533</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.5803343714343224</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.5911066761372465</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.5948172257759553</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.5999617733647367</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.6018408306163365</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.6018408306163365</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.6098253122655162</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.6224784748967001</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.6242745585922124</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.624517038603741</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.6272749771837717</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.6308637509947524</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.6311362286182791</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.6318769991085681</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.6320863619362</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.6391733689294608</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.649976110069691</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.6524993366652856</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.6721893350226823</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.6797023892741587</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.6888050863997796</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.6987158585535636</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.7047117130030411</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.709850251909516</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.7099060589716567</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.7102525105528499</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.7102525105528499</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.7121791946075969</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.7135811212765172</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.7227575067243127</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.7340108288543512</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.7394321622377316</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.7433600399899988</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.7504717462468808</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.7533962177680658</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.7538256378321057</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.7549555088518274</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.7630563983185451</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.7637073583388043</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.7717596660099008</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.7903126207505206</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.7952651762512758</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.7973354232969618</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8054536199343743</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8262600862071809</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8286175175870411</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8328478023036492</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8375296843626858</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8375442036481646</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8405439935458701</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8535838078150243</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.855166724356838</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8575282323764876</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8591053021586033</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8709843423759447</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.875736726441059</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8770596322702482</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.8881320141569233</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9056315034147664</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9107910862446402</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.911422327540191</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9119713259165735</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9120688146955367</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9127878993871702</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9187497480836382</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9205008824640892</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9242483165690796</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9284120863857219</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9288353582232534</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9306933757624448</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9444649243149209</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9553810884825631</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9599390868123732</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9620804323208537</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9623086387692243</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9625211418427128</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9625318549432733</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9630204978955587</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.963060327742109</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9630727280481765</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9633236585249209</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9680690839283386</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9815649379343087</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9900532054348471</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9926283269731815</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9961064407680469</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9963778564198901</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9978434607838387</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9999548041885981</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9740,598 +9740,598 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.254964278001353E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.254964278001353E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>9.746675694447562E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>9.746675694447562E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.90657402264985E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.90657402264985E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.344570445667038E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0004192096306090451</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0005472212099357136</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0005472212099357136</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0005801259006215892</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0006653280854497387</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0006976717596098713</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0006976717596098713</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0007276354468494717</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0007629273667967312</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0007856529193209663</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0007866033817390893</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0008025349683591141</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0008025349683591141</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0008025349683591141</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0008025349683591141</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0008404441557051071</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0008404441557051071</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0008490323538614493</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0008490323538614493</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0008490323538614493</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0008681925134227824</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0008754474777007838</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0008754474777007838</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0008754474777007838</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0008754474777007838</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0008754474777007838</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0008813016570675395</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0009741566181838346</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0009741566181838346</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.000987690240462845</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.000987690240462845</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001000442694305475</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001001126730288475</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001001126730288475</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001002435024346337</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.00110105593429455</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.00110105593429455</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.00110105593429455</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001189004359989581</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001189004359989581</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.00122533743215517</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.00122533743215517</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001242913046202511</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001257602326543623</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001375246762841316</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001375246762841316</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001375246762841316</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.001375246762841316</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.001375246762841316</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001404286542912584</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001478136881212461</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001487141606278029</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001487141606278029</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.001487141606278029</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.001487141606278029</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.001487141606278029</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.00152806092640774</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001616653657555055</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.001678569495078492</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.001691679039068774</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.001691679039068774</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.001691679039068774</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.001787377311296252</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.002073349682541208</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002127057925081104</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.002127057925081104</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.002215006350776135</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.002505714257727798</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.002624217369957546</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.002624217369957546</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.002717850275675203</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.002951360004730251</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.002951360004730251</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.002969771247249219</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.04678786341128432</v>
+        <v>0.06543323007269196</v>
       </c>
       <c r="CO6">
-        <v>0.04847695060439351</v>
+        <v>0.06543323007269196</v>
       </c>
       <c r="CP6">
-        <v>0.1228754417202506</v>
+        <v>0.2765253907028835</v>
       </c>
       <c r="CQ6">
-        <v>0.1458142505034618</v>
+        <v>0.2765253907028835</v>
       </c>
       <c r="CR6">
-        <v>0.1470441458945041</v>
+        <v>0.2765253907028835</v>
       </c>
       <c r="CS6">
-        <v>0.1478026056731415</v>
+        <v>0.2765253907028835</v>
       </c>
       <c r="CT6">
-        <v>0.1478134136969308</v>
+        <v>0.2765253907028835</v>
       </c>
       <c r="CU6">
-        <v>0.1722764603054532</v>
+        <v>0.2765253907028835</v>
       </c>
       <c r="CV6">
-        <v>0.1915347742788776</v>
+        <v>0.2765253907028835</v>
       </c>
       <c r="CW6">
-        <v>0.2057907458323907</v>
+        <v>0.2765253907028835</v>
       </c>
       <c r="CX6">
-        <v>0.2816519770853976</v>
+        <v>0.4945847973914552</v>
       </c>
       <c r="CY6">
-        <v>0.3375672457642998</v>
+        <v>0.6176386555238692</v>
       </c>
       <c r="CZ6">
-        <v>0.3394966229503169</v>
+        <v>0.6176386555238692</v>
       </c>
       <c r="DA6">
-        <v>0.3663368691112796</v>
+        <v>0.6176386555238692</v>
       </c>
       <c r="DB6">
-        <v>0.3675907002481964</v>
+        <v>0.6176386555238692</v>
       </c>
       <c r="DC6">
-        <v>0.46703230299459</v>
+        <v>0.9480148341187347</v>
       </c>
       <c r="DD6">
-        <v>0.5080270381112438</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.5362991727196208</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.5448758968367561</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.5702685949197041</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.5710783711282156</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.5805387340754453</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.5825278809419464</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.5960416941685251</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6000314779946899</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6013358154788665</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.6034897495803428</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.6145857537696801</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.6179568731205635</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.619773020952976</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.6200437583608888</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.6230444516432981</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.6231757152724698</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.6246379277602379</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.6246542085806008</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.631025688070228</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.644733243446629</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.6449457339519764</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.6580969996892724</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.6653803408634522</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.6703649893396207</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.6774620012781116</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.6796292306638344</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.6827482760168363</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.682830726188397</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.6852318610091067</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.6859350434355689</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.6865783110537859</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.6873514570514757</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.698328044893282</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.7121304841658663</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.7198430709958271</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7231985147624914</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7296224247663292</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.7307759312210736</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.730810364055713</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.730810364055713</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.7351897418720008</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7357068544646</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.743585852587849</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7724496216259719</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.7871319099916878</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7947513250798611</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8062895766225073</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8320240212847633</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8404723498761628</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.842079669054378</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8495471002384117</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.850275877255977</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8549670172768042</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8738826645785737</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8820851860344485</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8820907241565755</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8847793485035508</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9047665953543712</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9192446994753294</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9194801177187283</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9235077771413431</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9353564319211625</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9411166098817038</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9415088707188582</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9417143635857765</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9417205933966066</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9427167211156711</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9489546954064136</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9559336565869967</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9559336565869967</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.956458832409381</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9564704846615454</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9564704846615454</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9622104993551723</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9681911051537174</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9700790567119506</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9707714061998873</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9707732567965752</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9708763297394029</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9713721418429873</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9721797010603924</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9721897600657987</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9722394154972074</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9722394154972074</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9731996562032706</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9808713161817897</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9883217489356387</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9890268951923565</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9896063177029479</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9896063177029479</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9922401193959474</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.997728738270992</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.05212289791654041</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5422791516664932</v>
+        <v>0.7223375685091897</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.0162700699611918</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5248473525544241</v>
+        <v>0.6380754362566861</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.06241742360108939</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5224222928322464</v>
+        <v>0.6798045230999799</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.06029858045457619</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5069538307561366</v>
+        <v>0.6320386184791109</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -10734,16 +10734,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.04678786341128432</v>
+        <v>0.06543323007269196</v>
       </c>
       <c r="F6">
-        <v>0.5080270381112438</v>
+        <v>0.6176386555238692</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.05212289791654041</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7021105468897684</v>
+        <v>0.7223375685091897</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.0162700699611918</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.714329360399901</v>
+        <v>0.9235624696352445</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.06241742360108939</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.715699431396305</v>
+        <v>0.9927669255897944</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.06029858045457619</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7047117130030411</v>
+        <v>0.9641469684424335</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -10993,16 +10993,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.04678786341128432</v>
+        <v>0.06543323007269196</v>
       </c>
       <c r="F6">
-        <v>0.7121304841658663</v>
+        <v>0.9480148341187347</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.05212289791654041</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8133991425797165</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.0162700699611918</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8116871833634491</v>
+        <v>0.9235624696352445</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.06241742360108939</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8060731347275565</v>
+        <v>0.9927669255897944</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.06029858045457619</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8054536199343743</v>
+        <v>0.9641469684424335</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -11252,16 +11252,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.04678786341128432</v>
+        <v>0.06543323007269196</v>
       </c>
       <c r="F6">
-        <v>0.8062895766225073</v>
+        <v>0.9480148341187347</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.05212289791654041</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9057227399912876</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.0162700699611918</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9061737295404778</v>
+        <v>0.9235624696352445</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.06241742360108939</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9121666478516912</v>
+        <v>0.9927669255897944</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.06029858045457619</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9056315034147664</v>
+        <v>0.9641469684424335</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -11511,16 +11511,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.04678786341128432</v>
+        <v>0.06543323007269196</v>
       </c>
       <c r="F6">
-        <v>0.9047665953543712</v>
+        <v>0.9480148341187347</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>

--- a/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1353688308727826</v>
+        <v>0.1186693222283593</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1949683137532745</v>
+        <v>0.1595449640769495</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.005939617498157672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -686,46 +686,46 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03381241703695725</v>
+        <v>0.0490179863651893</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03977731987164796</v>
+        <v>0.05310894857070642</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2669561370721636</v>
+        <v>0.208917011303313</v>
       </c>
       <c r="O2">
-        <v>0.02937495169687042</v>
+        <v>0.04597460016130846</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.007336005600557827</v>
       </c>
       <c r="Q2">
-        <v>0.02556512774236847</v>
+        <v>0.04336167481457908</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.007705953746174922</v>
       </c>
       <c r="S2">
-        <v>0.2241576080301018</v>
+        <v>0.1795641166099528</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.001703249647175059</v>
       </c>
       <c r="U2">
-        <v>0.03105386436408646</v>
+        <v>0.04712606372379931</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01896542955974695</v>
+        <v>0.03883534528647627</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.01180807826920115</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.006265197767570857</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01274100203781232</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.002380862292716817</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1507546872352683</v>
+        <v>0.12552570646785</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01642173196247968</v>
       </c>
       <c r="F3">
-        <v>0.145127221645521</v>
+        <v>0.1217878471268516</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -793,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02268440729083588</v>
+        <v>0.0404592259074496</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1623118869562971</v>
+        <v>0.1332021971089895</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02222063095063881</v>
       </c>
       <c r="N3">
-        <v>0.1364997311791247</v>
+        <v>0.1160573197135972</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -814,31 +814,31 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.01906981225561625</v>
       </c>
       <c r="R3">
-        <v>0.04428570908911041</v>
+        <v>0.05480718173529305</v>
       </c>
       <c r="S3">
-        <v>0.2283726456869734</v>
+        <v>0.1770808881746029</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.08753764588971123</v>
+        <v>0.0835358613527996</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01763608243596958</v>
+        <v>0.03710604179388791</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.01339939868679957</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.00478998259118835</v>
+        <v>0.02857344154348493</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.009631548163594437</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.001121167056065033</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09388291779949773</v>
+        <v>0.0883374007051044</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2031067344265188</v>
+        <v>0.1607867789549209</v>
       </c>
       <c r="G4">
-        <v>0.004879568774382425</v>
+        <v>0.02930048459878909</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -900,61 +900,61 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01611249051806235</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.009186831334089731</v>
       </c>
       <c r="L4">
-        <v>0.05832656789528782</v>
+        <v>0.06475247643726263</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2518203213003221</v>
+        <v>0.1930990455494609</v>
       </c>
       <c r="O4">
-        <v>0.03671576959319127</v>
+        <v>0.05041779240204328</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02141758214398919</v>
+        <v>0.04027033369504146</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2479606191738044</v>
+        <v>0.1905388619930614</v>
       </c>
       <c r="T4">
-        <v>0.02738478449675987</v>
+        <v>0.04422844570485494</v>
       </c>
       <c r="U4">
-        <v>0.03767625141642359</v>
+        <v>0.05105489072970067</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01682888297982313</v>
+        <v>0.03722659825632727</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.008374296173449449</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0036512674273713</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.002328002501664623</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01033400301879576</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -989,70 +989,70 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09989383218657322</v>
+        <v>0.09492978098295007</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.174579397906305</v>
+        <v>0.1469962045922749</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.01515916605229003</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00348706963084697</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01962921977451825</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.109395633857756</v>
+        <v>0.1015538833258328</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2273420763958441</v>
+        <v>0.1837792689304104</v>
       </c>
       <c r="O5">
-        <v>0.0009230860508502449</v>
+        <v>0.02593314497203656</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.03979387513565202</v>
+        <v>0.05303159366174509</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0009554333648938773</v>
       </c>
       <c r="S5">
-        <v>0.2780098403150762</v>
+        <v>0.2191018809255556</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.01022654552502888</v>
       </c>
       <c r="U5">
-        <v>0.06018711704163449</v>
+        <v>0.0672485733634037</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.00987514111030843</v>
+        <v>0.03217399601745624</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.009210624870889444</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.003562113022024646</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.01302150098784271</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08021140741097506</v>
+        <v>0.07690499236370145</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1774842346453487</v>
+        <v>0.1394005087564766</v>
       </c>
       <c r="G6">
-        <v>0.0137967432896817</v>
+        <v>0.03423512403230967</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1117,55 +1117,55 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01864517325552928</v>
+        <v>0.03735012688587919</v>
       </c>
       <c r="L6">
-        <v>0.002089501133245453</v>
+        <v>0.02671349476642149</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01649047664300325</v>
       </c>
       <c r="N6">
-        <v>0.1821370473465147</v>
+        <v>0.1423898320927626</v>
       </c>
       <c r="O6">
-        <v>0.1186911722763149</v>
+        <v>0.1016273412899613</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02620677903217276</v>
+        <v>0.0422082817396628</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.257143570512292</v>
+        <v>0.1905797689060255</v>
       </c>
       <c r="T6">
-        <v>0.0712306245662664</v>
+        <v>0.07113504943668936</v>
       </c>
       <c r="U6">
-        <v>0.03076145596047766</v>
+        <v>0.04513455513717423</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.004884104148715387</v>
       </c>
       <c r="W6">
-        <v>0.02160229057118139</v>
+        <v>0.03925000559743771</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.00668994929411269</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01497376759156037</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01003262131810643</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1323,79 +1323,79 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1353688308727826</v>
+        <v>0.1186693222283593</v>
       </c>
       <c r="E2">
-        <v>0.1353688308727826</v>
+        <v>0.1186693222283593</v>
       </c>
       <c r="F2">
-        <v>0.3303371446260571</v>
+        <v>0.2782142863053088</v>
       </c>
       <c r="G2">
-        <v>0.3303371446260571</v>
+        <v>0.2841539038034665</v>
       </c>
       <c r="H2">
-        <v>0.3303371446260571</v>
+        <v>0.2841539038034665</v>
       </c>
       <c r="I2">
-        <v>0.3303371446260571</v>
+        <v>0.2841539038034665</v>
       </c>
       <c r="J2">
-        <v>0.3641495616630144</v>
+        <v>0.3331718901686558</v>
       </c>
       <c r="K2">
-        <v>0.3641495616630144</v>
+        <v>0.3331718901686558</v>
       </c>
       <c r="L2">
-        <v>0.4039268815346623</v>
+        <v>0.3862808387393622</v>
       </c>
       <c r="M2">
-        <v>0.4039268815346623</v>
+        <v>0.3862808387393622</v>
       </c>
       <c r="N2">
-        <v>0.670883018606826</v>
+        <v>0.5951978500426751</v>
       </c>
       <c r="O2">
-        <v>0.7002579703036964</v>
+        <v>0.6411724502039836</v>
       </c>
       <c r="P2">
-        <v>0.7002579703036964</v>
+        <v>0.6485084558045414</v>
       </c>
       <c r="Q2">
-        <v>0.7258230980460649</v>
+        <v>0.6918701306191205</v>
       </c>
       <c r="R2">
-        <v>0.7258230980460649</v>
+        <v>0.6995760843652954</v>
       </c>
       <c r="S2">
-        <v>0.9499807060761667</v>
+        <v>0.8791402009752483</v>
       </c>
       <c r="T2">
-        <v>0.9499807060761667</v>
+        <v>0.8808434506224233</v>
       </c>
       <c r="U2">
-        <v>0.9810345704402531</v>
+        <v>0.9279695143462227</v>
       </c>
       <c r="V2">
-        <v>0.9810345704402531</v>
+        <v>0.9279695143462227</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9668048596326989</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9668048596326989</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9668048596326989</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9786129379019001</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9848781356694709</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9976191377072833</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1507546872352683</v>
+        <v>0.12552570646785</v>
       </c>
       <c r="E3">
-        <v>0.1507546872352683</v>
+        <v>0.1419474384303296</v>
       </c>
       <c r="F3">
-        <v>0.2958819088807893</v>
+        <v>0.2637352855571813</v>
       </c>
       <c r="G3">
-        <v>0.2958819088807893</v>
+        <v>0.2637352855571813</v>
       </c>
       <c r="H3">
-        <v>0.2958819088807893</v>
+        <v>0.2637352855571813</v>
       </c>
       <c r="I3">
-        <v>0.2958819088807893</v>
+        <v>0.2637352855571813</v>
       </c>
       <c r="J3">
-        <v>0.3185663161716252</v>
+        <v>0.3041945114646309</v>
       </c>
       <c r="K3">
-        <v>0.3185663161716252</v>
+        <v>0.3041945114646309</v>
       </c>
       <c r="L3">
-        <v>0.4808782031279222</v>
+        <v>0.4373967085736203</v>
       </c>
       <c r="M3">
-        <v>0.4808782031279222</v>
+        <v>0.4596173395242591</v>
       </c>
       <c r="N3">
-        <v>0.6173779343070469</v>
+        <v>0.5756746592378563</v>
       </c>
       <c r="O3">
-        <v>0.6173779343070469</v>
+        <v>0.5756746592378563</v>
       </c>
       <c r="P3">
-        <v>0.6173779343070469</v>
+        <v>0.5756746592378563</v>
       </c>
       <c r="Q3">
-        <v>0.6173779343070469</v>
+        <v>0.5947444714934725</v>
       </c>
       <c r="R3">
-        <v>0.6616636433961574</v>
+        <v>0.6495516532287656</v>
       </c>
       <c r="S3">
-        <v>0.8900362890831308</v>
+        <v>0.8266325414033685</v>
       </c>
       <c r="T3">
-        <v>0.8900362890831308</v>
+        <v>0.8266325414033685</v>
       </c>
       <c r="U3">
-        <v>0.9775739349728421</v>
+        <v>0.9101684027561681</v>
       </c>
       <c r="V3">
-        <v>0.9775739349728421</v>
+        <v>0.9101684027561681</v>
       </c>
       <c r="W3">
-        <v>0.9952100174088117</v>
+        <v>0.9472744445500559</v>
       </c>
       <c r="X3">
-        <v>0.9952100174088117</v>
+        <v>0.9472744445500559</v>
       </c>
       <c r="Y3">
-        <v>0.9952100174088117</v>
+        <v>0.9606738432368555</v>
       </c>
       <c r="Z3">
-        <v>0.9952100174088117</v>
+        <v>0.9606738432368555</v>
       </c>
       <c r="AA3">
-        <v>0.9952100174088117</v>
+        <v>0.9606738432368555</v>
       </c>
       <c r="AB3">
-        <v>0.9952100174088117</v>
+        <v>0.9606738432368555</v>
       </c>
       <c r="AC3">
-        <v>0.9952100174088117</v>
+        <v>0.9606738432368555</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9892472847803404</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9988788329439349</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9988788329439349</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9988788329439349</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,85 +1537,85 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09388291779949773</v>
+        <v>0.0883374007051044</v>
       </c>
       <c r="E4">
-        <v>0.09388291779949773</v>
+        <v>0.0883374007051044</v>
       </c>
       <c r="F4">
-        <v>0.2969896522260165</v>
+        <v>0.2491241796600253</v>
       </c>
       <c r="G4">
-        <v>0.301869221000399</v>
+        <v>0.2784246642588143</v>
       </c>
       <c r="H4">
-        <v>0.301869221000399</v>
+        <v>0.2784246642588143</v>
       </c>
       <c r="I4">
-        <v>0.301869221000399</v>
+        <v>0.2784246642588143</v>
       </c>
       <c r="J4">
-        <v>0.301869221000399</v>
+        <v>0.2945371547768767</v>
       </c>
       <c r="K4">
-        <v>0.301869221000399</v>
+        <v>0.3037239861109664</v>
       </c>
       <c r="L4">
-        <v>0.3601957888956868</v>
+        <v>0.368476462548229</v>
       </c>
       <c r="M4">
-        <v>0.3601957888956868</v>
+        <v>0.368476462548229</v>
       </c>
       <c r="N4">
-        <v>0.6120161101960089</v>
+        <v>0.56157550809769</v>
       </c>
       <c r="O4">
-        <v>0.6487318797892001</v>
+        <v>0.6119933004997332</v>
       </c>
       <c r="P4">
-        <v>0.6487318797892001</v>
+        <v>0.6119933004997332</v>
       </c>
       <c r="Q4">
-        <v>0.6701494619331892</v>
+        <v>0.6522636341947747</v>
       </c>
       <c r="R4">
-        <v>0.6701494619331892</v>
+        <v>0.6522636341947747</v>
       </c>
       <c r="S4">
-        <v>0.9181100811069935</v>
+        <v>0.8428024961878361</v>
       </c>
       <c r="T4">
-        <v>0.9454948656037534</v>
+        <v>0.887030941892691</v>
       </c>
       <c r="U4">
-        <v>0.983171117020177</v>
+        <v>0.9380858326223918</v>
       </c>
       <c r="V4">
-        <v>0.983171117020177</v>
+        <v>0.9380858326223918</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.975312430878719</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.975312430878719</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9836867270521684</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9836867270521684</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9873379944795397</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9896659969812044</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9896659969812044</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9896659969812044</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09989383218657322</v>
+        <v>0.09492978098295007</v>
       </c>
       <c r="E5">
-        <v>0.09989383218657322</v>
+        <v>0.09492978098295007</v>
       </c>
       <c r="F5">
-        <v>0.2744732300928782</v>
+        <v>0.2419259855752249</v>
       </c>
       <c r="G5">
-        <v>0.2744732300928782</v>
+        <v>0.2570851516275149</v>
       </c>
       <c r="H5">
-        <v>0.2744732300928782</v>
+        <v>0.2570851516275149</v>
       </c>
       <c r="I5">
-        <v>0.2744732300928782</v>
+        <v>0.2605722212583619</v>
       </c>
       <c r="J5">
-        <v>0.2744732300928782</v>
+        <v>0.2802014410328802</v>
       </c>
       <c r="K5">
-        <v>0.2744732300928782</v>
+        <v>0.2802014410328802</v>
       </c>
       <c r="L5">
-        <v>0.3838688639506342</v>
+        <v>0.381755324358713</v>
       </c>
       <c r="M5">
-        <v>0.3838688639506342</v>
+        <v>0.381755324358713</v>
       </c>
       <c r="N5">
-        <v>0.6112109403464784</v>
+        <v>0.5655345932891234</v>
       </c>
       <c r="O5">
-        <v>0.6121340263973286</v>
+        <v>0.5914677382611599</v>
       </c>
       <c r="P5">
-        <v>0.6121340263973286</v>
+        <v>0.5914677382611599</v>
       </c>
       <c r="Q5">
-        <v>0.6519279015329806</v>
+        <v>0.6444993319229051</v>
       </c>
       <c r="R5">
-        <v>0.6519279015329806</v>
+        <v>0.645454765287799</v>
       </c>
       <c r="S5">
-        <v>0.9299377418480568</v>
+        <v>0.8645566462133546</v>
       </c>
       <c r="T5">
-        <v>0.9299377418480568</v>
+        <v>0.8747831917383835</v>
       </c>
       <c r="U5">
-        <v>0.9901248588896913</v>
+        <v>0.9420317651017872</v>
       </c>
       <c r="V5">
-        <v>0.9901248588896913</v>
+        <v>0.9420317651017872</v>
       </c>
       <c r="W5">
-        <v>0.9999999999999997</v>
+        <v>0.9742057611192434</v>
       </c>
       <c r="X5">
-        <v>0.9999999999999997</v>
+        <v>0.9742057611192434</v>
       </c>
       <c r="Y5">
-        <v>0.9999999999999997</v>
+        <v>0.9834163859901328</v>
       </c>
       <c r="Z5">
-        <v>0.9999999999999997</v>
+        <v>0.9834163859901328</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999997</v>
+        <v>0.9834163859901328</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999997</v>
+        <v>0.9834163859901328</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999997</v>
+        <v>0.9834163859901328</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999997</v>
+        <v>0.9869784990121575</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08021140741097506</v>
+        <v>0.07690499236370145</v>
       </c>
       <c r="E6">
-        <v>0.08021140741097506</v>
+        <v>0.07690499236370145</v>
       </c>
       <c r="F6">
-        <v>0.2576956420563237</v>
+        <v>0.216305501120178</v>
       </c>
       <c r="G6">
-        <v>0.2714923853460054</v>
+        <v>0.2505406251524877</v>
       </c>
       <c r="H6">
-        <v>0.2714923853460054</v>
+        <v>0.2505406251524877</v>
       </c>
       <c r="I6">
-        <v>0.2714923853460054</v>
+        <v>0.2505406251524877</v>
       </c>
       <c r="J6">
-        <v>0.2714923853460054</v>
+        <v>0.2505406251524877</v>
       </c>
       <c r="K6">
-        <v>0.2901375586015347</v>
+        <v>0.2878907520383669</v>
       </c>
       <c r="L6">
-        <v>0.2922270597347802</v>
+        <v>0.3146042468047884</v>
       </c>
       <c r="M6">
-        <v>0.2922270597347802</v>
+        <v>0.3310947234477916</v>
       </c>
       <c r="N6">
-        <v>0.4743641070812948</v>
+        <v>0.4734845555405542</v>
       </c>
       <c r="O6">
-        <v>0.5930552793576097</v>
+        <v>0.5751118968305156</v>
       </c>
       <c r="P6">
-        <v>0.5930552793576097</v>
+        <v>0.5751118968305156</v>
       </c>
       <c r="Q6">
-        <v>0.6192620583897824</v>
+        <v>0.6173201785701784</v>
       </c>
       <c r="R6">
-        <v>0.6192620583897824</v>
+        <v>0.6173201785701784</v>
       </c>
       <c r="S6">
-        <v>0.8764056289020745</v>
+        <v>0.8078999474762039</v>
       </c>
       <c r="T6">
-        <v>0.9476362534683409</v>
+        <v>0.8790349969128932</v>
       </c>
       <c r="U6">
-        <v>0.9783977094288185</v>
+        <v>0.9241695520500675</v>
       </c>
       <c r="V6">
-        <v>0.9783977094288185</v>
+        <v>0.9290536561987829</v>
       </c>
       <c r="W6">
-        <v>0.9999999999999999</v>
+        <v>0.9683036617962206</v>
       </c>
       <c r="X6">
-        <v>0.9999999999999999</v>
+        <v>0.9683036617962206</v>
       </c>
       <c r="Y6">
-        <v>0.9999999999999999</v>
+        <v>0.9749936110903333</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999999</v>
+        <v>0.9749936110903333</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999999</v>
+        <v>0.9899673786818937</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999999</v>
+        <v>0.9899673786818937</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>0.9899673786818937</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>0.9899673786818937</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.670883018606826</v>
+        <v>0.5951978500426751</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6173779343070469</v>
+        <v>0.5756746592378563</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6120161101960089</v>
+        <v>0.56157550809769</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6112109403464784</v>
+        <v>0.5655345932891234</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5930552793576097</v>
+        <v>0.5751118968305156</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7002579703036964</v>
+        <v>0.8791402009752483</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8900362890831308</v>
+        <v>0.8266325414033685</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9181100811069935</v>
+        <v>0.8428024961878361</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9299377418480568</v>
+        <v>0.8645566462133546</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8764056289020745</v>
+        <v>0.8078999474762039</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9499807060761667</v>
+        <v>0.8791402009752483</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8900362890831308</v>
+        <v>0.8266325414033685</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9181100811069935</v>
+        <v>0.8428024961878361</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9299377418480568</v>
+        <v>0.8645566462133546</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8764056289020745</v>
+        <v>0.8078999474762039</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9499807060761667</v>
+        <v>0.9279695143462227</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9775739349728421</v>
+        <v>0.9101684027561681</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9181100811069935</v>
+        <v>0.9380858326223918</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9299377418480568</v>
+        <v>0.9420317651017872</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9241695520500675</v>
+      </c>
+      <c r="G6">
         <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9476362534683409</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
       </c>
       <c r="H6">
         <v>1</v>
